--- a/jyx2/excel/头像模型映射.xlsx
+++ b/jyx2/excel/头像模型映射.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jyqxz-rematser\svn\trunk\jyx2\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B7EFE7-B6AB-459C-815A-50DE6432BC1A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12090"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -21,17 +15,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$134</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>CGGG</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="135">
   <si>
     <t>代号</t>
   </si>
@@ -161,12 +155,15 @@
     <t>@Assets/3D/Prefabs/BattleNpc/韦一笑.prefab</t>
   </si>
   <si>
-    <t>@Assets/3D/Prefabs/StoryNpc/老太太.prefab</t>
+    <t>@Assets/3D/Prefabs/BattleNpc/金花婆婆.prefab</t>
   </si>
   <si>
     <t>@Assets/3D/Prefabs/BattleNpc/胡青牛.prefab</t>
   </si>
   <si>
+    <t>@Assets/3D/Prefabs/BattleNpc/王难姑.prefab</t>
+  </si>
+  <si>
     <t>@Assets/3D/Prefabs/BattleNpc/方丈.prefab</t>
   </si>
   <si>
@@ -176,6 +173,9 @@
     <t>@Assets/3D/Prefabs/BattleNpc/莫大.prefab</t>
   </si>
   <si>
+    <t>@Assets/3D/Prefabs/BattleNpc/定闲.prefab</t>
+  </si>
+  <si>
     <t>@Assets/3D/Prefabs/BattleNpc/左冷禅.prefab</t>
   </si>
   <si>
@@ -434,6 +434,9 @@
     <t>火蜘蛛#</t>
   </si>
   <si>
+    <t>蟒牯朱蛤#</t>
+  </si>
+  <si>
     <t>千年冰蚕（无战斗）</t>
   </si>
   <si>
@@ -461,6 +464,9 @@
     <t>韦小宝</t>
   </si>
   <si>
+    <t>@Assets/3D/Prefabs/BattleNpc/韦小宝.prefab</t>
+  </si>
+  <si>
     <t>霍青桐</t>
   </si>
   <si>
@@ -474,17 +480,19 @@
   </si>
   <si>
     <t>软体娃娃</t>
-  </si>
-  <si>
-    <t>蟒牯朱蛤#</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -502,7 +510,7 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -514,7 +522,158 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -527,28 +686,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -557,7 +696,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79995117038483843"/>
+        <fgColor theme="9" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,7 +708,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39985351115451523"/>
+        <fgColor theme="6" tint="0.399853511154515"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,12 +726,186 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -609,35 +928,277 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="34">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
@@ -652,10 +1213,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="14" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
@@ -666,18 +1227,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="14" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
@@ -686,29 +1250,32 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="34" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="34" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="34" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="14" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="34" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="34" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -716,35 +1283,78 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="4" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="4" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="34" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="34" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="34" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="53">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="4" builtinId="26"/>
-    <cellStyle name="普通" xfId="1" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="普通 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="普通 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="普通 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="普通" xfId="11"/>
+    <cellStyle name="百分比" xfId="12" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
+    <cellStyle name="普通 2" xfId="14"/>
+    <cellStyle name="注释" xfId="15" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
+    <cellStyle name="标题" xfId="19" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
+    <cellStyle name="普通 4" xfId="21"/>
+    <cellStyle name="标题 1" xfId="22" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
+    <cellStyle name="输出" xfId="27" builtinId="21"/>
+    <cellStyle name="计算" xfId="28" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
+    <cellStyle name="汇总" xfId="33" builtinId="25"/>
+    <cellStyle name="好" xfId="34" builtinId="26"/>
+    <cellStyle name="适中" xfId="35" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="42" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="43" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="44" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="45" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="48" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="49" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="50" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="51" builtinId="52"/>
+    <cellStyle name="普通 3" xfId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -5574,31 +6184,31 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C104" sqref="C104"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="F112" sqref="F112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="3" max="3" width="24.875" customWidth="1"/>
     <col min="4" max="4" width="6.375" customWidth="1"/>
     <col min="5" max="5" width="51.875" customWidth="1"/>
-    <col min="6" max="6" width="78.25" style="4" customWidth="1"/>
+    <col min="6" max="6" width="78.25" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -5610,15 +6220,15 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="54" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+    <row r="2" ht="54" spans="1:6">
+      <c r="A2" s="6">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="str">
+      <c r="B2" s="8" t="str">
         <f>VLOOKUP(A2,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>小虾米</v>
       </c>
@@ -5628,15 +6238,15 @@
       <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="27" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+    <row r="3" ht="27" spans="1:6">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="str">
+      <c r="B3" s="8" t="str">
         <f>VLOOKUP(A3,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>胡斐</v>
       </c>
@@ -5646,31 +6256,31 @@
       <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+    <row r="4" spans="1:6">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="str">
+      <c r="B4" s="8" t="str">
         <f>VLOOKUP(A4,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>程灵素</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="10"/>
-    </row>
-    <row r="5" spans="1:6" ht="27" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" ht="27" spans="1:6">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="str">
+      <c r="B5" s="8" t="str">
         <f>VLOOKUP(A5,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>苗人凤</v>
       </c>
@@ -5680,15 +6290,15 @@
       <c r="E5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+    <row r="6" spans="1:5">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="str">
+      <c r="B6" s="8" t="str">
         <f>VLOOKUP(A6,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>阎基</v>
       </c>
@@ -5699,11 +6309,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+    <row r="7" spans="1:5">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="str">
+      <c r="B7" s="8" t="str">
         <f>VLOOKUP(A7,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>张三丰</v>
       </c>
@@ -5714,29 +6324,29 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="27" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+    <row r="8" ht="27" spans="1:6">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="7" t="str">
+      <c r="B8" s="8" t="str">
         <f>VLOOKUP(A8,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>灭绝</v>
       </c>
       <c r="D8">
         <v>6</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="27" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
+    <row r="9" ht="27" spans="1:6">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="7" t="str">
+      <c r="B9" s="8" t="str">
         <f>VLOOKUP(A9,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>何太冲</v>
       </c>
@@ -5746,30 +6356,30 @@
       <c r="E9" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
+    <row r="10" spans="1:5">
+      <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="7" t="str">
+      <c r="B10" s="8" t="str">
         <f>VLOOKUP(A10,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>唐文亮</v>
       </c>
       <c r="D10">
         <v>8</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
+    <row r="11" spans="1:5">
+      <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="7" t="str">
+      <c r="B11" s="8" t="str">
         <f>VLOOKUP(A11,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>张无忌</v>
       </c>
@@ -5780,11 +6390,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12">
+    <row r="12" s="1" customFormat="1" spans="1:6">
+      <c r="A12" s="13">
         <v>10</v>
       </c>
-      <c r="B12" s="13" t="str">
+      <c r="B12" s="14" t="str">
         <f>VLOOKUP(A12,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>范遥</v>
       </c>
@@ -5794,46 +6404,46 @@
       <c r="E12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="14"/>
-    </row>
-    <row r="13" spans="1:6" ht="27" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" ht="27" spans="1:6">
+      <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="7" t="str">
+      <c r="B13" s="8" t="str">
         <f>VLOOKUP(A13,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>杨逍</v>
       </c>
       <c r="D13">
         <v>11</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
+    <row r="14" spans="1:5">
+      <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="B14" s="7" t="str">
+      <c r="B14" s="8" t="str">
         <f>VLOOKUP(A14,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>殷天正</v>
       </c>
       <c r="D14">
         <v>12</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12">
+    <row r="15" s="1" customFormat="1" spans="1:6">
+      <c r="A15" s="13">
         <v>13</v>
       </c>
-      <c r="B15" s="13" t="str">
+      <c r="B15" s="14" t="str">
         <f>VLOOKUP(A15,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>谢逊</v>
       </c>
@@ -5843,13 +6453,13 @@
       <c r="E15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="14"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
+      <c r="F15" s="15"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="6">
         <v>14</v>
       </c>
-      <c r="B16" s="7" t="str">
+      <c r="B16" s="8" t="str">
         <f>VLOOKUP(A16,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>韦一笑</v>
       </c>
@@ -5860,77 +6470,77 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="15">
+    <row r="17" spans="1:6">
+      <c r="A17" s="16">
         <v>15</v>
       </c>
-      <c r="B17" s="16" t="str">
+      <c r="B17" s="17" t="str">
         <f>VLOOKUP(A17,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>金花婆婆</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17">
+      <c r="C17" s="18"/>
+      <c r="D17" s="18">
         <v>15</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="10"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
+      <c r="F17" s="11"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="6">
         <v>16</v>
       </c>
-      <c r="B18" s="7" t="str">
+      <c r="B18" s="8" t="str">
         <f>VLOOKUP(A18,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>胡青牛</v>
       </c>
       <c r="D18">
         <v>16</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="20"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="15">
+      <c r="F18" s="21"/>
+    </row>
+    <row r="19" s="2" customFormat="1" spans="1:6">
+      <c r="A19" s="16">
         <v>17</v>
       </c>
-      <c r="B19" s="16" t="str">
+      <c r="B19" s="17" t="str">
         <f>VLOOKUP(A19,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>王难姑</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17">
+      <c r="C19" s="18"/>
+      <c r="D19" s="18">
         <v>17</v>
       </c>
-      <c r="E19" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="10"/>
-    </row>
-    <row r="20" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="12">
+      <c r="E19" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="22"/>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:6">
+      <c r="A20" s="13">
         <v>18</v>
       </c>
-      <c r="B20" s="13" t="str">
+      <c r="B20" s="14" t="str">
         <f>VLOOKUP(A20,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>成昆</v>
       </c>
       <c r="D20" s="1">
         <v>18</v>
       </c>
-      <c r="E20" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="14"/>
-    </row>
-    <row r="21" spans="1:6" ht="27" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
+      <c r="E20" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="15"/>
+    </row>
+    <row r="21" ht="27" spans="1:6">
+      <c r="A21" s="6">
         <v>19</v>
       </c>
-      <c r="B21" s="7" t="str">
+      <c r="B21" s="8" t="str">
         <f>VLOOKUP(A21,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>岳不群</v>
       </c>
@@ -5938,17 +6548,17 @@
         <v>19</v>
       </c>
       <c r="E21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.2">
-      <c r="A22" s="12">
+    <row r="22" s="1" customFormat="1" ht="27" spans="1:6">
+      <c r="A22" s="13">
         <v>20</v>
       </c>
-      <c r="B22" s="13" t="str">
+      <c r="B22" s="14" t="str">
         <f>VLOOKUP(A22,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>莫大</v>
       </c>
@@ -5956,49 +6566,49 @@
         <v>20</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="15">
+    <row r="23" s="2" customFormat="1" spans="1:6">
+      <c r="A23" s="16">
         <v>21</v>
       </c>
-      <c r="B23" s="16" t="str">
+      <c r="B23" s="17" t="str">
         <f>VLOOKUP(A23,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>定闲</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17">
+      <c r="C23" s="18"/>
+      <c r="D23" s="18">
         <v>21</v>
       </c>
-      <c r="E23" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="23"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
+      <c r="E23" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="25"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="6">
         <v>22</v>
       </c>
-      <c r="B24" s="7" t="str">
+      <c r="B24" s="8" t="str">
         <f>VLOOKUP(A24,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>左冷禅</v>
       </c>
       <c r="D24">
         <v>22</v>
       </c>
-      <c r="E24" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="27" x14ac:dyDescent="0.2">
-      <c r="A25" s="5">
+      <c r="E24" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" ht="27" spans="1:6">
+      <c r="A25" s="6">
         <v>23</v>
       </c>
-      <c r="B25" s="7" t="str">
+      <c r="B25" s="8" t="str">
         <f>VLOOKUP(A25,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>天门</v>
       </c>
@@ -6006,17 +6616,17 @@
         <v>23</v>
       </c>
       <c r="E25" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
+    <row r="26" spans="1:5">
+      <c r="A26" s="6">
         <v>24</v>
       </c>
-      <c r="B26" s="7" t="str">
+      <c r="B26" s="8" t="str">
         <f>VLOOKUP(A26,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>余沧海</v>
       </c>
@@ -6024,30 +6634,30 @@
         <v>24</v>
       </c>
       <c r="E26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="6">
         <v>25</v>
       </c>
-      <c r="B27" s="7" t="str">
+      <c r="B27" s="8" t="str">
         <f>VLOOKUP(A27,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>蓝凤凰</v>
       </c>
       <c r="D27">
         <v>25</v>
       </c>
-      <c r="E27" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F27" s="10"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="5">
+      <c r="E27" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="11"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="6">
         <v>26</v>
       </c>
-      <c r="B28" s="7" t="str">
+      <c r="B28" s="8" t="str">
         <f>VLOOKUP(A28,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>任我行</v>
       </c>
@@ -6055,14 +6665,14 @@
         <v>26</v>
       </c>
       <c r="E28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="6">
         <v>27</v>
       </c>
-      <c r="B29" s="7" t="str">
+      <c r="B29" s="8" t="str">
         <f>VLOOKUP(A29,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>东方不败</v>
       </c>
@@ -6070,14 +6680,14 @@
         <v>27</v>
       </c>
       <c r="E29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="24">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="6">
         <v>28</v>
       </c>
-      <c r="B30" s="25" t="str">
+      <c r="B30" s="8" t="str">
         <f>VLOOKUP(A30,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>平一指</v>
       </c>
@@ -6086,14 +6696,14 @@
         <v>28</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="27" x14ac:dyDescent="0.2">
-      <c r="A31" s="5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" ht="27" spans="1:6">
+      <c r="A31" s="6">
         <v>29</v>
       </c>
-      <c r="B31" s="7" t="str">
+      <c r="B31" s="8" t="str">
         <f>VLOOKUP(A31,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>田伯光</v>
       </c>
@@ -6101,17 +6711,17 @@
         <v>29</v>
       </c>
       <c r="E31" t="s">
-        <v>38</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="24">
+        <v>40</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="6">
         <v>30</v>
       </c>
-      <c r="B32" s="25" t="str">
+      <c r="B32" s="8" t="str">
         <f>VLOOKUP(A32,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>风清扬</v>
       </c>
@@ -6120,14 +6730,14 @@
         <v>30</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="6">
         <v>31</v>
       </c>
-      <c r="B33" s="7" t="str">
+      <c r="B33" s="8" t="str">
         <f>VLOOKUP(A33,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>丹青生</v>
       </c>
@@ -6135,14 +6745,14 @@
         <v>31</v>
       </c>
       <c r="E33" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="6">
         <v>32</v>
       </c>
-      <c r="B34" s="7" t="str">
+      <c r="B34" s="8" t="str">
         <f>VLOOKUP(A34,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>秃笔翁</v>
       </c>
@@ -6150,14 +6760,14 @@
         <v>32</v>
       </c>
       <c r="E34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="6">
         <v>33</v>
       </c>
-      <c r="B35" s="7" t="str">
+      <c r="B35" s="8" t="str">
         <f>VLOOKUP(A35,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>黑白子</v>
       </c>
@@ -6165,14 +6775,14 @@
         <v>33</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="6">
         <v>34</v>
       </c>
-      <c r="B36" s="7" t="str">
+      <c r="B36" s="8" t="str">
         <f>VLOOKUP(A36,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>黄钟公</v>
       </c>
@@ -6180,14 +6790,14 @@
         <v>34</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.2">
-      <c r="A37" s="12">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="27" spans="1:6">
+      <c r="A37" s="13">
         <v>35</v>
       </c>
-      <c r="B37" s="13" t="str">
+      <c r="B37" s="14" t="str">
         <f>VLOOKUP(A37,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>令狐冲</v>
       </c>
@@ -6195,17 +6805,17 @@
         <v>35</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F37" s="22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="27" x14ac:dyDescent="0.2">
-      <c r="A38" s="5">
+        <v>47</v>
+      </c>
+      <c r="F37" s="24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" ht="27" spans="1:6">
+      <c r="A38" s="6">
         <v>36</v>
       </c>
-      <c r="B38" s="7" t="str">
+      <c r="B38" s="8" t="str">
         <f>VLOOKUP(A38,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>林平之</v>
       </c>
@@ -6213,17 +6823,17 @@
         <v>36</v>
       </c>
       <c r="E38" t="s">
-        <v>47</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="27" x14ac:dyDescent="0.2">
-      <c r="A39" s="5">
+        <v>49</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" ht="27" spans="1:6">
+      <c r="A39" s="6">
         <v>37</v>
       </c>
-      <c r="B39" s="7" t="str">
+      <c r="B39" s="8" t="str">
         <f>VLOOKUP(A39,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>狄云</v>
       </c>
@@ -6231,17 +6841,17 @@
         <v>37</v>
       </c>
       <c r="E39" t="s">
-        <v>49</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="5">
+        <v>51</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="6">
         <v>38</v>
       </c>
-      <c r="B40" s="7" t="str">
+      <c r="B40" s="8" t="str">
         <f>VLOOKUP(A40,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>石破天</v>
       </c>
@@ -6249,46 +6859,46 @@
         <v>38</v>
       </c>
       <c r="E40" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="28">
         <v>39</v>
       </c>
-      <c r="B41" s="16" t="str">
+      <c r="B41" s="29" t="str">
         <f>VLOOKUP(A41,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>龙岛主</v>
       </c>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17">
+      <c r="C41" s="30"/>
+      <c r="D41" s="30">
         <v>39</v>
       </c>
-      <c r="E41" s="17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="15">
+      <c r="E41" s="30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="28">
         <v>40</v>
       </c>
-      <c r="B42" s="16" t="str">
+      <c r="B42" s="29" t="str">
         <f>VLOOKUP(A42,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>木岛主</v>
       </c>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17">
+      <c r="C42" s="30"/>
+      <c r="D42" s="30">
         <v>40</v>
       </c>
-      <c r="E42" s="17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="24">
+      <c r="E42" s="30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="6">
         <v>41</v>
       </c>
-      <c r="B43" s="25" t="str">
+      <c r="B43" s="8" t="str">
         <f>VLOOKUP(A43,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>张三</v>
       </c>
@@ -6297,14 +6907,14 @@
         <v>41</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="24">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="6">
         <v>42</v>
       </c>
-      <c r="B44" s="25" t="str">
+      <c r="B44" s="8" t="str">
         <f>VLOOKUP(A44,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>李四</v>
       </c>
@@ -6313,14 +6923,14 @@
         <v>42</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="27" x14ac:dyDescent="0.2">
-      <c r="A45" s="5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" ht="27" spans="1:6">
+      <c r="A45" s="6">
         <v>43</v>
       </c>
-      <c r="B45" s="7" t="str">
+      <c r="B45" s="8" t="str">
         <f>VLOOKUP(A45,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>白万剑</v>
       </c>
@@ -6328,17 +6938,17 @@
         <v>43</v>
       </c>
       <c r="E45" t="s">
-        <v>55</v>
-      </c>
-      <c r="F45" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F45" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="5">
+    <row r="46" spans="1:5">
+      <c r="A46" s="6">
         <v>44</v>
       </c>
-      <c r="B46" s="7" t="str">
+      <c r="B46" s="8" t="str">
         <f>VLOOKUP(A46,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>岳老三</v>
       </c>
@@ -6346,29 +6956,29 @@
         <v>44</v>
       </c>
       <c r="E46" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="6">
         <v>45</v>
       </c>
-      <c r="B47" s="7" t="str">
+      <c r="B47" s="8" t="str">
         <f>VLOOKUP(A47,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>薛慕华</v>
       </c>
       <c r="D47">
         <v>45</v>
       </c>
-      <c r="E47" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="5">
+      <c r="E47" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="6">
         <v>46</v>
       </c>
-      <c r="B48" s="7" t="str">
+      <c r="B48" s="8" t="str">
         <f>VLOOKUP(A48,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>丁春秋</v>
       </c>
@@ -6376,30 +6986,30 @@
         <v>46</v>
       </c>
       <c r="E48" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="6">
         <v>47</v>
       </c>
-      <c r="B49" s="7" t="str">
+      <c r="B49" s="8" t="str">
         <f>VLOOKUP(A49,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>阿紫</v>
       </c>
       <c r="D49">
         <v>47</v>
       </c>
-      <c r="E49" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F49" s="10"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="5">
+      <c r="E49" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F49" s="11"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="6">
         <v>48</v>
       </c>
-      <c r="B50" s="7" t="str">
+      <c r="B50" s="8" t="str">
         <f>VLOOKUP(A50,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>游坦之</v>
       </c>
@@ -6407,14 +7017,14 @@
         <v>48</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="12">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" s="1" customFormat="1" spans="1:6">
+      <c r="A51" s="13">
         <v>49</v>
       </c>
-      <c r="B51" s="13" t="str">
+      <c r="B51" s="14" t="str">
         <f>VLOOKUP(A51,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>虚竹</v>
       </c>
@@ -6422,15 +7032,15 @@
         <v>49</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F51" s="14"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="5">
+        <v>63</v>
+      </c>
+      <c r="F51" s="15"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="6">
         <v>50</v>
       </c>
-      <c r="B52" s="7" t="str">
+      <c r="B52" s="8" t="str">
         <f>VLOOKUP(A52,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>乔峰</v>
       </c>
@@ -6438,14 +7048,14 @@
         <v>50</v>
       </c>
       <c r="E52" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="27" x14ac:dyDescent="0.2">
-      <c r="A53" s="5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" ht="27" spans="1:6">
+      <c r="A53" s="6">
         <v>51</v>
       </c>
-      <c r="B53" s="7" t="str">
+      <c r="B53" s="8" t="str">
         <f>VLOOKUP(A53,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>慕容复</v>
       </c>
@@ -6453,17 +7063,17 @@
         <v>51</v>
       </c>
       <c r="E53" t="s">
-        <v>63</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="5">
+        <v>65</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="6">
         <v>52</v>
       </c>
-      <c r="B54" s="7" t="str">
+      <c r="B54" s="8" t="str">
         <f>VLOOKUP(A54,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>苏星河</v>
       </c>
@@ -6471,14 +7081,14 @@
         <v>52</v>
       </c>
       <c r="E54" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="5">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="6">
         <v>53</v>
       </c>
-      <c r="B55" s="7" t="str">
+      <c r="B55" s="8" t="str">
         <f>VLOOKUP(A55,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>段誉</v>
       </c>
@@ -6486,32 +7096,32 @@
         <v>53</v>
       </c>
       <c r="E55" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.2">
-      <c r="A56" s="12">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" s="1" customFormat="1" ht="27" spans="1:6">
+      <c r="A56" s="13">
         <v>54</v>
       </c>
-      <c r="B56" s="13" t="str">
+      <c r="B56" s="14" t="str">
         <f>VLOOKUP(A56,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>袁承志</v>
       </c>
       <c r="D56" s="1">
         <v>54</v>
       </c>
-      <c r="E56" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F56" s="22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="5">
+      <c r="E56" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="F56" s="24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="6">
         <v>55</v>
       </c>
-      <c r="B57" s="7" t="str">
+      <c r="B57" s="8" t="str">
         <f>VLOOKUP(A57,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>郭靖</v>
       </c>
@@ -6519,52 +7129,52 @@
         <v>55</v>
       </c>
       <c r="E57" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A58" s="28">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58" s="3" customFormat="1" ht="27" spans="1:6">
+      <c r="A58" s="31">
         <v>56</v>
       </c>
-      <c r="B58" s="29" t="str">
+      <c r="B58" s="32" t="str">
         <f>VLOOKUP(A58,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>黄蓉</v>
       </c>
-      <c r="C58" s="30"/>
+      <c r="C58" s="33"/>
       <c r="D58" s="26">
         <v>56</v>
       </c>
-      <c r="E58" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A59" s="28">
+      <c r="E58" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" s="3" customFormat="1" ht="27" spans="1:6">
+      <c r="A59" s="31">
         <v>57</v>
       </c>
-      <c r="B59" s="29" t="str">
+      <c r="B59" s="32" t="str">
         <f>VLOOKUP(A59,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>黄药师</v>
       </c>
-      <c r="C59" s="30"/>
+      <c r="C59" s="33"/>
       <c r="D59" s="26">
         <v>57</v>
       </c>
       <c r="E59" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="27" x14ac:dyDescent="0.2">
-      <c r="A60" s="5">
+        <v>74</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" ht="27" spans="1:6">
+      <c r="A60" s="6">
         <v>58</v>
       </c>
-      <c r="B60" s="7" t="str">
+      <c r="B60" s="8" t="str">
         <f>VLOOKUP(A60,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>杨过</v>
       </c>
@@ -6572,33 +7182,33 @@
         <v>58</v>
       </c>
       <c r="E60" t="s">
-        <v>74</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="5">
+        <v>76</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="6">
         <v>59</v>
       </c>
-      <c r="B61" s="7" t="str">
+      <c r="B61" s="8" t="str">
         <f>VLOOKUP(A61,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>小龙女</v>
       </c>
       <c r="D61">
         <v>59</v>
       </c>
-      <c r="E61" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F61" s="10"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="24">
+      <c r="E61" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F61" s="11"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="6">
         <v>60</v>
       </c>
-      <c r="B62" s="25" t="str">
+      <c r="B62" s="8" t="str">
         <f>VLOOKUP(A62,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>欧阳锋</v>
       </c>
@@ -6607,14 +7217,14 @@
         <v>60</v>
       </c>
       <c r="E62" s="26" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="5">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="6">
         <v>61</v>
       </c>
-      <c r="B63" s="7" t="str">
+      <c r="B63" s="8" t="str">
         <f>VLOOKUP(A63,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>欧阳克</v>
       </c>
@@ -6622,14 +7232,14 @@
         <v>61</v>
       </c>
       <c r="E63" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="6">
         <v>62</v>
       </c>
-      <c r="B64" s="7" t="str">
+      <c r="B64" s="8" t="str">
         <f>VLOOKUP(A64,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>金轮法王</v>
       </c>
@@ -6637,31 +7247,31 @@
         <v>62</v>
       </c>
       <c r="E64" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="28">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" s="3" customFormat="1" spans="1:6">
+      <c r="A65" s="31">
         <v>63</v>
       </c>
-      <c r="B65" s="29" t="str">
+      <c r="B65" s="32" t="str">
         <f>VLOOKUP(A65,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>程英</v>
       </c>
-      <c r="C65" s="30"/>
+      <c r="C65" s="33"/>
       <c r="D65" s="26">
         <v>63</v>
       </c>
-      <c r="E65" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="F65" s="32"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="24">
+      <c r="E65" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="F65" s="35"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="6">
         <v>64</v>
       </c>
-      <c r="B66" s="25" t="str">
+      <c r="B66" s="8" t="str">
         <f>VLOOKUP(A66,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>周伯通</v>
       </c>
@@ -6670,14 +7280,14 @@
         <v>64</v>
       </c>
       <c r="E66" s="26" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="5">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="6">
         <v>65</v>
       </c>
-      <c r="B67" s="7" t="str">
+      <c r="B67" s="8" t="str">
         <f>VLOOKUP(A67,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>一灯</v>
       </c>
@@ -6685,30 +7295,30 @@
         <v>65</v>
       </c>
       <c r="E67" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="6">
         <v>66</v>
       </c>
-      <c r="B68" s="7" t="str">
+      <c r="B68" s="8" t="str">
         <f>VLOOKUP(A68,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>瑛姑</v>
       </c>
       <c r="D68">
         <v>66</v>
       </c>
-      <c r="E68" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F68" s="10"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="5">
+      <c r="E68" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F68" s="11"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="6">
         <v>67</v>
       </c>
-      <c r="B69" s="7" t="str">
+      <c r="B69" s="8" t="str">
         <f>VLOOKUP(A69,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>裘千仞</v>
       </c>
@@ -6716,14 +7326,14 @@
         <v>67</v>
       </c>
       <c r="E69" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="6">
         <v>68</v>
       </c>
-      <c r="B70" s="7" t="str">
+      <c r="B70" s="8" t="str">
         <f>VLOOKUP(A70,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>丘处机</v>
       </c>
@@ -6731,31 +7341,31 @@
         <v>68</v>
       </c>
       <c r="E70" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="28">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="71" s="3" customFormat="1" spans="1:6">
+      <c r="A71" s="31">
         <v>69</v>
       </c>
-      <c r="B71" s="29" t="str">
+      <c r="B71" s="32" t="str">
         <f>VLOOKUP(A71,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>洪七公</v>
       </c>
-      <c r="C71" s="30"/>
+      <c r="C71" s="33"/>
       <c r="D71" s="26">
         <v>69</v>
       </c>
       <c r="E71" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="F71" s="33"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="5">
+        <v>87</v>
+      </c>
+      <c r="F71" s="36"/>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="6">
         <v>70</v>
       </c>
-      <c r="B72" s="7" t="str">
+      <c r="B72" s="8" t="str">
         <f>VLOOKUP(A72,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>玄慈</v>
       </c>
@@ -6763,14 +7373,14 @@
         <v>70</v>
       </c>
       <c r="E72" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="6">
         <v>71</v>
       </c>
-      <c r="B73" s="7" t="str">
+      <c r="B73" s="8" t="str">
         <f>VLOOKUP(A73,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>洪教主</v>
       </c>
@@ -6778,30 +7388,30 @@
         <v>71</v>
       </c>
       <c r="E73" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="28">
         <v>72</v>
       </c>
-      <c r="B74" s="16" t="str">
+      <c r="B74" s="29" t="str">
         <f>VLOOKUP(A74,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>孔八拉</v>
       </c>
-      <c r="C74" s="17"/>
-      <c r="D74" s="17">
+      <c r="C74" s="30"/>
+      <c r="D74" s="30">
         <v>72</v>
       </c>
-      <c r="E74" s="17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="5">
+      <c r="E74" s="30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="6">
         <v>73</v>
       </c>
-      <c r="B75" s="7" t="str">
+      <c r="B75" s="8" t="str">
         <f>VLOOKUP(A75,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>南贤</v>
       </c>
@@ -6809,14 +7419,14 @@
         <v>73</v>
       </c>
       <c r="E75" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="6">
         <v>74</v>
       </c>
-      <c r="B76" s="7" t="str">
+      <c r="B76" s="8" t="str">
         <f>VLOOKUP(A76,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>北丑</v>
       </c>
@@ -6824,14 +7434,14 @@
         <v>74</v>
       </c>
       <c r="E76" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="24">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="6">
         <v>75</v>
       </c>
-      <c r="B77" s="25" t="str">
+      <c r="B77" s="8" t="str">
         <f>VLOOKUP(A77,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>厨师</v>
       </c>
@@ -6840,14 +7450,14 @@
         <v>75</v>
       </c>
       <c r="E77" s="26" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="24">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="6">
         <v>76</v>
       </c>
-      <c r="B78" s="25" t="str">
+      <c r="B78" s="8" t="str">
         <f>VLOOKUP(A78,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>武当弟子</v>
       </c>
@@ -6856,14 +7466,14 @@
         <v>76</v>
       </c>
       <c r="E78" s="26" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="24">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="6">
         <v>77</v>
       </c>
-      <c r="B79" s="25" t="str">
+      <c r="B79" s="8" t="str">
         <f>VLOOKUP(A79,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>峨嵋弟子</v>
       </c>
@@ -6872,14 +7482,14 @@
         <v>77</v>
       </c>
       <c r="E79" s="26" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="5">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="6">
         <v>78</v>
       </c>
-      <c r="B80" s="7" t="str">
+      <c r="B80" s="8" t="str">
         <f>VLOOKUP(A80,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>昆仑弟子</v>
       </c>
@@ -6887,67 +7497,67 @@
         <v>78</v>
       </c>
       <c r="E80" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="24">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="6">
         <v>79</v>
       </c>
-      <c r="B81" s="25" t="str">
+      <c r="B81" s="8" t="str">
         <f>VLOOKUP(A81,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>厨师</v>
       </c>
       <c r="C81" s="26" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D81" s="26">
         <v>79</v>
       </c>
       <c r="E81" s="26" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="5">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="6">
         <v>80</v>
       </c>
-      <c r="B82" s="7" t="str">
+      <c r="B82" s="8" t="str">
         <f>VLOOKUP(A82,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>厨师</v>
       </c>
       <c r="C82" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D82">
         <v>80</v>
       </c>
       <c r="E82" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="28">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="83" s="3" customFormat="1" spans="1:6">
+      <c r="A83" s="31">
         <v>81</v>
       </c>
-      <c r="B83" s="29" t="str">
+      <c r="B83" s="32" t="str">
         <f>VLOOKUP(A83,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>华山弟子</v>
       </c>
-      <c r="C83" s="30"/>
-      <c r="D83" s="30">
+      <c r="C83" s="33"/>
+      <c r="D83" s="33">
         <v>81</v>
       </c>
       <c r="E83" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="F83" s="33"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="5">
+        <v>97</v>
+      </c>
+      <c r="F83" s="36"/>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="6">
         <v>82</v>
       </c>
-      <c r="B84" s="7" t="str">
+      <c r="B84" s="8" t="str">
         <f>VLOOKUP(A84,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>衡山弟子</v>
       </c>
@@ -6955,14 +7565,14 @@
         <v>82</v>
       </c>
       <c r="E84" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="24">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="6">
         <v>83</v>
       </c>
-      <c r="B85" s="25" t="str">
+      <c r="B85" s="8" t="str">
         <f>VLOOKUP(A85,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>恒山弟子</v>
       </c>
@@ -6971,14 +7581,14 @@
         <v>83</v>
       </c>
       <c r="E85" s="26" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="24">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="6">
         <v>84</v>
       </c>
-      <c r="B86" s="25" t="str">
+      <c r="B86" s="8" t="str">
         <f>VLOOKUP(A86,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>嵩山弟子</v>
       </c>
@@ -6987,14 +7597,14 @@
         <v>84</v>
       </c>
       <c r="E86" s="26" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="6">
         <v>85</v>
       </c>
-      <c r="B87" s="25" t="str">
+      <c r="B87" s="8" t="str">
         <f>VLOOKUP(A87,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>泰山弟子</v>
       </c>
@@ -7003,14 +7613,14 @@
         <v>85</v>
       </c>
       <c r="E87" s="26" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="5">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="6">
         <v>86</v>
       </c>
-      <c r="B88" s="7" t="str">
+      <c r="B88" s="8" t="str">
         <f>VLOOKUP(A88,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>青城弟子</v>
       </c>
@@ -7018,14 +7628,14 @@
         <v>86</v>
       </c>
       <c r="E88" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="24">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="6">
         <v>87</v>
       </c>
-      <c r="B89" s="25" t="str">
+      <c r="B89" s="8" t="str">
         <f>VLOOKUP(A89,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>五毒教徒</v>
       </c>
@@ -7034,14 +7644,14 @@
         <v>87</v>
       </c>
       <c r="E89" s="26" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="24">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="6">
         <v>88</v>
       </c>
-      <c r="B90" s="25" t="str">
+      <c r="B90" s="8" t="str">
         <f>VLOOKUP(A90,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>日月教徒</v>
       </c>
@@ -7050,32 +7660,32 @@
         <v>88</v>
       </c>
       <c r="E90" s="26" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="5">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="6">
         <v>89</v>
       </c>
-      <c r="B91" s="7" t="e">
+      <c r="B91" s="8" t="e">
         <f>VLOOKUP(A91,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="C91" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D91">
         <v>89</v>
       </c>
       <c r="E91" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="6">
         <v>90</v>
       </c>
-      <c r="B92" s="7" t="str">
+      <c r="B92" s="8" t="str">
         <f>VLOOKUP(A92,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>雪山弟子</v>
       </c>
@@ -7083,14 +7693,14 @@
         <v>90</v>
       </c>
       <c r="E92" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="5">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="6">
         <v>91</v>
       </c>
-      <c r="B93" s="7" t="str">
+      <c r="B93" s="8" t="str">
         <f>VLOOKUP(A93,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>番僧</v>
       </c>
@@ -7098,14 +7708,14 @@
         <v>91</v>
       </c>
       <c r="E93" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="6">
         <v>92</v>
       </c>
-      <c r="B94" s="7" t="str">
+      <c r="B94" s="8" t="str">
         <f>VLOOKUP(A94,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>星宿门人</v>
       </c>
@@ -7113,14 +7723,14 @@
         <v>92</v>
       </c>
       <c r="E94" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="5">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="6">
         <v>93</v>
       </c>
-      <c r="B95" s="7" t="str">
+      <c r="B95" s="8" t="str">
         <f>VLOOKUP(A95,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>丐帮弟子</v>
       </c>
@@ -7128,14 +7738,14 @@
         <v>93</v>
       </c>
       <c r="E95" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="24">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="6">
         <v>94</v>
       </c>
-      <c r="B96" s="25" t="str">
+      <c r="B96" s="8" t="str">
         <f>VLOOKUP(A96,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>铁掌帮众</v>
       </c>
@@ -7144,14 +7754,14 @@
         <v>94</v>
       </c>
       <c r="E96" s="26" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="24">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="6">
         <v>95</v>
       </c>
-      <c r="B97" s="25" t="str">
+      <c r="B97" s="8" t="str">
         <f>VLOOKUP(A97,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>全真教徒</v>
       </c>
@@ -7160,14 +7770,14 @@
         <v>95</v>
       </c>
       <c r="E97" s="26" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="6">
         <v>96</v>
       </c>
-      <c r="B98" s="7" t="str">
+      <c r="B98" s="8" t="str">
         <f>VLOOKUP(A98,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>少林弟子</v>
       </c>
@@ -7175,14 +7785,14 @@
         <v>96</v>
       </c>
       <c r="E98" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="5">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="6">
         <v>97</v>
       </c>
-      <c r="B99" s="7" t="str">
+      <c r="B99" s="8" t="str">
         <f>VLOOKUP(A99,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>神龙教徒</v>
       </c>
@@ -7190,30 +7800,30 @@
         <v>97</v>
       </c>
       <c r="E99" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="34">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="100" s="4" customFormat="1" spans="1:6">
+      <c r="A100" s="37">
         <v>98</v>
       </c>
-      <c r="B100" s="35" t="str">
+      <c r="B100" s="38" t="str">
         <f>VLOOKUP(A100,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>巨蟒</v>
       </c>
       <c r="D100">
         <v>98</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F100" s="36"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="5">
+      <c r="E100" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F100" s="39"/>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="6">
         <v>99</v>
       </c>
-      <c r="B101" s="7" t="str">
+      <c r="B101" s="8" t="str">
         <f>VLOOKUP(A101,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>大雪怪</v>
       </c>
@@ -7221,134 +7831,134 @@
         <v>99</v>
       </c>
       <c r="E101" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="34">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="102" s="4" customFormat="1" spans="1:6">
+      <c r="A102" s="37">
         <v>100</v>
       </c>
-      <c r="B102" s="35" t="str">
+      <c r="B102" s="38" t="str">
         <f>VLOOKUP(A102,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>大鳄鱼</v>
       </c>
       <c r="D102">
         <v>100</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F102" s="36"/>
-    </row>
-    <row r="103" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="37">
+      <c r="E102" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F102" s="39"/>
+    </row>
+    <row r="103" s="3" customFormat="1" spans="1:6">
+      <c r="A103" s="40">
         <v>101</v>
       </c>
-      <c r="B103" s="38" t="str">
+      <c r="B103" s="41" t="str">
         <f>VLOOKUP(A103,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>大蜘蛛</v>
       </c>
       <c r="D103">
         <v>101</v>
       </c>
-      <c r="E103" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F103" s="33"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="15">
+      <c r="E103" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F103" s="36"/>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="16">
         <v>102</v>
       </c>
-      <c r="B104" s="16" t="str">
+      <c r="B104" s="17" t="str">
         <f>VLOOKUP(A104,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>蟒牯朱蛤</v>
       </c>
-      <c r="C104" s="17"/>
-      <c r="D104" s="17">
+      <c r="C104" s="18"/>
+      <c r="D104" s="18">
         <v>102</v>
       </c>
-      <c r="E104" s="39" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="5">
+      <c r="E104" s="42" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="6">
         <v>103</v>
       </c>
-      <c r="B105" s="7" t="e">
+      <c r="B105" s="8" t="e">
         <f>VLOOKUP(A105,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="C105" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D105">
         <v>103</v>
       </c>
       <c r="E105" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="5">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="6">
         <v>104</v>
       </c>
-      <c r="B106" s="7" t="e">
+      <c r="B106" s="8" t="e">
         <f>VLOOKUP(A106,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="C106" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D106">
         <v>104</v>
       </c>
       <c r="E106" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" s="5">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="6">
         <v>105</v>
       </c>
-      <c r="B107" s="7" t="e">
+      <c r="B107" s="8" t="e">
         <f>VLOOKUP(A107,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="C107" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D107">
         <v>105</v>
       </c>
       <c r="E107" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="5">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="6">
         <v>106</v>
       </c>
-      <c r="B108" s="7" t="e">
+      <c r="B108" s="8" t="e">
         <f>VLOOKUP(A108,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="C108" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D108">
         <v>106</v>
       </c>
       <c r="E108" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="5">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="6">
         <v>107</v>
       </c>
-      <c r="B109" s="7" t="e">
+      <c r="B109" s="8" t="e">
         <f>VLOOKUP(A109,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -7356,14 +7966,14 @@
         <v>107</v>
       </c>
       <c r="E109" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="5">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="6">
         <v>108</v>
       </c>
-      <c r="B110" s="7" t="e">
+      <c r="B110" s="8" t="e">
         <f>VLOOKUP(A110,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -7371,120 +7981,120 @@
         <v>108</v>
       </c>
       <c r="E110" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="5">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="6">
         <v>109</v>
       </c>
-      <c r="B111" s="7" t="str">
+      <c r="B111" s="8" t="str">
         <f>VLOOKUP(A111,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>王语嫣</v>
       </c>
       <c r="D111">
         <v>109</v>
       </c>
-      <c r="E111" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F111" s="10"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" s="5">
+      <c r="E111" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="F111" s="11"/>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="6">
         <v>110</v>
       </c>
-      <c r="B112" s="7" t="e">
+      <c r="B112" s="8" t="e">
         <f>VLOOKUP(A112,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="C112" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D112">
         <v>110</v>
       </c>
       <c r="E112" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A113" s="15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="16">
         <v>111</v>
       </c>
-      <c r="B113" s="16" t="e">
+      <c r="B113" s="17" t="e">
         <f>VLOOKUP(A113,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C113" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="D113" s="17">
+      <c r="C113" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D113" s="18">
         <v>111</v>
       </c>
-      <c r="E113" s="17" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A114" s="5">
+      <c r="E113" s="18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="6">
         <v>112</v>
       </c>
-      <c r="B114" s="7" t="e">
+      <c r="B114" s="8" t="e">
         <f>VLOOKUP(A114,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="C114" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D114">
         <v>112</v>
       </c>
       <c r="E114" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A115" s="5">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="6">
         <v>113</v>
       </c>
-      <c r="B115" s="7" t="e">
+      <c r="B115" s="8" t="e">
         <f>VLOOKUP(A115,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="C115" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D115">
         <v>113</v>
       </c>
       <c r="E115" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A116" s="5">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="6">
         <v>114</v>
       </c>
-      <c r="B116" s="7" t="e">
+      <c r="B116" s="8" t="e">
         <f>VLOOKUP(A116,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="C116" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D116">
         <v>114</v>
       </c>
       <c r="E116" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A117" s="5">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="6">
         <v>115</v>
       </c>
-      <c r="B117" s="7" t="e">
+      <c r="B117" s="8" t="e">
         <f>VLOOKUP(A117,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -7492,14 +8102,14 @@
         <v>115</v>
       </c>
       <c r="E117" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A118" s="5">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="6">
         <v>116</v>
       </c>
-      <c r="B118" s="7" t="e">
+      <c r="B118" s="8" t="e">
         <f>VLOOKUP(A118,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -7507,14 +8117,14 @@
         <v>116</v>
       </c>
       <c r="E118" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A119" s="5">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="6">
         <v>117</v>
       </c>
-      <c r="B119" s="7" t="e">
+      <c r="B119" s="8" t="e">
         <f>VLOOKUP(A119,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -7522,14 +8132,14 @@
         <v>117</v>
       </c>
       <c r="E119" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="6">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A120" s="5">
-        <v>118</v>
-      </c>
-      <c r="B120" s="7" t="e">
+      <c r="B120" s="8" t="e">
         <f>VLOOKUP(A120,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -7537,14 +8147,14 @@
         <v>118</v>
       </c>
       <c r="E120" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A121" s="5">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="6">
         <v>119</v>
       </c>
-      <c r="B121" s="7" t="e">
+      <c r="B121" s="8" t="e">
         <f>VLOOKUP(A121,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -7552,14 +8162,14 @@
         <v>119</v>
       </c>
       <c r="E121" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A122" s="5">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="6">
         <v>120</v>
       </c>
-      <c r="B122" s="7" t="e">
+      <c r="B122" s="8" t="e">
         <f>VLOOKUP(A122,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -7567,14 +8177,14 @@
         <v>120</v>
       </c>
       <c r="E122" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A123" s="5">
         <v>121</v>
       </c>
-      <c r="B123" s="7" t="e">
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="6">
+        <v>121</v>
+      </c>
+      <c r="B123" s="8" t="e">
         <f>VLOOKUP(A123,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -7582,14 +8192,14 @@
         <v>121</v>
       </c>
       <c r="E123" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A124" s="5">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="6">
         <v>122</v>
       </c>
-      <c r="B124" s="7" t="e">
+      <c r="B124" s="8" t="e">
         <f>VLOOKUP(A124,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -7597,14 +8207,14 @@
         <v>122</v>
       </c>
       <c r="E124" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A125" s="5">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="6">
         <v>123</v>
       </c>
-      <c r="B125" s="7" t="e">
+      <c r="B125" s="8" t="e">
         <f>VLOOKUP(A125,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -7612,14 +8222,14 @@
         <v>123</v>
       </c>
       <c r="E125" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A126" s="5">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="6">
         <v>124</v>
       </c>
-      <c r="B126" s="7" t="e">
+      <c r="B126" s="8" t="e">
         <f>VLOOKUP(A126,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -7627,14 +8237,14 @@
         <v>124</v>
       </c>
       <c r="E126" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A127" s="5">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="6">
         <v>125</v>
       </c>
-      <c r="B127" s="7" t="e">
+      <c r="B127" s="8" t="e">
         <f>VLOOKUP(A127,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -7642,14 +8252,14 @@
         <v>125</v>
       </c>
       <c r="E127" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A128" s="5">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="6">
         <v>126</v>
       </c>
-      <c r="B128" s="7" t="e">
+      <c r="B128" s="8" t="e">
         <f>VLOOKUP(A128,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -7657,14 +8267,14 @@
         <v>126</v>
       </c>
       <c r="E128" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A129" s="5">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="6">
         <v>127</v>
       </c>
-      <c r="B129" s="7" t="e">
+      <c r="B129" s="8" t="e">
         <f>VLOOKUP(A129,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -7672,14 +8282,14 @@
         <v>127</v>
       </c>
       <c r="E129" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A130" s="5">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="6">
         <v>128</v>
       </c>
-      <c r="B130" s="7" t="e">
+      <c r="B130" s="8" t="e">
         <f>VLOOKUP(A130,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -7687,14 +8297,14 @@
         <v>128</v>
       </c>
       <c r="E130" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A131" s="5">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="6">
         <v>129</v>
       </c>
-      <c r="B131" s="7" t="e">
+      <c r="B131" s="8" t="e">
         <f>VLOOKUP(A131,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -7702,14 +8312,14 @@
         <v>129</v>
       </c>
       <c r="E131" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A132" s="5">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="6">
         <v>130</v>
       </c>
-      <c r="B132" s="7" t="e">
+      <c r="B132" s="8" t="e">
         <f>VLOOKUP(A132,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -7717,14 +8327,14 @@
         <v>130</v>
       </c>
       <c r="E132" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A133" s="5">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="6">
         <v>131</v>
       </c>
-      <c r="B133" s="7" t="e">
+      <c r="B133" s="8" t="e">
         <f>VLOOKUP(A133,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -7732,10 +8342,10 @@
         <v>131</v>
       </c>
       <c r="E133" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
       <c r="A134">
         <v>10000</v>
       </c>
@@ -7744,10 +8354,12 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F134" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <autoFilter ref="A1:F134">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/jyx2/excel/头像模型映射.xlsx
+++ b/jyx2/excel/头像模型映射.xlsx
@@ -94,338 +94,338 @@
     <t>武器挂载</t>
   </si>
   <si>
-    <t>@Assets/3D/Prefabs/Nan/Zhujue.prefab</t>
-  </si>
-  <si>
-    <t>1|Assets/3D/Prefabs/Weapon/W_Right_SinSword.prefab|mixamorig:RightHandMiddle4|1|-0.037,0.005,-0.031|7.435,79.014,125.73
-2|Assets/3D/Prefabs/Weapon/W_Right_SinKnif.prefab|mixamorig:RightHandMiddle4|1|0,0,0|0,0,180</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/胡斐.prefab</t>
-  </si>
-  <si>
-    <t>2|Assets/3D/Prefabs/Weapon/W_Right_SinKnif.prefab|QuickRigCharacter_RightHand|100|8.4,5.9,-4.1|70.66,9.03,-7.79</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/程灵素.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/苗人凤.prefab</t>
-  </si>
-  <si>
-    <t>1|Assets/3D/Prefabs/Weapon/W_Right_SinSword.prefab|mixamorig:RightHandMiddle4|1|0.042,-0.022,0.026|5.178,-231.151,-21.241</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/阎基.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/张真人.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/灭绝.prefab</t>
-  </si>
-  <si>
-    <t>1|Assets/3D/Prefabs/Weapon/W_Right_SinSword.prefab|QuickRigCharacter_RightHand|100|3.7,1,-3|-42.695,-130.614,24.172</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/何太冲.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/唐文亮.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/张无忌.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/范遥.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/杨逍.prefab</t>
-  </si>
-  <si>
-    <t>1|Assets/3D/Prefabs/Weapon/W_Right_SinSword.prefab|QuickRigCharacter_RightHand|100|0.9,4.3,0.8|-32.17,-107.225,-45.17</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/殷天正.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/谢逊.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/韦一笑.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/金花婆婆.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/胡青牛.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/王难姑.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/方丈.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/岳不群.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/莫大.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/定闲.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/左冷禅.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/天门道人.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/余沧海.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/蓝凤凰.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/任我行.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/东方不败.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/平一指.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/田伯光.prefab</t>
-  </si>
-  <si>
-    <t>2|Assets/3D/Prefabs/Weapon/W_Right_SinKnif.prefab|QuickRigCharacter_RightHand|100|7.4,0.3,-0.1|44.2,20.7,33.5</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/风清扬.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/丹青生.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/秃笔翁.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/黑白子.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/黄钟公.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/令狐冲.prefab</t>
-  </si>
-  <si>
-    <t>1|Assets/3D/Prefabs/Weapon/W_Right_SinSword.prefab|QuickRigCharacter_RightHand|100|3,-0.9,-3.2|-50.219,-126.166,-31.194</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/林平之.prefab</t>
-  </si>
-  <si>
-    <t>1|Assets/3D/Prefabs/Weapon/W_Right_SinSword.prefab|QuickRigCharacter_RightHand|100|2.5,3.6,-5.7|-32.17,-107.225,-45.17</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/狄云.prefab</t>
-  </si>
-  <si>
-    <t>2|Assets/3D/Prefabs/Weapon/W_Right_SinKnif.prefab|QuickRigCharacter_RightHand|100|5.29,3.82,-7.77|40.23,38.875,12.039</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/石破天.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/南贤.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/洪教主.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/侠客弟子.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/白万剑.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/岳老三.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/薛慕华.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/丁春秋.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/阿紫.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/游坦之.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/虚竹.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/乔峰.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/慕容复.prefab</t>
-  </si>
-  <si>
-    <t>1|Assets/3D/Prefabs/Weapon/W_Right_SinSword.prefab|QuickRigCharacter_RightHand|1|0.047,0.011,-0.049|-51.997,-141.795,-23.783</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/苏星河.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/段誉.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/袁承志.prefab</t>
-  </si>
-  <si>
-    <t>1|Assets/3D/Prefabs/Weapon/W_Right_SinSword.prefab|QuickRigCharacter_RightHand|1|0.048,0.06,-0.022|-51.997,-141.795,-23.783</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/郭靖.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/黄蓉.prefab</t>
-  </si>
-  <si>
-    <t>1|Assets/3D/Prefabs/Weapon/W_Right_Gudgel.prefab|QuickRigCharacter_RightHand|100|0.9,4.3,0.8|-32.17,-107.225,-45.17</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/黄药师.prefab</t>
-  </si>
-  <si>
-    <t>1|Assets/3D/Prefabs/Weapon/W_Right_Gun.prefab|QuickRigCharacter_RightHand|100|0.9,4.3,0.8|-32.17,-107.225,-45.17</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/杨过.prefab</t>
-  </si>
-  <si>
-    <t>1|Assets/3D/Prefabs/Weapon/W_Right_BigSword.prefab|QuickRigCharacter_LeftHand|2|-0.079,0.037,0.066|-65.335,151.561,-110.351</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/小龙女.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/欧阳锋.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/欧阳克.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/金轮法王.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/程英.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/周伯通.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/瑛姑.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/裘千仞.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/丘处机.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/洪七公.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/北丑.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/林厨子.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/武当弟子.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/峨眉弟子.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/昆仑弟子.prefab</t>
+    <t>@Assets/BuildSource/ModelCharacters/Nan/Zhujue.prefab</t>
+  </si>
+  <si>
+    <t>1|Assets/BuildSource/ModelWeapons/W_Right_SinSword.prefab|mixamorig:RightHandMiddle4|1|-0.037,0.005,-0.031|7.435,79.014,125.73
+2|Assets/BuildSource/ModelWeapons/W_Right_SinKnif.prefab|mixamorig:RightHandMiddle4|1|0,0,0|0,0,180</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/胡斐.prefab</t>
+  </si>
+  <si>
+    <t>2|Assets/BuildSource/ModelWeapons/W_Right_SinKnif.prefab|QuickRigCharacter_RightHand|100|8.4,5.9,-4.1|70.66,9.03,-7.79</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/程灵素.prefab</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/苗人凤.prefab</t>
+  </si>
+  <si>
+    <t>1|Assets/BuildSource/ModelWeapons/W_Right_SinSword.prefab|mixamorig:RightHandMiddle4|1|0.042,-0.022,0.026|5.178,-231.151,-21.241</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/阎基.prefab</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/张真人.prefab</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/灭绝.prefab</t>
+  </si>
+  <si>
+    <t>1|Assets/BuildSource/ModelWeapons/W_Right_SinSword.prefab|QuickRigCharacter_RightHand|100|3.7,1,-3|-42.695,-130.614,24.172</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/何太冲.prefab</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/唐文亮.prefab</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/张无忌.prefab</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/范遥.prefab</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/杨逍.prefab</t>
+  </si>
+  <si>
+    <t>1|Assets/BuildSource/ModelWeapons/W_Right_SinSword.prefab|QuickRigCharacter_RightHand|100|0.9,4.3,0.8|-32.17,-107.225,-45.17</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/殷天正.prefab</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/谢逊.prefab</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/韦一笑.prefab</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/金花婆婆.prefab</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/胡青牛.prefab</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/王难姑.prefab</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/方丈.prefab</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/岳不群.prefab</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/莫大.prefab</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/定闲.prefab</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/左冷禅.prefab</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/天门道人.prefab</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/余沧海.prefab</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/蓝凤凰.prefab</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/任我行.prefab</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/东方不败.prefab</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/平一指.prefab</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/田伯光.prefab</t>
+  </si>
+  <si>
+    <t>2|Assets/BuildSource/ModelWeapons/W_Right_SinKnif.prefab|QuickRigCharacter_RightHand|100|7.4,0.3,-0.1|44.2,20.7,33.5</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/风清扬.prefab</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/丹青生.prefab</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/秃笔翁.prefab</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/黑白子.prefab</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/黄钟公.prefab</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/令狐冲.prefab</t>
+  </si>
+  <si>
+    <t>1|Assets/BuildSource/ModelWeapons/W_Right_SinSword.prefab|QuickRigCharacter_RightHand|100|3,-0.9,-3.2|-50.219,-126.166,-31.194</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/林平之.prefab</t>
+  </si>
+  <si>
+    <t>1|Assets/BuildSource/ModelWeapons/W_Right_SinSword.prefab|QuickRigCharacter_RightHand|100|2.5,3.6,-5.7|-32.17,-107.225,-45.17</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/狄云.prefab</t>
+  </si>
+  <si>
+    <t>2|Assets/BuildSource/ModelWeapons/W_Right_SinKnif.prefab|QuickRigCharacter_RightHand|100|5.29,3.82,-7.77|40.23,38.875,12.039</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/石破天.prefab</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/南贤.prefab</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/洪教主.prefab</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/侠客弟子.prefab</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/白万剑.prefab</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/岳老三.prefab</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/薛慕华.prefab</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/丁春秋.prefab</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/阿紫.prefab</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/游坦之.prefab</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/虚竹.prefab</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/乔峰.prefab</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/慕容复.prefab</t>
+  </si>
+  <si>
+    <t>1|Assets/BuildSource/ModelWeapons/W_Right_SinSword.prefab|QuickRigCharacter_RightHand|1|0.047,0.011,-0.049|-51.997,-141.795,-23.783</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/苏星河.prefab</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/段誉.prefab</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/袁承志.prefab</t>
+  </si>
+  <si>
+    <t>1|Assets/BuildSource/ModelWeapons/W_Right_SinSword.prefab|QuickRigCharacter_RightHand|1|0.048,0.06,-0.022|-51.997,-141.795,-23.783</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/郭靖.prefab</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/黄蓉.prefab</t>
+  </si>
+  <si>
+    <t>1|Assets/BuildSource/ModelWeapons/W_Right_Gudgel.prefab|QuickRigCharacter_RightHand|100|0.9,4.3,0.8|-32.17,-107.225,-45.17</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/黄药师.prefab</t>
+  </si>
+  <si>
+    <t>1|Assets/BuildSource/ModelWeapons/W_Right_Gun.prefab|QuickRigCharacter_RightHand|100|0.9,4.3,0.8|-32.17,-107.225,-45.17</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/杨过.prefab</t>
+  </si>
+  <si>
+    <t>1|Assets/BuildSource/ModelWeapons/W_Right_BigSword.prefab|QuickRigCharacter_LeftHand|2|-0.079,0.037,0.066|-65.335,151.561,-110.351</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/小龙女.prefab</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/欧阳锋.prefab</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/欧阳克.prefab</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/金轮法王.prefab</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/程英.prefab</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/周伯通.prefab</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/瑛姑.prefab</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/裘千仞.prefab</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/丘处机.prefab</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/洪七公.prefab</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/北丑.prefab</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/林厨子.prefab</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/武当弟子.prefab</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/峨眉弟子.prefab</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/昆仑弟子.prefab</t>
   </si>
   <si>
     <t>崆峒派弟子，原版数据有误</t>
   </si>
   <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/崆峒弟子.prefab</t>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/崆峒弟子.prefab</t>
   </si>
   <si>
     <t>明教弟子，原版数据有误</t>
   </si>
   <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/明教弟子.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/华山弟子.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/衡山弟子.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/恒山弟子.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/嵩山弟子.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/泰山弟子.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/青城弟子.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/五毒弟子.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/日月教徒.prefab</t>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/明教弟子.prefab</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/华山弟子.prefab</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/衡山弟子.prefab</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/恒山弟子.prefab</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/嵩山弟子.prefab</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/泰山弟子.prefab</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/青城弟子.prefab</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/五毒弟子.prefab</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/日月教徒.prefab</t>
   </si>
   <si>
     <t>白驼山女弟子</t>
   </si>
   <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/欧阳克婢女.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/天山弟子.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/喇嘛.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/星宿弟子.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/丐帮弟子.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/铁掌弟子.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/全真弟子.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/少林弟子.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/神龙弟子.prefab</t>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/欧阳克婢女.prefab</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/天山弟子.prefab</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/喇嘛.prefab</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/星宿弟子.prefab</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/丐帮弟子.prefab</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/铁掌弟子.prefab</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/全真弟子.prefab</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/少林弟子.prefab</t>
+  </si>
+  <si>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/神龙弟子.prefab</t>
   </si>
   <si>
     <t>大蟒蛇#</t>
   </si>
   <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/雪怪.prefab</t>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/雪怪.prefab</t>
   </si>
   <si>
     <t>鳄鱼#</t>
@@ -452,31 +452,31 @@
     <t>店小二（无战斗）</t>
   </si>
   <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/王语嫣.prefab</t>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/王语嫣.prefab</t>
   </si>
   <si>
     <t>扫地僧</t>
   </si>
   <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/扫地僧.prefab</t>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/扫地僧.prefab</t>
   </si>
   <si>
     <t>韦小宝</t>
   </si>
   <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/韦小宝.prefab</t>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/韦小宝.prefab</t>
   </si>
   <si>
     <t>霍青桐</t>
   </si>
   <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/霍青桐.prefab</t>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/霍青桐.prefab</t>
   </si>
   <si>
     <t>霍青桐随从</t>
   </si>
   <si>
-    <t>@Assets/3D/Prefabs/BattleNpc/霍青桐随从.prefab</t>
+    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/霍青桐随从.prefab</t>
   </si>
   <si>
     <t>软体娃娃</t>
@@ -492,7 +492,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -526,31 +526,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -563,10 +539,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -577,10 +561,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -593,7 +593,46 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -609,30 +648,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -640,25 +656,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -669,19 +669,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -726,7 +719,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -738,13 +809,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,19 +839,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -780,91 +857,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -882,25 +881,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -929,21 +922,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -955,6 +933,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -974,21 +976,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1004,16 +991,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1031,31 +1024,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1064,131 +1057,131 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1227,11 +1220,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="14" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1250,12 +1238,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1268,9 +1250,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="34" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="34" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="14" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="34" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1285,7 +1264,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="34" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="34" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="34" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="34" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6192,8 +6171,8 @@
   <sheetPr/>
   <dimension ref="A1:F134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="F112" sqref="F112"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -6260,7 +6239,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" ht="27" spans="1:6">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -6470,19 +6449,19 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="16">
+    <row r="17" ht="27" spans="1:6">
+      <c r="A17" s="6">
         <v>15</v>
       </c>
-      <c r="B17" s="17" t="str">
+      <c r="B17" s="8" t="str">
         <f>VLOOKUP(A17,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>金花婆婆</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2">
         <v>15</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="16" t="s">
         <v>26</v>
       </c>
       <c r="F17" s="11"/>
@@ -6498,27 +6477,26 @@
       <c r="D18">
         <v>16</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="21"/>
-    </row>
-    <row r="19" s="2" customFormat="1" spans="1:6">
-      <c r="A19" s="16">
+      <c r="F18" s="18"/>
+    </row>
+    <row r="19" s="2" customFormat="1" ht="27" spans="1:6">
+      <c r="A19" s="6">
         <v>17</v>
       </c>
-      <c r="B19" s="17" t="str">
+      <c r="B19" s="8" t="str">
         <f>VLOOKUP(A19,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>王难姑</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18">
+      <c r="D19" s="2">
         <v>17</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="22"/>
+      <c r="F19" s="19"/>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:6">
       <c r="A20" s="13">
@@ -6531,7 +6509,7 @@
       <c r="D20" s="1">
         <v>18</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="20" t="s">
         <v>29</v>
       </c>
       <c r="F20" s="15"/>
@@ -6568,26 +6546,25 @@
       <c r="E22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="24" t="s">
+      <c r="F22" s="21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" s="2" customFormat="1" spans="1:6">
-      <c r="A23" s="16">
+    <row r="23" s="2" customFormat="1" ht="27" spans="1:6">
+      <c r="A23" s="6">
         <v>21</v>
       </c>
-      <c r="B23" s="17" t="str">
+      <c r="B23" s="8" t="str">
         <f>VLOOKUP(A23,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>定闲</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18">
+      <c r="D23" s="2">
         <v>21</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="25"/>
+      <c r="F23" s="19"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="6">
@@ -6637,7 +6614,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" ht="27" spans="1:6">
       <c r="A27" s="6">
         <v>25</v>
       </c>
@@ -6691,11 +6668,11 @@
         <f>VLOOKUP(A30,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>平一指</v>
       </c>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2">
         <v>28</v>
       </c>
-      <c r="E30" s="27" t="s">
+      <c r="E30" s="22" t="s">
         <v>39</v>
       </c>
     </row>
@@ -6725,11 +6702,11 @@
         <f>VLOOKUP(A32,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>风清扬</v>
       </c>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2">
         <v>30</v>
       </c>
-      <c r="E32" s="26" t="s">
+      <c r="E32" s="2" t="s">
         <v>42</v>
       </c>
     </row>
@@ -6807,7 +6784,7 @@
       <c r="E37" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F37" s="24" t="s">
+      <c r="F37" s="21" t="s">
         <v>48</v>
       </c>
     </row>
@@ -6863,34 +6840,34 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="28">
+      <c r="A41" s="23">
         <v>39</v>
       </c>
-      <c r="B41" s="29" t="str">
+      <c r="B41" s="24" t="str">
         <f>VLOOKUP(A41,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>龙岛主</v>
       </c>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30">
+      <c r="C41" s="25"/>
+      <c r="D41" s="25">
         <v>39</v>
       </c>
-      <c r="E41" s="30" t="s">
+      <c r="E41" s="25" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="28">
+      <c r="A42" s="23">
         <v>40</v>
       </c>
-      <c r="B42" s="29" t="str">
+      <c r="B42" s="24" t="str">
         <f>VLOOKUP(A42,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>木岛主</v>
       </c>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30">
+      <c r="C42" s="25"/>
+      <c r="D42" s="25">
         <v>40</v>
       </c>
-      <c r="E42" s="30" t="s">
+      <c r="E42" s="25" t="s">
         <v>55</v>
       </c>
     </row>
@@ -6902,11 +6879,11 @@
         <f>VLOOKUP(A43,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>张三</v>
       </c>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26">
+      <c r="C43" s="2"/>
+      <c r="D43" s="2">
         <v>41</v>
       </c>
-      <c r="E43" s="26" t="s">
+      <c r="E43" s="2" t="s">
         <v>56</v>
       </c>
     </row>
@@ -6918,11 +6895,11 @@
         <f>VLOOKUP(A44,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>李四</v>
       </c>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26">
+      <c r="C44" s="2"/>
+      <c r="D44" s="2">
         <v>42</v>
       </c>
-      <c r="E44" s="26" t="s">
+      <c r="E44" s="2" t="s">
         <v>56</v>
       </c>
     </row>
@@ -6989,7 +6966,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" ht="27" spans="1:6">
       <c r="A49" s="6">
         <v>47</v>
       </c>
@@ -7110,10 +7087,10 @@
       <c r="D56" s="1">
         <v>54</v>
       </c>
-      <c r="E56" s="23" t="s">
+      <c r="E56" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="F56" s="24" t="s">
+      <c r="F56" s="21" t="s">
         <v>70</v>
       </c>
     </row>
@@ -7133,18 +7110,18 @@
       </c>
     </row>
     <row r="58" s="3" customFormat="1" ht="27" spans="1:6">
-      <c r="A58" s="31">
+      <c r="A58" s="26">
         <v>56</v>
       </c>
-      <c r="B58" s="32" t="str">
+      <c r="B58" s="27" t="str">
         <f>VLOOKUP(A58,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>黄蓉</v>
       </c>
-      <c r="C58" s="33"/>
-      <c r="D58" s="26">
+      <c r="C58" s="28"/>
+      <c r="D58" s="2">
         <v>56</v>
       </c>
-      <c r="E58" s="34" t="s">
+      <c r="E58" s="16" t="s">
         <v>72</v>
       </c>
       <c r="F58" s="9" t="s">
@@ -7152,18 +7129,18 @@
       </c>
     </row>
     <row r="59" s="3" customFormat="1" ht="27" spans="1:6">
-      <c r="A59" s="31">
+      <c r="A59" s="26">
         <v>57</v>
       </c>
-      <c r="B59" s="32" t="str">
+      <c r="B59" s="27" t="str">
         <f>VLOOKUP(A59,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>黄药师</v>
       </c>
-      <c r="C59" s="33"/>
-      <c r="D59" s="26">
+      <c r="C59" s="28"/>
+      <c r="D59" s="2">
         <v>57</v>
       </c>
-      <c r="E59" s="26" t="s">
+      <c r="E59" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F59" s="9" t="s">
@@ -7188,7 +7165,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" ht="27" spans="1:6">
       <c r="A61" s="6">
         <v>59</v>
       </c>
@@ -7212,11 +7189,11 @@
         <f>VLOOKUP(A62,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>欧阳锋</v>
       </c>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26">
+      <c r="C62" s="2"/>
+      <c r="D62" s="2">
         <v>60</v>
       </c>
-      <c r="E62" s="26" t="s">
+      <c r="E62" s="2" t="s">
         <v>79</v>
       </c>
     </row>
@@ -7250,22 +7227,22 @@
         <v>81</v>
       </c>
     </row>
-    <row r="65" s="3" customFormat="1" spans="1:6">
-      <c r="A65" s="31">
+    <row r="65" s="3" customFormat="1" ht="27" spans="1:6">
+      <c r="A65" s="26">
         <v>63</v>
       </c>
-      <c r="B65" s="32" t="str">
+      <c r="B65" s="27" t="str">
         <f>VLOOKUP(A65,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>程英</v>
       </c>
-      <c r="C65" s="33"/>
-      <c r="D65" s="26">
+      <c r="C65" s="28"/>
+      <c r="D65" s="2">
         <v>63</v>
       </c>
-      <c r="E65" s="34" t="s">
+      <c r="E65" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="F65" s="35"/>
+      <c r="F65" s="29"/>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="6">
@@ -7275,11 +7252,11 @@
         <f>VLOOKUP(A66,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>周伯通</v>
       </c>
-      <c r="C66" s="26"/>
-      <c r="D66" s="26">
+      <c r="C66" s="2"/>
+      <c r="D66" s="2">
         <v>64</v>
       </c>
-      <c r="E66" s="26" t="s">
+      <c r="E66" s="2" t="s">
         <v>83</v>
       </c>
     </row>
@@ -7298,7 +7275,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" ht="27" spans="1:6">
       <c r="A68" s="6">
         <v>66</v>
       </c>
@@ -7345,21 +7322,21 @@
       </c>
     </row>
     <row r="71" s="3" customFormat="1" spans="1:6">
-      <c r="A71" s="31">
+      <c r="A71" s="26">
         <v>69</v>
       </c>
-      <c r="B71" s="32" t="str">
+      <c r="B71" s="27" t="str">
         <f>VLOOKUP(A71,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>洪七公</v>
       </c>
-      <c r="C71" s="33"/>
-      <c r="D71" s="26">
+      <c r="C71" s="28"/>
+      <c r="D71" s="2">
         <v>69</v>
       </c>
-      <c r="E71" s="26" t="s">
+      <c r="E71" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F71" s="36"/>
+      <c r="F71" s="30"/>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="6">
@@ -7392,18 +7369,18 @@
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="28">
+      <c r="A74" s="23">
         <v>72</v>
       </c>
-      <c r="B74" s="29" t="str">
+      <c r="B74" s="24" t="str">
         <f>VLOOKUP(A74,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>孔八拉</v>
       </c>
-      <c r="C74" s="30"/>
-      <c r="D74" s="30">
+      <c r="C74" s="25"/>
+      <c r="D74" s="25">
         <v>72</v>
       </c>
-      <c r="E74" s="30" t="s">
+      <c r="E74" s="25" t="s">
         <v>65</v>
       </c>
     </row>
@@ -7445,11 +7422,11 @@
         <f>VLOOKUP(A77,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>厨师</v>
       </c>
-      <c r="C77" s="26"/>
-      <c r="D77" s="26">
+      <c r="C77" s="2"/>
+      <c r="D77" s="2">
         <v>75</v>
       </c>
-      <c r="E77" s="26" t="s">
+      <c r="E77" s="2" t="s">
         <v>89</v>
       </c>
     </row>
@@ -7461,11 +7438,11 @@
         <f>VLOOKUP(A78,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>武当弟子</v>
       </c>
-      <c r="C78" s="26"/>
-      <c r="D78" s="26">
+      <c r="C78" s="2"/>
+      <c r="D78" s="2">
         <v>76</v>
       </c>
-      <c r="E78" s="26" t="s">
+      <c r="E78" s="2" t="s">
         <v>90</v>
       </c>
     </row>
@@ -7477,11 +7454,11 @@
         <f>VLOOKUP(A79,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>峨嵋弟子</v>
       </c>
-      <c r="C79" s="26"/>
-      <c r="D79" s="26">
+      <c r="C79" s="2"/>
+      <c r="D79" s="2">
         <v>77</v>
       </c>
-      <c r="E79" s="26" t="s">
+      <c r="E79" s="2" t="s">
         <v>91</v>
       </c>
     </row>
@@ -7508,13 +7485,13 @@
         <f>VLOOKUP(A81,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>厨师</v>
       </c>
-      <c r="C81" s="26" t="s">
+      <c r="C81" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D81" s="26">
+      <c r="D81" s="2">
         <v>79</v>
       </c>
-      <c r="E81" s="26" t="s">
+      <c r="E81" s="2" t="s">
         <v>94</v>
       </c>
     </row>
@@ -7537,21 +7514,21 @@
       </c>
     </row>
     <row r="83" s="3" customFormat="1" spans="1:6">
-      <c r="A83" s="31">
+      <c r="A83" s="26">
         <v>81</v>
       </c>
-      <c r="B83" s="32" t="str">
+      <c r="B83" s="27" t="str">
         <f>VLOOKUP(A83,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>华山弟子</v>
       </c>
-      <c r="C83" s="33"/>
-      <c r="D83" s="33">
+      <c r="C83" s="28"/>
+      <c r="D83" s="28">
         <v>81</v>
       </c>
-      <c r="E83" s="26" t="s">
+      <c r="E83" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F83" s="36"/>
+      <c r="F83" s="30"/>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="6">
@@ -7576,11 +7553,11 @@
         <f>VLOOKUP(A85,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>恒山弟子</v>
       </c>
-      <c r="C85" s="26"/>
-      <c r="D85" s="26">
+      <c r="C85" s="2"/>
+      <c r="D85" s="2">
         <v>83</v>
       </c>
-      <c r="E85" s="26" t="s">
+      <c r="E85" s="2" t="s">
         <v>99</v>
       </c>
     </row>
@@ -7592,11 +7569,11 @@
         <f>VLOOKUP(A86,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>嵩山弟子</v>
       </c>
-      <c r="C86" s="26"/>
-      <c r="D86" s="26">
+      <c r="C86" s="2"/>
+      <c r="D86" s="2">
         <v>84</v>
       </c>
-      <c r="E86" s="26" t="s">
+      <c r="E86" s="2" t="s">
         <v>100</v>
       </c>
     </row>
@@ -7608,11 +7585,11 @@
         <f>VLOOKUP(A87,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>泰山弟子</v>
       </c>
-      <c r="C87" s="26"/>
-      <c r="D87" s="26">
+      <c r="C87" s="2"/>
+      <c r="D87" s="2">
         <v>85</v>
       </c>
-      <c r="E87" s="26" t="s">
+      <c r="E87" s="2" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7639,11 +7616,11 @@
         <f>VLOOKUP(A89,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>五毒教徒</v>
       </c>
-      <c r="C89" s="26"/>
-      <c r="D89" s="26">
+      <c r="C89" s="2"/>
+      <c r="D89" s="2">
         <v>87</v>
       </c>
-      <c r="E89" s="26" t="s">
+      <c r="E89" s="2" t="s">
         <v>103</v>
       </c>
     </row>
@@ -7655,11 +7632,11 @@
         <f>VLOOKUP(A90,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>日月教徒</v>
       </c>
-      <c r="C90" s="26"/>
-      <c r="D90" s="26">
+      <c r="C90" s="2"/>
+      <c r="D90" s="2">
         <v>88</v>
       </c>
-      <c r="E90" s="26" t="s">
+      <c r="E90" s="2" t="s">
         <v>104</v>
       </c>
     </row>
@@ -7749,11 +7726,11 @@
         <f>VLOOKUP(A96,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>铁掌帮众</v>
       </c>
-      <c r="C96" s="26"/>
-      <c r="D96" s="26">
+      <c r="C96" s="2"/>
+      <c r="D96" s="2">
         <v>94</v>
       </c>
-      <c r="E96" s="26" t="s">
+      <c r="E96" s="2" t="s">
         <v>111</v>
       </c>
     </row>
@@ -7765,11 +7742,11 @@
         <f>VLOOKUP(A97,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>全真教徒</v>
       </c>
-      <c r="C97" s="26"/>
-      <c r="D97" s="26">
+      <c r="C97" s="2"/>
+      <c r="D97" s="2">
         <v>95</v>
       </c>
-      <c r="E97" s="26" t="s">
+      <c r="E97" s="2" t="s">
         <v>112</v>
       </c>
     </row>
@@ -7804,10 +7781,10 @@
       </c>
     </row>
     <row r="100" s="4" customFormat="1" spans="1:6">
-      <c r="A100" s="37">
+      <c r="A100" s="31">
         <v>98</v>
       </c>
-      <c r="B100" s="38" t="str">
+      <c r="B100" s="32" t="str">
         <f>VLOOKUP(A100,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>巨蟒</v>
       </c>
@@ -7817,7 +7794,7 @@
       <c r="E100" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F100" s="39"/>
+      <c r="F100" s="33"/>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="6">
@@ -7835,10 +7812,10 @@
       </c>
     </row>
     <row r="102" s="4" customFormat="1" spans="1:6">
-      <c r="A102" s="37">
+      <c r="A102" s="31">
         <v>100</v>
       </c>
-      <c r="B102" s="38" t="str">
+      <c r="B102" s="32" t="str">
         <f>VLOOKUP(A102,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>大鳄鱼</v>
       </c>
@@ -7848,13 +7825,13 @@
       <c r="E102" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="F102" s="39"/>
+      <c r="F102" s="33"/>
     </row>
     <row r="103" s="3" customFormat="1" spans="1:6">
-      <c r="A103" s="40">
+      <c r="A103" s="34">
         <v>101</v>
       </c>
-      <c r="B103" s="41" t="str">
+      <c r="B103" s="35" t="str">
         <f>VLOOKUP(A103,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>大蜘蛛</v>
       </c>
@@ -7864,21 +7841,21 @@
       <c r="E103" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F103" s="36"/>
+      <c r="F103" s="30"/>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="16">
+      <c r="A104" s="6">
         <v>102</v>
       </c>
-      <c r="B104" s="17" t="str">
+      <c r="B104" s="8" t="str">
         <f>VLOOKUP(A104,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>蟒牯朱蛤</v>
       </c>
-      <c r="C104" s="18"/>
-      <c r="D104" s="18">
+      <c r="C104" s="2"/>
+      <c r="D104" s="2">
         <v>102</v>
       </c>
-      <c r="E104" s="42" t="s">
+      <c r="E104" s="36" t="s">
         <v>119</v>
       </c>
     </row>
@@ -7984,7 +7961,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" ht="27" spans="1:6">
       <c r="A111" s="6">
         <v>109</v>
       </c>
@@ -8019,20 +7996,20 @@
       </c>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="16">
+      <c r="A113" s="6">
         <v>111</v>
       </c>
-      <c r="B113" s="17" t="e">
+      <c r="B113" s="8" t="e">
         <f>VLOOKUP(A113,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C113" s="18" t="s">
+      <c r="C113" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D113" s="18">
+      <c r="D113" s="2">
         <v>111</v>
       </c>
-      <c r="E113" s="18" t="s">
+      <c r="E113" s="2" t="s">
         <v>129</v>
       </c>
     </row>

--- a/jyx2/excel/头像模型映射.xlsx
+++ b/jyx2/excel/头像模型映射.xlsx
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="135">
   <si>
     <t>代号</t>
   </si>
@@ -94,353 +94,353 @@
     <t>武器挂载</t>
   </si>
   <si>
-    <t>@Assets/BuildSource/ModelCharacters/Nan/Zhujue.prefab</t>
+    <t>Assets/BuildSource/ModelCharacters/Nan/Zhujue.prefab</t>
   </si>
   <si>
     <t>1|Assets/BuildSource/ModelWeapons/W_Right_SinSword.prefab|mixamorig:RightHandMiddle4|1|-0.037,0.005,-0.031|7.435,79.014,125.73
 2|Assets/BuildSource/ModelWeapons/W_Right_SinKnif.prefab|mixamorig:RightHandMiddle4|1|0,0,0|0,0,180</t>
   </si>
   <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/胡斐.prefab</t>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/胡斐.prefab</t>
   </si>
   <si>
     <t>2|Assets/BuildSource/ModelWeapons/W_Right_SinKnif.prefab|QuickRigCharacter_RightHand|100|8.4,5.9,-4.1|70.66,9.03,-7.79</t>
   </si>
   <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/程灵素.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/苗人凤.prefab</t>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/程灵素.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/苗人凤.prefab</t>
   </si>
   <si>
     <t>1|Assets/BuildSource/ModelWeapons/W_Right_SinSword.prefab|mixamorig:RightHandMiddle4|1|0.042,-0.022,0.026|5.178,-231.151,-21.241</t>
   </si>
   <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/阎基.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/张真人.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/灭绝.prefab</t>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/阎基.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/张真人.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/灭绝.prefab</t>
   </si>
   <si>
     <t>1|Assets/BuildSource/ModelWeapons/W_Right_SinSword.prefab|QuickRigCharacter_RightHand|100|3.7,1,-3|-42.695,-130.614,24.172</t>
   </si>
   <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/何太冲.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/唐文亮.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/张无忌.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/范遥.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/杨逍.prefab</t>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/何太冲.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/唐文亮.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/张无忌.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/范遥.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/杨逍.prefab</t>
   </si>
   <si>
     <t>1|Assets/BuildSource/ModelWeapons/W_Right_SinSword.prefab|QuickRigCharacter_RightHand|100|0.9,4.3,0.8|-32.17,-107.225,-45.17</t>
   </si>
   <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/殷天正.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/谢逊.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/韦一笑.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/金花婆婆.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/胡青牛.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/王难姑.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/方丈.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/岳不群.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/莫大.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/定闲.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/左冷禅.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/天门道人.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/余沧海.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/蓝凤凰.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/任我行.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/东方不败.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/平一指.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/田伯光.prefab</t>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/殷天正.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/谢逊.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/韦一笑.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/金花婆婆.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/胡青牛.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/王难姑.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/方丈.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/岳不群.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/莫大.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/定闲.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/左冷禅.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/天门道人.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/余沧海.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/蓝凤凰.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/任我行.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/东方不败.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/平一指.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/田伯光.prefab</t>
   </si>
   <si>
     <t>2|Assets/BuildSource/ModelWeapons/W_Right_SinKnif.prefab|QuickRigCharacter_RightHand|100|7.4,0.3,-0.1|44.2,20.7,33.5</t>
   </si>
   <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/风清扬.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/丹青生.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/秃笔翁.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/黑白子.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/黄钟公.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/令狐冲.prefab</t>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/风清扬.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/丹青生.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/秃笔翁.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/黑白子.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/黄钟公.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/令狐冲.prefab</t>
   </si>
   <si>
     <t>1|Assets/BuildSource/ModelWeapons/W_Right_SinSword.prefab|QuickRigCharacter_RightHand|100|3,-0.9,-3.2|-50.219,-126.166,-31.194</t>
   </si>
   <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/林平之.prefab</t>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/林平之.prefab</t>
   </si>
   <si>
     <t>1|Assets/BuildSource/ModelWeapons/W_Right_SinSword.prefab|QuickRigCharacter_RightHand|100|2.5,3.6,-5.7|-32.17,-107.225,-45.17</t>
   </si>
   <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/狄云.prefab</t>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/狄云.prefab</t>
   </si>
   <si>
     <t>2|Assets/BuildSource/ModelWeapons/W_Right_SinKnif.prefab|QuickRigCharacter_RightHand|100|5.29,3.82,-7.77|40.23,38.875,12.039</t>
   </si>
   <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/石破天.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/南贤.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/洪教主.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/侠客弟子.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/白万剑.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/岳老三.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/薛慕华.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/丁春秋.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/阿紫.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/游坦之.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/虚竹.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/乔峰.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/慕容复.prefab</t>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/石破天.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/南贤.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/洪教主.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/侠客弟子.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/白万剑.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/岳老三.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/薛慕华.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/丁春秋.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/阿紫.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/游坦之.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/虚竹.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/乔峰.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/慕容复.prefab</t>
   </si>
   <si>
     <t>1|Assets/BuildSource/ModelWeapons/W_Right_SinSword.prefab|QuickRigCharacter_RightHand|1|0.047,0.011,-0.049|-51.997,-141.795,-23.783</t>
   </si>
   <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/苏星河.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/段誉.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/袁承志.prefab</t>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/苏星河.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/段誉.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/袁承志.prefab</t>
   </si>
   <si>
     <t>1|Assets/BuildSource/ModelWeapons/W_Right_SinSword.prefab|QuickRigCharacter_RightHand|1|0.048,0.06,-0.022|-51.997,-141.795,-23.783</t>
   </si>
   <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/郭靖.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/黄蓉.prefab</t>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/郭靖.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/黄蓉.prefab</t>
   </si>
   <si>
     <t>1|Assets/BuildSource/ModelWeapons/W_Right_Gudgel.prefab|QuickRigCharacter_RightHand|100|0.9,4.3,0.8|-32.17,-107.225,-45.17</t>
   </si>
   <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/黄药师.prefab</t>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/黄药师.prefab</t>
   </si>
   <si>
     <t>1|Assets/BuildSource/ModelWeapons/W_Right_Gun.prefab|QuickRigCharacter_RightHand|100|0.9,4.3,0.8|-32.17,-107.225,-45.17</t>
   </si>
   <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/杨过.prefab</t>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/杨过.prefab</t>
   </si>
   <si>
     <t>1|Assets/BuildSource/ModelWeapons/W_Right_BigSword.prefab|QuickRigCharacter_LeftHand|2|-0.079,0.037,0.066|-65.335,151.561,-110.351</t>
   </si>
   <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/小龙女.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/欧阳锋.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/欧阳克.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/金轮法王.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/程英.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/周伯通.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/瑛姑.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/裘千仞.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/丘处机.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/洪七公.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/北丑.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/林厨子.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/武当弟子.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/峨眉弟子.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/昆仑弟子.prefab</t>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/小龙女.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/欧阳锋.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/欧阳克.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/金轮法王.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/程英.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/周伯通.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/瑛姑.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/裘千仞.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/丘处机.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/洪七公.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/北丑.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/林厨子.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/武当弟子.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/峨眉弟子.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/昆仑弟子.prefab</t>
   </si>
   <si>
     <t>崆峒派弟子，原版数据有误</t>
   </si>
   <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/崆峒弟子.prefab</t>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/崆峒弟子.prefab</t>
   </si>
   <si>
     <t>明教弟子，原版数据有误</t>
   </si>
   <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/明教弟子.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/华山弟子.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/衡山弟子.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/恒山弟子.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/嵩山弟子.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/泰山弟子.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/青城弟子.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/五毒弟子.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/日月教徒.prefab</t>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/明教弟子.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/华山弟子.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/衡山弟子.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/恒山弟子.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/嵩山弟子.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/泰山弟子.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/青城弟子.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/五毒弟子.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/日月教徒.prefab</t>
   </si>
   <si>
     <t>白驼山女弟子</t>
   </si>
   <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/欧阳克婢女.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/天山弟子.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/喇嘛.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/星宿弟子.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/丐帮弟子.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/铁掌弟子.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/全真弟子.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/少林弟子.prefab</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/神龙弟子.prefab</t>
-  </si>
-  <si>
-    <t>大蟒蛇#</t>
-  </si>
-  <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/雪怪.prefab</t>
-  </si>
-  <si>
-    <t>鳄鱼#</t>
-  </si>
-  <si>
-    <t>火蜘蛛#</t>
-  </si>
-  <si>
-    <t>蟒牯朱蛤#</t>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/欧阳克婢女.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/天山弟子.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/喇嘛.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/星宿弟子.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/丐帮弟子.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/铁掌弟子.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/全真弟子.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/少林弟子.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/神龙弟子.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/Animals/Viper_prefab.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/雪怪.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/Animals/Crocodile_prefab.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/火蜘蛛.prefab</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/Animals/frog_prefab.prefab</t>
   </si>
   <si>
     <t>千年冰蚕（无战斗）</t>
   </si>
   <si>
-    <t>华山派弟子#</t>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/华山派弟子.prefab</t>
   </si>
   <si>
     <t>神雕（无战斗）</t>
@@ -452,31 +452,31 @@
     <t>店小二（无战斗）</t>
   </si>
   <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/王语嫣.prefab</t>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/王语嫣.prefab</t>
   </si>
   <si>
     <t>扫地僧</t>
   </si>
   <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/扫地僧.prefab</t>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/扫地僧.prefab</t>
   </si>
   <si>
     <t>韦小宝</t>
   </si>
   <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/韦小宝.prefab</t>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/韦小宝.prefab</t>
   </si>
   <si>
     <t>霍青桐</t>
   </si>
   <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/霍青桐.prefab</t>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/霍青桐.prefab</t>
   </si>
   <si>
     <t>霍青桐随从</t>
   </si>
   <si>
-    <t>@Assets/BuildSource/ModelCharacters/BattleNpc/霍青桐随从.prefab</t>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/霍青桐随从.prefab</t>
   </si>
   <si>
     <t>软体娃娃</t>
@@ -487,10 +487,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -526,7 +526,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -534,6 +556,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -548,39 +584,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -592,47 +598,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -648,6 +616,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -656,7 +648,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -669,12 +669,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -719,7 +719,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -731,7 +785,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,13 +857,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,139 +893,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -923,30 +923,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -962,36 +938,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1014,6 +970,50 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1024,164 +1024,164 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1265,6 +1265,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="34" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="34" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="34" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6172,14 +6175,14 @@
   <dimension ref="A1:F134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="3" max="3" width="24.875" customWidth="1"/>
     <col min="4" max="4" width="6.375" customWidth="1"/>
-    <col min="5" max="5" width="51.875" customWidth="1"/>
+    <col min="5" max="5" width="74.75" customWidth="1"/>
     <col min="6" max="6" width="78.25" style="5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6239,7 +6242,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="27" spans="1:6">
+    <row r="4" spans="1:6">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -6449,7 +6452,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" ht="27" spans="1:6">
+    <row r="17" spans="1:6">
       <c r="A17" s="6">
         <v>15</v>
       </c>
@@ -6482,7 +6485,7 @@
       </c>
       <c r="F18" s="18"/>
     </row>
-    <row r="19" s="2" customFormat="1" ht="27" spans="1:6">
+    <row r="19" s="2" customFormat="1" spans="1:6">
       <c r="A19" s="6">
         <v>17</v>
       </c>
@@ -6550,7 +6553,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" s="2" customFormat="1" ht="27" spans="1:6">
+    <row r="23" s="2" customFormat="1" spans="1:6">
       <c r="A23" s="6">
         <v>21</v>
       </c>
@@ -6614,7 +6617,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" ht="27" spans="1:6">
+    <row r="27" spans="1:6">
       <c r="A27" s="6">
         <v>25</v>
       </c>
@@ -6966,7 +6969,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" ht="27" spans="1:6">
+    <row r="49" spans="1:6">
       <c r="A49" s="6">
         <v>47</v>
       </c>
@@ -7165,7 +7168,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="61" ht="27" spans="1:6">
+    <row r="61" spans="1:6">
       <c r="A61" s="6">
         <v>59</v>
       </c>
@@ -7227,7 +7230,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="65" s="3" customFormat="1" ht="27" spans="1:6">
+    <row r="65" s="3" customFormat="1" spans="1:6">
       <c r="A65" s="26">
         <v>63</v>
       </c>
@@ -7275,7 +7278,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="68" ht="27" spans="1:6">
+    <row r="68" spans="1:6">
       <c r="A68" s="6">
         <v>66</v>
       </c>
@@ -7873,7 +7876,7 @@
       <c r="D105">
         <v>103</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E105" s="37" t="s">
         <v>121</v>
       </c>
     </row>
@@ -7891,7 +7894,7 @@
       <c r="D106">
         <v>104</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E106" s="37" t="s">
         <v>121</v>
       </c>
     </row>
@@ -7909,7 +7912,7 @@
       <c r="D107">
         <v>105</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E107" s="37" t="s">
         <v>121</v>
       </c>
     </row>
@@ -7927,7 +7930,7 @@
       <c r="D108">
         <v>106</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E108" s="37" t="s">
         <v>121</v>
       </c>
     </row>
@@ -7942,7 +7945,7 @@
       <c r="D109">
         <v>107</v>
       </c>
-      <c r="E109" t="s">
+      <c r="E109" s="37" t="s">
         <v>121</v>
       </c>
     </row>
@@ -7957,11 +7960,11 @@
       <c r="D110">
         <v>108</v>
       </c>
-      <c r="E110" t="s">
+      <c r="E110" s="37" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="111" ht="27" spans="1:6">
+    <row r="111" spans="1:6">
       <c r="A111" s="6">
         <v>109</v>
       </c>
@@ -8063,7 +8066,7 @@
       <c r="D116">
         <v>114</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E116" s="37" t="s">
         <v>121</v>
       </c>
     </row>
@@ -8078,7 +8081,7 @@
       <c r="D117">
         <v>115</v>
       </c>
-      <c r="E117" t="s">
+      <c r="E117" s="37" t="s">
         <v>121</v>
       </c>
     </row>
@@ -8093,7 +8096,7 @@
       <c r="D118">
         <v>116</v>
       </c>
-      <c r="E118" t="s">
+      <c r="E118" s="37" t="s">
         <v>121</v>
       </c>
     </row>
@@ -8108,7 +8111,7 @@
       <c r="D119">
         <v>117</v>
       </c>
-      <c r="E119" t="s">
+      <c r="E119" s="37" t="s">
         <v>121</v>
       </c>
     </row>
@@ -8123,7 +8126,7 @@
       <c r="D120">
         <v>118</v>
       </c>
-      <c r="E120" t="s">
+      <c r="E120" s="37" t="s">
         <v>121</v>
       </c>
     </row>
@@ -8138,7 +8141,7 @@
       <c r="D121">
         <v>119</v>
       </c>
-      <c r="E121" t="s">
+      <c r="E121" s="37" t="s">
         <v>121</v>
       </c>
     </row>
@@ -8153,7 +8156,7 @@
       <c r="D122">
         <v>120</v>
       </c>
-      <c r="E122" t="s">
+      <c r="E122" s="37" t="s">
         <v>121</v>
       </c>
     </row>
@@ -8168,7 +8171,7 @@
       <c r="D123">
         <v>121</v>
       </c>
-      <c r="E123" t="s">
+      <c r="E123" s="37" t="s">
         <v>121</v>
       </c>
     </row>
@@ -8183,7 +8186,7 @@
       <c r="D124">
         <v>122</v>
       </c>
-      <c r="E124" t="s">
+      <c r="E124" s="37" t="s">
         <v>121</v>
       </c>
     </row>
@@ -8198,7 +8201,7 @@
       <c r="D125">
         <v>123</v>
       </c>
-      <c r="E125" t="s">
+      <c r="E125" s="37" t="s">
         <v>121</v>
       </c>
     </row>
@@ -8213,7 +8216,7 @@
       <c r="D126">
         <v>124</v>
       </c>
-      <c r="E126" t="s">
+      <c r="E126" s="37" t="s">
         <v>121</v>
       </c>
     </row>
@@ -8228,7 +8231,7 @@
       <c r="D127">
         <v>125</v>
       </c>
-      <c r="E127" t="s">
+      <c r="E127" s="37" t="s">
         <v>121</v>
       </c>
     </row>
@@ -8243,7 +8246,7 @@
       <c r="D128">
         <v>126</v>
       </c>
-      <c r="E128" t="s">
+      <c r="E128" s="37" t="s">
         <v>121</v>
       </c>
     </row>
@@ -8258,7 +8261,7 @@
       <c r="D129">
         <v>127</v>
       </c>
-      <c r="E129" t="s">
+      <c r="E129" s="37" t="s">
         <v>121</v>
       </c>
     </row>
@@ -8273,7 +8276,7 @@
       <c r="D130">
         <v>128</v>
       </c>
-      <c r="E130" t="s">
+      <c r="E130" s="37" t="s">
         <v>121</v>
       </c>
     </row>
@@ -8288,7 +8291,7 @@
       <c r="D131">
         <v>129</v>
       </c>
-      <c r="E131" t="s">
+      <c r="E131" s="37" t="s">
         <v>121</v>
       </c>
     </row>
@@ -8303,7 +8306,7 @@
       <c r="D132">
         <v>130</v>
       </c>
-      <c r="E132" t="s">
+      <c r="E132" s="37" t="s">
         <v>121</v>
       </c>
     </row>
@@ -8318,16 +8321,19 @@
       <c r="D133">
         <v>131</v>
       </c>
-      <c r="E133" t="s">
+      <c r="E133" s="37" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:5">
       <c r="A134">
         <v>10000</v>
       </c>
       <c r="D134">
         <v>10000</v>
+      </c>
+      <c r="E134" s="37" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/jyx2/excel/头像模型映射.xlsx
+++ b/jyx2/excel/头像模型映射.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12090"/>
+    <workbookView windowWidth="27825" windowHeight="14940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$134</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$134</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -25,47 +25,28 @@
     <author>CGGG</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="F1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>CGGG:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
-如果不加@开头，则是关联到3D/Xml/Xiake.xml中的定义，否则是直接取绝对路径</t>
+          <t>已经废弃，模型配置确认没问题就删除</t>
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="G1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>CGGG:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
-武器代码|prefab位置|绑定骨骼|缩放比例|位置偏移|旋转</t>
+          <t xml:space="preserve">已经废弃，模型配置确认没问题就删除
+</t>
         </r>
       </text>
     </comment>
@@ -74,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="239">
   <si>
     <t>代号</t>
   </si>
@@ -88,17 +69,19 @@
     <t>立绘</t>
   </si>
   <si>
+    <t>模型配置</t>
+  </si>
+  <si>
     <t>模型</t>
   </si>
   <si>
     <t>武器挂载</t>
   </si>
   <si>
-    <t>Assets/BuildSource/ModelCharacters/Nan/Zhujue.prefab</t>
-  </si>
-  <si>
-    <t>1|Assets/BuildSource/ModelWeapons/W_Right_SinSword.prefab|mixamorig:RightHandMiddle4|1|-0.037,0.005,-0.031|7.435,79.014,125.73
-2|Assets/BuildSource/ModelWeapons/W_Right_SinKnif.prefab|mixamorig:RightHandMiddle4|1|0,0,0|0,0,180</t>
+    <t>小虾米</t>
+  </si>
+  <si>
+    <t>胡斐</t>
   </si>
   <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/胡斐.prefab</t>
@@ -107,339 +90,645 @@
     <t>2|Assets/BuildSource/ModelWeapons/W_Right_SinKnif.prefab|QuickRigCharacter_RightHand|100|8.4,5.9,-4.1|70.66,9.03,-7.79</t>
   </si>
   <si>
+    <t>程灵素</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/程灵素.prefab</t>
   </si>
   <si>
+    <t>苗人凤</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/苗人凤.prefab</t>
   </si>
   <si>
     <t>1|Assets/BuildSource/ModelWeapons/W_Right_SinSword.prefab|mixamorig:RightHandMiddle4|1|0.042,-0.022,0.026|5.178,-231.151,-21.241</t>
   </si>
   <si>
+    <t>阎基</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/阎基.prefab</t>
   </si>
   <si>
+    <t>张三丰</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/张真人.prefab</t>
   </si>
   <si>
+    <t>灭绝</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/灭绝.prefab</t>
   </si>
   <si>
     <t>1|Assets/BuildSource/ModelWeapons/W_Right_SinSword.prefab|QuickRigCharacter_RightHand|100|3.7,1,-3|-42.695,-130.614,24.172</t>
   </si>
   <si>
+    <t>何太冲</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/何太冲.prefab</t>
   </si>
   <si>
+    <t>唐文亮</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/唐文亮.prefab</t>
   </si>
   <si>
+    <t>张无忌</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/张无忌.prefab</t>
   </si>
   <si>
+    <t>范遥</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/范遥.prefab</t>
   </si>
   <si>
+    <t>杨逍</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/杨逍.prefab</t>
   </si>
   <si>
     <t>1|Assets/BuildSource/ModelWeapons/W_Right_SinSword.prefab|QuickRigCharacter_RightHand|100|0.9,4.3,0.8|-32.17,-107.225,-45.17</t>
   </si>
   <si>
+    <t>殷天正</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/殷天正.prefab</t>
   </si>
   <si>
+    <t>谢逊</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/谢逊.prefab</t>
   </si>
   <si>
+    <t>韦一笑</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/韦一笑.prefab</t>
   </si>
   <si>
+    <t>金花婆婆</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/金花婆婆.prefab</t>
   </si>
   <si>
+    <t>胡青牛</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/胡青牛.prefab</t>
   </si>
   <si>
+    <t>王难姑</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/王难姑.prefab</t>
   </si>
   <si>
+    <t>成昆</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/方丈.prefab</t>
   </si>
   <si>
+    <t>岳不群</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/岳不群.prefab</t>
   </si>
   <si>
+    <t>莫大</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/莫大.prefab</t>
   </si>
   <si>
+    <t>定闲</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/定闲.prefab</t>
   </si>
   <si>
+    <t>左冷禅</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/左冷禅.prefab</t>
   </si>
   <si>
+    <t>天门</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/天门道人.prefab</t>
   </si>
   <si>
+    <t>余沧海</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/余沧海.prefab</t>
   </si>
   <si>
+    <t>蓝凤凰</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/蓝凤凰.prefab</t>
   </si>
   <si>
+    <t>任我行</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/任我行.prefab</t>
   </si>
   <si>
+    <t>东方不败</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/东方不败.prefab</t>
   </si>
   <si>
+    <t>平一指</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/平一指.prefab</t>
   </si>
   <si>
+    <t>田伯光</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/田伯光.prefab</t>
   </si>
   <si>
     <t>2|Assets/BuildSource/ModelWeapons/W_Right_SinKnif.prefab|QuickRigCharacter_RightHand|100|7.4,0.3,-0.1|44.2,20.7,33.5</t>
   </si>
   <si>
+    <t>风清扬</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/风清扬.prefab</t>
   </si>
   <si>
+    <t>丹青生</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/丹青生.prefab</t>
   </si>
   <si>
+    <t>秃笔翁</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/秃笔翁.prefab</t>
   </si>
   <si>
+    <t>黑白子</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/黑白子.prefab</t>
   </si>
   <si>
+    <t>黄钟公</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/黄钟公.prefab</t>
   </si>
   <si>
+    <t>令狐冲</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/令狐冲.prefab</t>
   </si>
   <si>
     <t>1|Assets/BuildSource/ModelWeapons/W_Right_SinSword.prefab|QuickRigCharacter_RightHand|100|3,-0.9,-3.2|-50.219,-126.166,-31.194</t>
   </si>
   <si>
+    <t>林平之</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/林平之.prefab</t>
   </si>
   <si>
     <t>1|Assets/BuildSource/ModelWeapons/W_Right_SinSword.prefab|QuickRigCharacter_RightHand|100|2.5,3.6,-5.7|-32.17,-107.225,-45.17</t>
   </si>
   <si>
+    <t>狄云</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/狄云.prefab</t>
   </si>
   <si>
     <t>2|Assets/BuildSource/ModelWeapons/W_Right_SinKnif.prefab|QuickRigCharacter_RightHand|100|5.29,3.82,-7.77|40.23,38.875,12.039</t>
   </si>
   <si>
+    <t>石破天</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/石破天.prefab</t>
   </si>
   <si>
+    <t>龙岛主</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/南贤.prefab</t>
   </si>
   <si>
+    <t>木岛主</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/洪教主.prefab</t>
   </si>
   <si>
+    <t>张三</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/侠客弟子.prefab</t>
   </si>
   <si>
+    <t>李四</t>
+  </si>
+  <si>
+    <t>白万剑</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/白万剑.prefab</t>
   </si>
   <si>
+    <t>岳老三</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/岳老三.prefab</t>
   </si>
   <si>
+    <t>薛慕华</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/薛慕华.prefab</t>
   </si>
   <si>
+    <t>丁春秋</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/丁春秋.prefab</t>
   </si>
   <si>
+    <t>阿紫</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/阿紫.prefab</t>
   </si>
   <si>
+    <t>游坦之</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/游坦之.prefab</t>
   </si>
   <si>
+    <t>虚竹</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/虚竹.prefab</t>
   </si>
   <si>
+    <t>乔峰</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/乔峰.prefab</t>
   </si>
   <si>
+    <t>慕容复</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/慕容复.prefab</t>
   </si>
   <si>
     <t>1|Assets/BuildSource/ModelWeapons/W_Right_SinSword.prefab|QuickRigCharacter_RightHand|1|0.047,0.011,-0.049|-51.997,-141.795,-23.783</t>
   </si>
   <si>
+    <t>苏星河</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/苏星河.prefab</t>
   </si>
   <si>
+    <t>段誉</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/段誉.prefab</t>
   </si>
   <si>
+    <t>袁承志</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/袁承志.prefab</t>
   </si>
   <si>
     <t>1|Assets/BuildSource/ModelWeapons/W_Right_SinSword.prefab|QuickRigCharacter_RightHand|1|0.048,0.06,-0.022|-51.997,-141.795,-23.783</t>
   </si>
   <si>
+    <t>郭靖</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/郭靖.prefab</t>
   </si>
   <si>
+    <t>黄蓉</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/黄蓉.prefab</t>
   </si>
   <si>
     <t>1|Assets/BuildSource/ModelWeapons/W_Right_Gudgel.prefab|QuickRigCharacter_RightHand|100|0.9,4.3,0.8|-32.17,-107.225,-45.17</t>
   </si>
   <si>
+    <t>黄药师</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/黄药师.prefab</t>
   </si>
   <si>
     <t>1|Assets/BuildSource/ModelWeapons/W_Right_Gun.prefab|QuickRigCharacter_RightHand|100|0.9,4.3,0.8|-32.17,-107.225,-45.17</t>
   </si>
   <si>
+    <t>杨过</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/杨过.prefab</t>
   </si>
   <si>
     <t>1|Assets/BuildSource/ModelWeapons/W_Right_BigSword.prefab|QuickRigCharacter_LeftHand|2|-0.079,0.037,0.066|-65.335,151.561,-110.351</t>
   </si>
   <si>
+    <t>小龙女</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/小龙女.prefab</t>
   </si>
   <si>
+    <t>欧阳锋</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/欧阳锋.prefab</t>
   </si>
   <si>
+    <t>欧阳克</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/欧阳克.prefab</t>
   </si>
   <si>
+    <t>金轮法王</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/金轮法王.prefab</t>
   </si>
   <si>
+    <t>程英</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/程英.prefab</t>
   </si>
   <si>
+    <t>周伯通</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/周伯通.prefab</t>
   </si>
   <si>
+    <t>一灯</t>
+  </si>
+  <si>
+    <t>瑛姑</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/瑛姑.prefab</t>
   </si>
   <si>
+    <t>裘千仞</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/裘千仞.prefab</t>
   </si>
   <si>
+    <t>丘处机</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/丘处机.prefab</t>
   </si>
   <si>
+    <t>洪七公</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/洪七公.prefab</t>
   </si>
   <si>
+    <t>玄慈</t>
+  </si>
+  <si>
+    <t>洪教主</t>
+  </si>
+  <si>
+    <t>孔八拉</t>
+  </si>
+  <si>
+    <t>南贤</t>
+  </si>
+  <si>
+    <t>北丑</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/北丑.prefab</t>
   </si>
   <si>
+    <t>厨师</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/林厨子.prefab</t>
   </si>
   <si>
+    <t>武当弟子</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/武当弟子.prefab</t>
   </si>
   <si>
+    <t>峨嵋弟子</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/峨眉弟子.prefab</t>
   </si>
   <si>
+    <t>昆仑弟子</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/昆仑弟子.prefab</t>
   </si>
   <si>
     <t>崆峒派弟子，原版数据有误</t>
   </si>
   <si>
+    <t>崆峒弟子</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/崆峒弟子.prefab</t>
   </si>
   <si>
     <t>明教弟子，原版数据有误</t>
   </si>
   <si>
+    <t>明教弟子</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/明教弟子.prefab</t>
   </si>
   <si>
+    <t>华山弟子</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/华山弟子.prefab</t>
   </si>
   <si>
+    <t>衡山弟子</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/衡山弟子.prefab</t>
   </si>
   <si>
+    <t>恒山弟子</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/恒山弟子.prefab</t>
   </si>
   <si>
+    <t>嵩山弟子</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/嵩山弟子.prefab</t>
   </si>
   <si>
+    <t>泰山弟子</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/泰山弟子.prefab</t>
   </si>
   <si>
+    <t>青城弟子</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/青城弟子.prefab</t>
   </si>
   <si>
+    <t>五毒教徒</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/五毒弟子.prefab</t>
   </si>
   <si>
+    <t>日月教徒</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/日月教徒.prefab</t>
   </si>
   <si>
     <t>白驼山女弟子</t>
   </si>
   <si>
+    <t>欧阳克婢女</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/欧阳克婢女.prefab</t>
   </si>
   <si>
+    <t>天山弟子</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/天山弟子.prefab</t>
   </si>
   <si>
+    <t>喇嘛</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/喇嘛.prefab</t>
   </si>
   <si>
+    <t>星宿弟子</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/星宿弟子.prefab</t>
   </si>
   <si>
+    <t>丐帮弟子</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/丐帮弟子.prefab</t>
   </si>
   <si>
+    <t>铁掌弟子</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/铁掌弟子.prefab</t>
   </si>
   <si>
+    <t>全真弟子</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/全真弟子.prefab</t>
   </si>
   <si>
+    <t>少林弟子</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/少林弟子.prefab</t>
   </si>
   <si>
+    <t>神龙弟子</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/神龙弟子.prefab</t>
   </si>
   <si>
+    <t>巨蟒</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/Animals/Viper_prefab.prefab</t>
   </si>
   <si>
+    <t>雪怪</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/雪怪.prefab</t>
   </si>
   <si>
+    <t>大鳄鱼</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/Animals/Crocodile_prefab.prefab</t>
   </si>
   <si>
+    <t>大蜘蛛</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/火蜘蛛.prefab</t>
   </si>
   <si>
+    <t>蟒牯朱蛤</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/Animals/frog_prefab.prefab</t>
   </si>
   <si>
     <t>千年冰蚕（无战斗）</t>
   </si>
   <si>
+    <t>华山派弟子</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/华山派弟子.prefab</t>
   </si>
   <si>
@@ -450,6 +739,9 @@
   </si>
   <si>
     <t>店小二（无战斗）</t>
+  </si>
+  <si>
+    <t>王语嫣</t>
   </si>
   <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/王语嫣.prefab</t>
@@ -487,12 +779,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -526,6 +818,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -533,7 +847,84 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -547,94 +938,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -646,33 +954,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -707,7 +993,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0" tint="-0.35"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -719,7 +1005,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -731,49 +1035,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -785,19 +1047,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -815,13 +1071,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,13 +1083,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -851,25 +1143,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -887,13 +1161,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -923,21 +1209,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -948,6 +1219,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -979,19 +1259,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1013,9 +1297,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1024,40 +1310,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1066,122 +1343,131 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1197,50 +1483,29 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="14" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="14" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="14" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="14" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
@@ -1251,23 +1516,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="34" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="34" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="34" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="34" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="34" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="34" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="34" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="34" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="34" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="34" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5848,7 +6110,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="494949"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -6172,25 +6434,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F134"/>
+  <dimension ref="A1:G134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
+    <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="24.875" customWidth="1"/>
     <col min="4" max="4" width="6.375" customWidth="1"/>
-    <col min="5" max="5" width="74.75" customWidth="1"/>
-    <col min="6" max="6" width="78.25" style="5" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="6" max="6" width="74.75" style="5" customWidth="1"/>
+    <col min="7" max="7" width="78.25" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -6205,12 +6469,15 @@
       <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" ht="54" spans="1:6">
-      <c r="A2" s="6">
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="7">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="str">
+      <c r="B2" s="9" t="str">
         <f>VLOOKUP(A2,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>小虾米</v>
       </c>
@@ -6218,245 +6485,284 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="27" spans="1:6">
-      <c r="A3" s="6">
+    <row r="3" ht="27" spans="1:7">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="str">
+      <c r="B3" s="9" t="str">
         <f>VLOOKUP(A3,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>胡斐</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="6">
+      <c r="G3" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="str">
+      <c r="B4" s="9" t="str">
         <f>VLOOKUP(A4,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>程灵素</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" ht="27" spans="1:6">
-      <c r="A5" s="6">
+      <c r="E4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="12"/>
+    </row>
+    <row r="5" ht="27" spans="1:7">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="str">
+      <c r="B5" s="9" t="str">
         <f>VLOOKUP(A5,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>苗人凤</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="6">
+      <c r="E5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="str">
+      <c r="B6" s="9" t="str">
         <f>VLOOKUP(A6,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>阎基</v>
       </c>
       <c r="D6">
         <v>4</v>
       </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="6">
+      <c r="E6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="str">
+      <c r="B7" s="9" t="str">
         <f>VLOOKUP(A7,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>张三丰</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" ht="27" spans="1:6">
-      <c r="A8" s="6">
+      <c r="E7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" ht="27" spans="1:7">
+      <c r="A8" s="7">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="str">
+      <c r="B8" s="9" t="str">
         <f>VLOOKUP(A8,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>灭绝</v>
       </c>
       <c r="D8">
         <v>6</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" ht="27" spans="1:6">
-      <c r="A9" s="6">
+      <c r="E8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" ht="27" spans="1:7">
+      <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="str">
+      <c r="B9" s="9" t="str">
         <f>VLOOKUP(A9,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>何太冲</v>
       </c>
       <c r="D9">
         <v>7</v>
       </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="6">
+      <c r="E9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="7">
         <v>8</v>
       </c>
-      <c r="B10" s="8" t="str">
+      <c r="B10" s="9" t="str">
         <f>VLOOKUP(A10,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>唐文亮</v>
       </c>
       <c r="D10">
         <v>8</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="6">
+      <c r="E10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="7">
         <v>9</v>
       </c>
-      <c r="B11" s="8" t="str">
+      <c r="B11" s="9" t="str">
         <f>VLOOKUP(A11,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>张无忌</v>
       </c>
       <c r="D11">
         <v>9</v>
       </c>
-      <c r="E11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:6">
-      <c r="A12" s="13">
+      <c r="E11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:7">
+      <c r="A12" s="14">
         <v>10</v>
       </c>
-      <c r="B12" s="14" t="str">
+      <c r="B12" s="15" t="str">
         <f>VLOOKUP(A12,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>范遥</v>
       </c>
       <c r="D12" s="1">
         <v>10</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="15"/>
-    </row>
-    <row r="13" ht="27" spans="1:6">
-      <c r="A13" s="6">
+      <c r="E12" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" ht="27" spans="1:7">
+      <c r="A13" s="7">
         <v>11</v>
       </c>
-      <c r="B13" s="8" t="str">
+      <c r="B13" s="9" t="str">
         <f>VLOOKUP(A13,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>杨逍</v>
       </c>
       <c r="D13">
         <v>11</v>
       </c>
-      <c r="E13" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="6">
+      <c r="E13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="7">
         <v>12</v>
       </c>
-      <c r="B14" s="8" t="str">
+      <c r="B14" s="9" t="str">
         <f>VLOOKUP(A14,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>殷天正</v>
       </c>
       <c r="D14">
         <v>12</v>
       </c>
-      <c r="E14" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:6">
-      <c r="A15" s="13">
+      <c r="E14" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:7">
+      <c r="A15" s="14">
         <v>13</v>
       </c>
-      <c r="B15" s="14" t="str">
+      <c r="B15" s="15" t="str">
         <f>VLOOKUP(A15,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>谢逊</v>
       </c>
       <c r="D15" s="1">
         <v>13</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="15"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="6">
+      <c r="E15" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="7">
         <v>14</v>
       </c>
-      <c r="B16" s="8" t="str">
+      <c r="B16" s="9" t="str">
         <f>VLOOKUP(A16,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>韦一笑</v>
       </c>
       <c r="D16">
         <v>14</v>
       </c>
-      <c r="E16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="6">
+      <c r="E16" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="7">
         <v>15</v>
       </c>
-      <c r="B17" s="8" t="str">
+      <c r="B17" s="9" t="str">
         <f>VLOOKUP(A17,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>金花婆婆</v>
       </c>
@@ -6464,210 +6770,248 @@
       <c r="D17" s="2">
         <v>15</v>
       </c>
-      <c r="E17" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="11"/>
+      <c r="E17" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="12"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="6">
+      <c r="A18" s="7">
         <v>16</v>
       </c>
-      <c r="B18" s="8" t="str">
+      <c r="B18" s="9" t="str">
         <f>VLOOKUP(A18,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>胡青牛</v>
       </c>
       <c r="D18">
         <v>16</v>
       </c>
-      <c r="E18" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="18"/>
-    </row>
-    <row r="19" s="2" customFormat="1" spans="1:6">
-      <c r="A19" s="6">
+      <c r="E18" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" spans="1:7">
+      <c r="A19" s="7">
         <v>17</v>
       </c>
-      <c r="B19" s="8" t="str">
+      <c r="B19" s="9" t="str">
         <f>VLOOKUP(A19,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>王难姑</v>
       </c>
       <c r="D19" s="2">
         <v>17</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="19"/>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:6">
-      <c r="A20" s="13">
+      <c r="E19" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:7">
+      <c r="A20" s="14">
         <v>18</v>
       </c>
-      <c r="B20" s="14" t="str">
+      <c r="B20" s="15" t="str">
         <f>VLOOKUP(A20,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>成昆</v>
       </c>
       <c r="D20" s="1">
         <v>18</v>
       </c>
-      <c r="E20" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="15"/>
-    </row>
-    <row r="21" ht="27" spans="1:6">
-      <c r="A21" s="6">
+      <c r="E20" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" ht="27" spans="1:7">
+      <c r="A21" s="7">
         <v>19</v>
       </c>
-      <c r="B21" s="8" t="str">
+      <c r="B21" s="9" t="str">
         <f>VLOOKUP(A21,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>岳不群</v>
       </c>
       <c r="D21">
         <v>19</v>
       </c>
-      <c r="E21" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="27" spans="1:6">
-      <c r="A22" s="13">
+      <c r="E21" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="27" spans="1:7">
+      <c r="A22" s="14">
         <v>20</v>
       </c>
-      <c r="B22" s="14" t="str">
+      <c r="B22" s="15" t="str">
         <f>VLOOKUP(A22,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>莫大</v>
       </c>
       <c r="D22" s="1">
         <v>20</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" s="2" customFormat="1" spans="1:6">
-      <c r="A23" s="6">
+      <c r="E22" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="1" spans="1:7">
+      <c r="A23" s="7">
         <v>21</v>
       </c>
-      <c r="B23" s="8" t="str">
+      <c r="B23" s="9" t="str">
         <f>VLOOKUP(A23,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>定闲</v>
       </c>
       <c r="D23" s="2">
         <v>21</v>
       </c>
-      <c r="E23" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23" s="19"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="6">
+      <c r="E23" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" s="12"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="7">
         <v>22</v>
       </c>
-      <c r="B24" s="8" t="str">
+      <c r="B24" s="9" t="str">
         <f>VLOOKUP(A24,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>左冷禅</v>
       </c>
       <c r="D24">
         <v>22</v>
       </c>
-      <c r="E24" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" ht="27" spans="1:6">
-      <c r="A25" s="6">
+      <c r="E24" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" ht="27" spans="1:7">
+      <c r="A25" s="7">
         <v>23</v>
       </c>
-      <c r="B25" s="8" t="str">
+      <c r="B25" s="9" t="str">
         <f>VLOOKUP(A25,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>天门</v>
       </c>
       <c r="D25">
         <v>23</v>
       </c>
-      <c r="E25" t="s">
-        <v>34</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="6">
+      <c r="E25" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="7">
         <v>24</v>
       </c>
-      <c r="B26" s="8" t="str">
+      <c r="B26" s="9" t="str">
         <f>VLOOKUP(A26,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>余沧海</v>
       </c>
       <c r="D26">
         <v>24</v>
       </c>
-      <c r="E26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="6">
+      <c r="E26" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="7">
         <v>25</v>
       </c>
-      <c r="B27" s="8" t="str">
+      <c r="B27" s="9" t="str">
         <f>VLOOKUP(A27,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>蓝凤凰</v>
       </c>
       <c r="D27">
         <v>25</v>
       </c>
-      <c r="E27" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" s="11"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="6">
+      <c r="E27" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="12"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="7">
         <v>26</v>
       </c>
-      <c r="B28" s="8" t="str">
+      <c r="B28" s="9" t="str">
         <f>VLOOKUP(A28,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>任我行</v>
       </c>
       <c r="D28">
         <v>26</v>
       </c>
-      <c r="E28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="6">
+      <c r="E28" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="7">
         <v>27</v>
       </c>
-      <c r="B29" s="8" t="str">
+      <c r="B29" s="9" t="str">
         <f>VLOOKUP(A29,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>东方不败</v>
       </c>
       <c r="D29">
         <v>27</v>
       </c>
-      <c r="E29" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="6">
+      <c r="E29" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="7">
         <v>28</v>
       </c>
-      <c r="B30" s="8" t="str">
+      <c r="B30" s="9" t="str">
         <f>VLOOKUP(A30,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>平一指</v>
       </c>
@@ -6675,33 +7019,39 @@
       <c r="D30" s="2">
         <v>28</v>
       </c>
-      <c r="E30" s="22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" ht="27" spans="1:6">
-      <c r="A31" s="6">
+      <c r="E30" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" ht="27" spans="1:7">
+      <c r="A31" s="7">
         <v>29</v>
       </c>
-      <c r="B31" s="8" t="str">
+      <c r="B31" s="9" t="str">
         <f>VLOOKUP(A31,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>田伯光</v>
       </c>
       <c r="D31">
         <v>29</v>
       </c>
-      <c r="E31" t="s">
-        <v>40</v>
+      <c r="E31" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="6">
+        <v>69</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="7">
         <v>30</v>
       </c>
-      <c r="B32" s="8" t="str">
+      <c r="B32" s="9" t="str">
         <f>VLOOKUP(A32,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>风清扬</v>
       </c>
@@ -6709,176 +7059,209 @@
       <c r="D32" s="2">
         <v>30</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="6">
+      <c r="E32" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="7">
         <v>31</v>
       </c>
-      <c r="B33" s="8" t="str">
+      <c r="B33" s="9" t="str">
         <f>VLOOKUP(A33,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>丹青生</v>
       </c>
       <c r="D33">
         <v>31</v>
       </c>
-      <c r="E33" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="6">
+      <c r="E33" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="7">
         <v>32</v>
       </c>
-      <c r="B34" s="8" t="str">
+      <c r="B34" s="9" t="str">
         <f>VLOOKUP(A34,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>秃笔翁</v>
       </c>
       <c r="D34">
         <v>32</v>
       </c>
-      <c r="E34" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="6">
+      <c r="E34" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="7">
         <v>33</v>
       </c>
-      <c r="B35" s="8" t="str">
+      <c r="B35" s="9" t="str">
         <f>VLOOKUP(A35,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>黑白子</v>
       </c>
       <c r="D35">
         <v>33</v>
       </c>
-      <c r="E35" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="6">
+      <c r="E35" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="7">
         <v>34</v>
       </c>
-      <c r="B36" s="8" t="str">
+      <c r="B36" s="9" t="str">
         <f>VLOOKUP(A36,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>黄钟公</v>
       </c>
       <c r="D36">
         <v>34</v>
       </c>
-      <c r="E36" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" s="1" customFormat="1" ht="27" spans="1:6">
-      <c r="A37" s="13">
+      <c r="E36" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="27" spans="1:7">
+      <c r="A37" s="14">
         <v>35</v>
       </c>
-      <c r="B37" s="14" t="str">
+      <c r="B37" s="15" t="str">
         <f>VLOOKUP(A37,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>令狐冲</v>
       </c>
       <c r="D37" s="1">
         <v>35</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F37" s="21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" ht="27" spans="1:6">
-      <c r="A38" s="6">
+      <c r="E37" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" ht="27" spans="1:7">
+      <c r="A38" s="7">
         <v>36</v>
       </c>
-      <c r="B38" s="8" t="str">
+      <c r="B38" s="9" t="str">
         <f>VLOOKUP(A38,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>林平之</v>
       </c>
       <c r="D38">
         <v>36</v>
       </c>
-      <c r="E38" t="s">
-        <v>49</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" ht="27" spans="1:6">
-      <c r="A39" s="6">
+      <c r="E38" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" ht="27" spans="1:7">
+      <c r="A39" s="7">
         <v>37</v>
       </c>
-      <c r="B39" s="8" t="str">
+      <c r="B39" s="9" t="str">
         <f>VLOOKUP(A39,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>狄云</v>
       </c>
       <c r="D39">
         <v>37</v>
       </c>
-      <c r="E39" t="s">
-        <v>51</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="6">
+      <c r="E39" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="7">
         <v>38</v>
       </c>
-      <c r="B40" s="8" t="str">
+      <c r="B40" s="9" t="str">
         <f>VLOOKUP(A40,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>石破天</v>
       </c>
       <c r="D40">
         <v>38</v>
       </c>
-      <c r="E40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="23">
+      <c r="E40" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="16">
         <v>39</v>
       </c>
-      <c r="B41" s="24" t="str">
+      <c r="B41" s="17" t="str">
         <f>VLOOKUP(A41,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>龙岛主</v>
       </c>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25">
+      <c r="C41" s="18"/>
+      <c r="D41" s="18">
         <v>39</v>
       </c>
-      <c r="E41" s="25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="23">
+      <c r="E41" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="16">
         <v>40</v>
       </c>
-      <c r="B42" s="24" t="str">
+      <c r="B42" s="17" t="str">
         <f>VLOOKUP(A42,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>木岛主</v>
       </c>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25">
+      <c r="C42" s="18"/>
+      <c r="D42" s="18">
         <v>40</v>
       </c>
-      <c r="E42" s="25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="6">
+      <c r="E42" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="7">
         <v>41</v>
       </c>
-      <c r="B43" s="8" t="str">
+      <c r="B43" s="9" t="str">
         <f>VLOOKUP(A43,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>张三</v>
       </c>
@@ -6886,15 +7269,18 @@
       <c r="D43" s="2">
         <v>41</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="6">
+      <c r="E43" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="7">
         <v>42</v>
       </c>
-      <c r="B44" s="8" t="str">
+      <c r="B44" s="9" t="str">
         <f>VLOOKUP(A44,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>李四</v>
       </c>
@@ -6902,293 +7288,347 @@
       <c r="D44" s="2">
         <v>42</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" ht="27" spans="1:6">
-      <c r="A45" s="6">
+      <c r="E44" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" ht="27" spans="1:7">
+      <c r="A45" s="7">
         <v>43</v>
       </c>
-      <c r="B45" s="8" t="str">
+      <c r="B45" s="9" t="str">
         <f>VLOOKUP(A45,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>白万剑</v>
       </c>
       <c r="D45">
         <v>43</v>
       </c>
-      <c r="E45" t="s">
-        <v>57</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="6">
+      <c r="E45" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="7">
         <v>44</v>
       </c>
-      <c r="B46" s="8" t="str">
+      <c r="B46" s="9" t="str">
         <f>VLOOKUP(A46,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>岳老三</v>
       </c>
       <c r="D46">
         <v>44</v>
       </c>
-      <c r="E46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="6">
+      <c r="E46" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="7">
         <v>45</v>
       </c>
-      <c r="B47" s="8" t="str">
+      <c r="B47" s="9" t="str">
         <f>VLOOKUP(A47,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>薛慕华</v>
       </c>
       <c r="D47">
         <v>45</v>
       </c>
-      <c r="E47" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="6">
+      <c r="E47" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="7">
         <v>46</v>
       </c>
-      <c r="B48" s="8" t="str">
+      <c r="B48" s="9" t="str">
         <f>VLOOKUP(A48,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>丁春秋</v>
       </c>
       <c r="D48">
         <v>46</v>
       </c>
-      <c r="E48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="6">
+      <c r="E48" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="7">
         <v>47</v>
       </c>
-      <c r="B49" s="8" t="str">
+      <c r="B49" s="9" t="str">
         <f>VLOOKUP(A49,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>阿紫</v>
       </c>
       <c r="D49">
         <v>47</v>
       </c>
-      <c r="E49" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="F49" s="11"/>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="6">
+      <c r="E49" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G49" s="12"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="7">
         <v>48</v>
       </c>
-      <c r="B50" s="8" t="str">
+      <c r="B50" s="9" t="str">
         <f>VLOOKUP(A50,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>游坦之</v>
       </c>
       <c r="D50">
         <v>48</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" s="1" customFormat="1" spans="1:6">
-      <c r="A51" s="13">
+      <c r="E50" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" s="1" customFormat="1" spans="1:7">
+      <c r="A51" s="14">
         <v>49</v>
       </c>
-      <c r="B51" s="14" t="str">
+      <c r="B51" s="15" t="str">
         <f>VLOOKUP(A51,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>虚竹</v>
       </c>
       <c r="D51" s="1">
         <v>49</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F51" s="15"/>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="6">
+      <c r="E51" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G51" s="6"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="7">
         <v>50</v>
       </c>
-      <c r="B52" s="8" t="str">
+      <c r="B52" s="9" t="str">
         <f>VLOOKUP(A52,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>乔峰</v>
       </c>
       <c r="D52">
         <v>50</v>
       </c>
-      <c r="E52" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" ht="27" spans="1:6">
-      <c r="A53" s="6">
+      <c r="E52" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" ht="27" spans="1:7">
+      <c r="A53" s="7">
         <v>51</v>
       </c>
-      <c r="B53" s="8" t="str">
+      <c r="B53" s="9" t="str">
         <f>VLOOKUP(A53,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>慕容复</v>
       </c>
       <c r="D53">
         <v>51</v>
       </c>
-      <c r="E53" t="s">
-        <v>65</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="6">
+      <c r="E53" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="7">
         <v>52</v>
       </c>
-      <c r="B54" s="8" t="str">
+      <c r="B54" s="9" t="str">
         <f>VLOOKUP(A54,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>苏星河</v>
       </c>
       <c r="D54">
         <v>52</v>
       </c>
-      <c r="E54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="6">
+      <c r="E54" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="7">
         <v>53</v>
       </c>
-      <c r="B55" s="8" t="str">
+      <c r="B55" s="9" t="str">
         <f>VLOOKUP(A55,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>段誉</v>
       </c>
       <c r="D55">
         <v>53</v>
       </c>
-      <c r="E55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" s="1" customFormat="1" ht="27" spans="1:6">
-      <c r="A56" s="13">
+      <c r="E55" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" s="1" customFormat="1" ht="27" spans="1:7">
+      <c r="A56" s="14">
         <v>54</v>
       </c>
-      <c r="B56" s="14" t="str">
+      <c r="B56" s="15" t="str">
         <f>VLOOKUP(A56,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>袁承志</v>
       </c>
       <c r="D56" s="1">
         <v>54</v>
       </c>
-      <c r="E56" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="F56" s="21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="6">
+      <c r="E56" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="7">
         <v>55</v>
       </c>
-      <c r="B57" s="8" t="str">
+      <c r="B57" s="9" t="str">
         <f>VLOOKUP(A57,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>郭靖</v>
       </c>
       <c r="D57">
         <v>55</v>
       </c>
-      <c r="E57" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" s="3" customFormat="1" ht="27" spans="1:6">
-      <c r="A58" s="26">
+      <c r="E57" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="58" s="3" customFormat="1" ht="27" spans="1:7">
+      <c r="A58" s="19">
         <v>56</v>
       </c>
-      <c r="B58" s="27" t="str">
+      <c r="B58" s="20" t="str">
         <f>VLOOKUP(A58,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>黄蓉</v>
       </c>
-      <c r="C58" s="28"/>
+      <c r="C58" s="21"/>
       <c r="D58" s="2">
         <v>56</v>
       </c>
-      <c r="E58" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="F58" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" s="3" customFormat="1" ht="27" spans="1:6">
-      <c r="A59" s="26">
+      <c r="E58" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="59" s="3" customFormat="1" ht="27" spans="1:7">
+      <c r="A59" s="19">
         <v>57</v>
       </c>
-      <c r="B59" s="27" t="str">
+      <c r="B59" s="20" t="str">
         <f>VLOOKUP(A59,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>黄药师</v>
       </c>
-      <c r="C59" s="28"/>
+      <c r="C59" s="21"/>
       <c r="D59" s="2">
         <v>57</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F59" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="60" ht="27" spans="1:6">
-      <c r="A60" s="6">
+      <c r="E59" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="60" ht="27" spans="1:7">
+      <c r="A60" s="7">
         <v>58</v>
       </c>
-      <c r="B60" s="8" t="str">
+      <c r="B60" s="9" t="str">
         <f>VLOOKUP(A60,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>杨过</v>
       </c>
       <c r="D60">
         <v>58</v>
       </c>
-      <c r="E60" t="s">
-        <v>76</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="6">
+      <c r="E60" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="7">
         <v>59</v>
       </c>
-      <c r="B61" s="8" t="str">
+      <c r="B61" s="9" t="str">
         <f>VLOOKUP(A61,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>小龙女</v>
       </c>
       <c r="D61">
         <v>59</v>
       </c>
-      <c r="E61" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="F61" s="11"/>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="6">
+      <c r="E61" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="G61" s="12"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="7">
         <v>60</v>
       </c>
-      <c r="B62" s="8" t="str">
+      <c r="B62" s="9" t="str">
         <f>VLOOKUP(A62,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>欧阳锋</v>
       </c>
@@ -7196,62 +7636,74 @@
       <c r="D62" s="2">
         <v>60</v>
       </c>
-      <c r="E62" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="6">
+      <c r="E62" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="7">
         <v>61</v>
       </c>
-      <c r="B63" s="8" t="str">
+      <c r="B63" s="9" t="str">
         <f>VLOOKUP(A63,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>欧阳克</v>
       </c>
       <c r="D63">
         <v>61</v>
       </c>
-      <c r="E63" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="6">
+      <c r="E63" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="7">
         <v>62</v>
       </c>
-      <c r="B64" s="8" t="str">
+      <c r="B64" s="9" t="str">
         <f>VLOOKUP(A64,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>金轮法王</v>
       </c>
       <c r="D64">
         <v>62</v>
       </c>
-      <c r="E64" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="65" s="3" customFormat="1" spans="1:6">
-      <c r="A65" s="26">
+      <c r="E64" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="65" s="3" customFormat="1" spans="1:7">
+      <c r="A65" s="19">
         <v>63</v>
       </c>
-      <c r="B65" s="27" t="str">
+      <c r="B65" s="20" t="str">
         <f>VLOOKUP(A65,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>程英</v>
       </c>
-      <c r="C65" s="28"/>
+      <c r="C65" s="21"/>
       <c r="D65" s="2">
         <v>63</v>
       </c>
-      <c r="E65" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="F65" s="29"/>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="6">
+      <c r="E65" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G65" s="22"/>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="7">
         <v>64</v>
       </c>
-      <c r="B66" s="8" t="str">
+      <c r="B66" s="9" t="str">
         <f>VLOOKUP(A66,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>周伯通</v>
       </c>
@@ -7259,169 +7711,202 @@
       <c r="D66" s="2">
         <v>64</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="6">
+      <c r="E66" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="7">
         <v>65</v>
       </c>
-      <c r="B67" s="8" t="str">
+      <c r="B67" s="9" t="str">
         <f>VLOOKUP(A67,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>一灯</v>
       </c>
       <c r="D67">
         <v>65</v>
       </c>
-      <c r="E67" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="6">
+      <c r="E67" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="7">
         <v>66</v>
       </c>
-      <c r="B68" s="8" t="str">
+      <c r="B68" s="9" t="str">
         <f>VLOOKUP(A68,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>瑛姑</v>
       </c>
       <c r="D68">
         <v>66</v>
       </c>
-      <c r="E68" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="F68" s="11"/>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="6">
+      <c r="E68" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="F68" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="G68" s="12"/>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="7">
         <v>67</v>
       </c>
-      <c r="B69" s="8" t="str">
+      <c r="B69" s="9" t="str">
         <f>VLOOKUP(A69,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>裘千仞</v>
       </c>
       <c r="D69">
         <v>67</v>
       </c>
-      <c r="E69" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="6">
+      <c r="E69" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="7">
         <v>68</v>
       </c>
-      <c r="B70" s="8" t="str">
+      <c r="B70" s="9" t="str">
         <f>VLOOKUP(A70,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>丘处机</v>
       </c>
       <c r="D70">
         <v>68</v>
       </c>
-      <c r="E70" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="71" s="3" customFormat="1" spans="1:6">
-      <c r="A71" s="26">
+      <c r="E70" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="71" s="3" customFormat="1" spans="1:7">
+      <c r="A71" s="19">
         <v>69</v>
       </c>
-      <c r="B71" s="27" t="str">
+      <c r="B71" s="20" t="str">
         <f>VLOOKUP(A71,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>洪七公</v>
       </c>
-      <c r="C71" s="28"/>
+      <c r="C71" s="21"/>
       <c r="D71" s="2">
         <v>69</v>
       </c>
-      <c r="E71" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F71" s="30"/>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="6">
+      <c r="E71" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G71" s="23"/>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="7">
         <v>70</v>
       </c>
-      <c r="B72" s="8" t="str">
+      <c r="B72" s="9" t="str">
         <f>VLOOKUP(A72,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>玄慈</v>
       </c>
       <c r="D72">
         <v>70</v>
       </c>
-      <c r="E72" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="6">
+      <c r="E72" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="7">
         <v>71</v>
       </c>
-      <c r="B73" s="8" t="str">
+      <c r="B73" s="9" t="str">
         <f>VLOOKUP(A73,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>洪教主</v>
       </c>
       <c r="D73">
         <v>71</v>
       </c>
-      <c r="E73" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="23">
+      <c r="E73" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="16">
         <v>72</v>
       </c>
-      <c r="B74" s="24" t="str">
+      <c r="B74" s="17" t="str">
         <f>VLOOKUP(A74,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>孔八拉</v>
       </c>
-      <c r="C74" s="25"/>
-      <c r="D74" s="25">
+      <c r="C74" s="18"/>
+      <c r="D74" s="18">
         <v>72</v>
       </c>
-      <c r="E74" s="25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="6">
+      <c r="E74" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="7">
         <v>73</v>
       </c>
-      <c r="B75" s="8" t="str">
+      <c r="B75" s="9" t="str">
         <f>VLOOKUP(A75,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>南贤</v>
       </c>
       <c r="D75">
         <v>73</v>
       </c>
-      <c r="E75" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="6">
+      <c r="E75" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="7">
         <v>74</v>
       </c>
-      <c r="B76" s="8" t="str">
+      <c r="B76" s="9" t="str">
         <f>VLOOKUP(A76,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>北丑</v>
       </c>
       <c r="D76">
         <v>74</v>
       </c>
-      <c r="E76" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="6">
+      <c r="E76" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="7">
         <v>75</v>
       </c>
-      <c r="B77" s="8" t="str">
+      <c r="B77" s="9" t="str">
         <f>VLOOKUP(A77,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>厨师</v>
       </c>
@@ -7429,15 +7914,18 @@
       <c r="D77" s="2">
         <v>75</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="6">
+      <c r="E77" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="7">
         <v>76</v>
       </c>
-      <c r="B78" s="8" t="str">
+      <c r="B78" s="9" t="str">
         <f>VLOOKUP(A78,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>武当弟子</v>
       </c>
@@ -7445,15 +7933,18 @@
       <c r="D78" s="2">
         <v>76</v>
       </c>
-      <c r="E78" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="6">
+      <c r="E78" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="7">
         <v>77</v>
       </c>
-      <c r="B79" s="8" t="str">
+      <c r="B79" s="9" t="str">
         <f>VLOOKUP(A79,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>峨嵋弟子</v>
       </c>
@@ -7461,98 +7952,116 @@
       <c r="D79" s="2">
         <v>77</v>
       </c>
-      <c r="E79" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="6">
+      <c r="E79" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="7">
         <v>78</v>
       </c>
-      <c r="B80" s="8" t="str">
+      <c r="B80" s="9" t="str">
         <f>VLOOKUP(A80,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>昆仑弟子</v>
       </c>
       <c r="D80">
         <v>78</v>
       </c>
-      <c r="E80" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="6">
+      <c r="E80" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="7">
         <v>79</v>
       </c>
-      <c r="B81" s="8" t="str">
+      <c r="B81" s="9" t="str">
         <f>VLOOKUP(A81,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>厨师</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>93</v>
+        <v>171</v>
       </c>
       <c r="D81" s="2">
         <v>79</v>
       </c>
-      <c r="E81" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" s="6">
+      <c r="E81" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="7">
         <v>80</v>
       </c>
-      <c r="B82" s="8" t="str">
+      <c r="B82" s="9" t="str">
         <f>VLOOKUP(A82,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>厨师</v>
       </c>
       <c r="C82" t="s">
-        <v>95</v>
+        <v>174</v>
       </c>
       <c r="D82">
         <v>80</v>
       </c>
-      <c r="E82" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="83" s="3" customFormat="1" spans="1:6">
-      <c r="A83" s="26">
+      <c r="E82" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="83" s="3" customFormat="1" spans="1:7">
+      <c r="A83" s="19">
         <v>81</v>
       </c>
-      <c r="B83" s="27" t="str">
+      <c r="B83" s="20" t="str">
         <f>VLOOKUP(A83,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>华山弟子</v>
       </c>
-      <c r="C83" s="28"/>
-      <c r="D83" s="28">
+      <c r="C83" s="21"/>
+      <c r="D83" s="21">
         <v>81</v>
       </c>
-      <c r="E83" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F83" s="30"/>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="6">
+      <c r="E83" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="G83" s="23"/>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="7">
         <v>82</v>
       </c>
-      <c r="B84" s="8" t="str">
+      <c r="B84" s="9" t="str">
         <f>VLOOKUP(A84,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>衡山弟子</v>
       </c>
       <c r="D84">
         <v>82</v>
       </c>
-      <c r="E84" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="6">
+      <c r="E84" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="7">
         <v>83</v>
       </c>
-      <c r="B85" s="8" t="str">
+      <c r="B85" s="9" t="str">
         <f>VLOOKUP(A85,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>恒山弟子</v>
       </c>
@@ -7560,15 +8069,18 @@
       <c r="D85" s="2">
         <v>83</v>
       </c>
-      <c r="E85" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="6">
+      <c r="E85" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="7">
         <v>84</v>
       </c>
-      <c r="B86" s="8" t="str">
+      <c r="B86" s="9" t="str">
         <f>VLOOKUP(A86,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>嵩山弟子</v>
       </c>
@@ -7576,15 +8088,18 @@
       <c r="D86" s="2">
         <v>84</v>
       </c>
-      <c r="E86" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" s="6">
+      <c r="E86" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="7">
         <v>85</v>
       </c>
-      <c r="B87" s="8" t="str">
+      <c r="B87" s="9" t="str">
         <f>VLOOKUP(A87,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>泰山弟子</v>
       </c>
@@ -7592,30 +8107,36 @@
       <c r="D87" s="2">
         <v>85</v>
       </c>
-      <c r="E87" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88" s="6">
+      <c r="E87" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="7">
         <v>86</v>
       </c>
-      <c r="B88" s="8" t="str">
+      <c r="B88" s="9" t="str">
         <f>VLOOKUP(A88,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>青城弟子</v>
       </c>
       <c r="D88">
         <v>86</v>
       </c>
-      <c r="E88" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89" s="6">
+      <c r="E88" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="7">
         <v>87</v>
       </c>
-      <c r="B89" s="8" t="str">
+      <c r="B89" s="9" t="str">
         <f>VLOOKUP(A89,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>五毒教徒</v>
       </c>
@@ -7623,15 +8144,18 @@
       <c r="D89" s="2">
         <v>87</v>
       </c>
-      <c r="E89" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90" s="6">
+      <c r="E89" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="7">
         <v>88</v>
       </c>
-      <c r="B90" s="8" t="str">
+      <c r="B90" s="9" t="str">
         <f>VLOOKUP(A90,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>日月教徒</v>
       </c>
@@ -7639,93 +8163,111 @@
       <c r="D90" s="2">
         <v>88</v>
       </c>
-      <c r="E90" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91" s="6">
+      <c r="E90" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="7">
         <v>89</v>
       </c>
-      <c r="B91" s="8" t="e">
+      <c r="B91" s="9" t="e">
         <f>VLOOKUP(A91,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="C91" t="s">
-        <v>105</v>
+        <v>193</v>
       </c>
       <c r="D91">
         <v>89</v>
       </c>
-      <c r="E91" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="A92" s="6">
+      <c r="E91" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="7">
         <v>90</v>
       </c>
-      <c r="B92" s="8" t="str">
+      <c r="B92" s="9" t="str">
         <f>VLOOKUP(A92,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>雪山弟子</v>
       </c>
       <c r="D92">
         <v>90</v>
       </c>
-      <c r="E92" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93" s="6">
+      <c r="E92" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="7">
         <v>91</v>
       </c>
-      <c r="B93" s="8" t="str">
+      <c r="B93" s="9" t="str">
         <f>VLOOKUP(A93,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>番僧</v>
       </c>
       <c r="D93">
         <v>91</v>
       </c>
-      <c r="E93" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94" s="6">
+      <c r="E93" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="7">
         <v>92</v>
       </c>
-      <c r="B94" s="8" t="str">
+      <c r="B94" s="9" t="str">
         <f>VLOOKUP(A94,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>星宿门人</v>
       </c>
       <c r="D94">
         <v>92</v>
       </c>
-      <c r="E94" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" s="6">
+      <c r="E94" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="7">
         <v>93</v>
       </c>
-      <c r="B95" s="8" t="str">
+      <c r="B95" s="9" t="str">
         <f>VLOOKUP(A95,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>丐帮弟子</v>
       </c>
       <c r="D95">
         <v>93</v>
       </c>
-      <c r="E95" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" s="6">
+      <c r="E95" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="7">
         <v>94</v>
       </c>
-      <c r="B96" s="8" t="str">
+      <c r="B96" s="9" t="str">
         <f>VLOOKUP(A96,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>铁掌帮众</v>
       </c>
@@ -7733,15 +8275,18 @@
       <c r="D96" s="2">
         <v>94</v>
       </c>
-      <c r="E96" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" s="6">
+      <c r="E96" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="7">
         <v>95</v>
       </c>
-      <c r="B97" s="8" t="str">
+      <c r="B97" s="9" t="str">
         <f>VLOOKUP(A97,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>全真教徒</v>
       </c>
@@ -7749,108 +8294,129 @@
       <c r="D97" s="2">
         <v>95</v>
       </c>
-      <c r="E97" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="6">
+      <c r="E97" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="7">
         <v>96</v>
       </c>
-      <c r="B98" s="8" t="str">
+      <c r="B98" s="9" t="str">
         <f>VLOOKUP(A98,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>少林弟子</v>
       </c>
       <c r="D98">
         <v>96</v>
       </c>
-      <c r="E98" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" s="6">
+      <c r="E98" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="7">
         <v>97</v>
       </c>
-      <c r="B99" s="8" t="str">
+      <c r="B99" s="9" t="str">
         <f>VLOOKUP(A99,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>神龙教徒</v>
       </c>
       <c r="D99">
         <v>97</v>
       </c>
-      <c r="E99" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="100" s="4" customFormat="1" spans="1:6">
-      <c r="A100" s="31">
+      <c r="E99" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="100" s="4" customFormat="1" spans="1:7">
+      <c r="A100" s="24">
         <v>98</v>
       </c>
-      <c r="B100" s="32" t="str">
+      <c r="B100" s="25" t="str">
         <f>VLOOKUP(A100,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>巨蟒</v>
       </c>
       <c r="D100">
         <v>98</v>
       </c>
-      <c r="E100" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F100" s="33"/>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" s="6">
+      <c r="E100" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G100" s="6"/>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="7">
         <v>99</v>
       </c>
-      <c r="B101" s="8" t="str">
+      <c r="B101" s="9" t="str">
         <f>VLOOKUP(A101,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>大雪怪</v>
       </c>
       <c r="D101">
         <v>99</v>
       </c>
-      <c r="E101" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="102" s="4" customFormat="1" spans="1:6">
-      <c r="A102" s="31">
+      <c r="E101" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="102" s="4" customFormat="1" spans="1:7">
+      <c r="A102" s="24">
         <v>100</v>
       </c>
-      <c r="B102" s="32" t="str">
+      <c r="B102" s="25" t="str">
         <f>VLOOKUP(A102,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>大鳄鱼</v>
       </c>
       <c r="D102">
         <v>100</v>
       </c>
-      <c r="E102" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F102" s="33"/>
-    </row>
-    <row r="103" s="3" customFormat="1" spans="1:6">
-      <c r="A103" s="34">
+      <c r="E102" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="G102" s="6"/>
+    </row>
+    <row r="103" s="3" customFormat="1" spans="1:7">
+      <c r="A103" s="26">
         <v>101</v>
       </c>
-      <c r="B103" s="35" t="str">
+      <c r="B103" s="27" t="str">
         <f>VLOOKUP(A103,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>大蜘蛛</v>
       </c>
       <c r="D103">
         <v>101</v>
       </c>
-      <c r="E103" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F103" s="30"/>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" s="6">
+      <c r="E103" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="F103" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="G103" s="23"/>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="7">
         <v>102</v>
       </c>
-      <c r="B104" s="8" t="str">
+      <c r="B104" s="9" t="str">
         <f>VLOOKUP(A104,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>蟒牯朱蛤</v>
       </c>
@@ -7858,486 +8424,579 @@
       <c r="D104" s="2">
         <v>102</v>
       </c>
-      <c r="E104" s="36" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105" s="6">
+      <c r="E104" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="F104" s="29" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="7">
         <v>103</v>
       </c>
-      <c r="B105" s="8" t="e">
+      <c r="B105" s="9" t="e">
         <f>VLOOKUP(A105,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="C105" t="s">
-        <v>120</v>
+        <v>222</v>
       </c>
       <c r="D105">
         <v>103</v>
       </c>
-      <c r="E105" s="37" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106" s="6">
+      <c r="E105" t="s">
+        <v>223</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="7">
         <v>104</v>
       </c>
-      <c r="B106" s="8" t="e">
+      <c r="B106" s="9" t="e">
         <f>VLOOKUP(A106,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="C106" t="s">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="D106">
         <v>104</v>
       </c>
-      <c r="E106" s="37" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107" s="6">
+      <c r="E106" t="s">
+        <v>223</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="7">
         <v>105</v>
       </c>
-      <c r="B107" s="8" t="e">
+      <c r="B107" s="9" t="e">
         <f>VLOOKUP(A107,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="C107" t="s">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="D107">
         <v>105</v>
       </c>
-      <c r="E107" s="37" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108" s="6">
+      <c r="E107" t="s">
+        <v>223</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="7">
         <v>106</v>
       </c>
-      <c r="B108" s="8" t="e">
+      <c r="B108" s="9" t="e">
         <f>VLOOKUP(A108,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="C108" t="s">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="D108">
         <v>106</v>
       </c>
-      <c r="E108" s="37" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="A109" s="6">
+      <c r="E108" t="s">
+        <v>223</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="7">
         <v>107</v>
       </c>
-      <c r="B109" s="8" t="e">
+      <c r="B109" s="9" t="e">
         <f>VLOOKUP(A109,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D109">
         <v>107</v>
       </c>
-      <c r="E109" s="37" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="A110" s="6">
+      <c r="E109" t="s">
+        <v>223</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="7">
         <v>108</v>
       </c>
-      <c r="B110" s="8" t="e">
+      <c r="B110" s="9" t="e">
         <f>VLOOKUP(A110,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D110">
         <v>108</v>
       </c>
-      <c r="E110" s="37" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111" s="6">
+      <c r="E110" t="s">
+        <v>223</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="7">
         <v>109</v>
       </c>
-      <c r="B111" s="8" t="str">
+      <c r="B111" s="9" t="str">
         <f>VLOOKUP(A111,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>王语嫣</v>
       </c>
       <c r="D111">
         <v>109</v>
       </c>
-      <c r="E111" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="F111" s="11"/>
-    </row>
-    <row r="112" spans="1:5">
-      <c r="A112" s="6">
+      <c r="E111" t="s">
+        <v>228</v>
+      </c>
+      <c r="F111" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="G111" s="12"/>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="7">
         <v>110</v>
       </c>
-      <c r="B112" s="8" t="e">
+      <c r="B112" s="9" t="e">
         <f>VLOOKUP(A112,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="C112" t="s">
-        <v>126</v>
+        <v>230</v>
       </c>
       <c r="D112">
         <v>110</v>
       </c>
       <c r="E112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113" s="6">
+        <v>230</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="7">
         <v>111</v>
       </c>
-      <c r="B113" s="8" t="e">
+      <c r="B113" s="9" t="e">
         <f>VLOOKUP(A113,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>128</v>
+        <v>232</v>
       </c>
       <c r="D113" s="2">
         <v>111</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114" s="6">
+        <v>232</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="7">
         <v>112</v>
       </c>
-      <c r="B114" s="8" t="e">
+      <c r="B114" s="9" t="e">
         <f>VLOOKUP(A114,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="C114" t="s">
-        <v>130</v>
+        <v>234</v>
       </c>
       <c r="D114">
         <v>112</v>
       </c>
       <c r="E114" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" s="6">
+        <v>234</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="7">
         <v>113</v>
       </c>
-      <c r="B115" s="8" t="e">
+      <c r="B115" s="9" t="e">
         <f>VLOOKUP(A115,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="C115" t="s">
-        <v>132</v>
+        <v>236</v>
       </c>
       <c r="D115">
         <v>113</v>
       </c>
       <c r="E115" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" s="6">
+        <v>236</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="7">
         <v>114</v>
       </c>
-      <c r="B116" s="8" t="e">
+      <c r="B116" s="9" t="e">
         <f>VLOOKUP(A116,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="C116" t="s">
-        <v>134</v>
+        <v>238</v>
       </c>
       <c r="D116">
         <v>114</v>
       </c>
-      <c r="E116" s="37" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117" s="6">
+      <c r="E116" t="s">
+        <v>223</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="7">
         <v>115</v>
       </c>
-      <c r="B117" s="8" t="e">
+      <c r="B117" s="9" t="e">
         <f>VLOOKUP(A117,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D117">
         <v>115</v>
       </c>
-      <c r="E117" s="37" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118" s="6">
+      <c r="E117" t="s">
+        <v>223</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="7">
         <v>116</v>
       </c>
-      <c r="B118" s="8" t="e">
+      <c r="B118" s="9" t="e">
         <f>VLOOKUP(A118,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D118">
         <v>116</v>
       </c>
-      <c r="E118" s="37" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119" s="6">
+      <c r="E118" t="s">
+        <v>223</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="7">
         <v>117</v>
       </c>
-      <c r="B119" s="8" t="e">
+      <c r="B119" s="9" t="e">
         <f>VLOOKUP(A119,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D119">
         <v>117</v>
       </c>
-      <c r="E119" s="37" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120" s="6">
+      <c r="E119" t="s">
+        <v>223</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="7">
         <v>118</v>
       </c>
-      <c r="B120" s="8" t="e">
+      <c r="B120" s="9" t="e">
         <f>VLOOKUP(A120,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D120">
         <v>118</v>
       </c>
-      <c r="E120" s="37" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="A121" s="6">
+      <c r="E120" t="s">
+        <v>223</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="7">
         <v>119</v>
       </c>
-      <c r="B121" s="8" t="e">
+      <c r="B121" s="9" t="e">
         <f>VLOOKUP(A121,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D121">
         <v>119</v>
       </c>
-      <c r="E121" s="37" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="A122" s="6">
+      <c r="E121" t="s">
+        <v>223</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="7">
         <v>120</v>
       </c>
-      <c r="B122" s="8" t="e">
+      <c r="B122" s="9" t="e">
         <f>VLOOKUP(A122,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D122">
         <v>120</v>
       </c>
-      <c r="E122" s="37" t="s">
+      <c r="E122" t="s">
+        <v>223</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="7">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:5">
-      <c r="A123" s="6">
-        <v>121</v>
-      </c>
-      <c r="B123" s="8" t="e">
+      <c r="B123" s="9" t="e">
         <f>VLOOKUP(A123,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D123">
         <v>121</v>
       </c>
-      <c r="E123" s="37" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
-      <c r="A124" s="6">
+      <c r="E123" t="s">
+        <v>223</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="7">
         <v>122</v>
       </c>
-      <c r="B124" s="8" t="e">
+      <c r="B124" s="9" t="e">
         <f>VLOOKUP(A124,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D124">
         <v>122</v>
       </c>
-      <c r="E124" s="37" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="A125" s="6">
+      <c r="E124" t="s">
+        <v>223</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="7">
         <v>123</v>
       </c>
-      <c r="B125" s="8" t="e">
+      <c r="B125" s="9" t="e">
         <f>VLOOKUP(A125,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D125">
         <v>123</v>
       </c>
-      <c r="E125" s="37" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
-      <c r="A126" s="6">
+      <c r="E125" t="s">
+        <v>223</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="7">
         <v>124</v>
       </c>
-      <c r="B126" s="8" t="e">
+      <c r="B126" s="9" t="e">
         <f>VLOOKUP(A126,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D126">
         <v>124</v>
       </c>
-      <c r="E126" s="37" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
-      <c r="A127" s="6">
+      <c r="E126" t="s">
+        <v>223</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="7">
         <v>125</v>
       </c>
-      <c r="B127" s="8" t="e">
+      <c r="B127" s="9" t="e">
         <f>VLOOKUP(A127,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D127">
         <v>125</v>
       </c>
-      <c r="E127" s="37" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
-      <c r="A128" s="6">
+      <c r="E127" t="s">
+        <v>223</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="7">
         <v>126</v>
       </c>
-      <c r="B128" s="8" t="e">
+      <c r="B128" s="9" t="e">
         <f>VLOOKUP(A128,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D128">
         <v>126</v>
       </c>
-      <c r="E128" s="37" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
-      <c r="A129" s="6">
+      <c r="E128" t="s">
+        <v>223</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="7">
         <v>127</v>
       </c>
-      <c r="B129" s="8" t="e">
+      <c r="B129" s="9" t="e">
         <f>VLOOKUP(A129,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D129">
         <v>127</v>
       </c>
-      <c r="E129" s="37" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
-      <c r="A130" s="6">
+      <c r="E129" t="s">
+        <v>223</v>
+      </c>
+      <c r="F129" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="7">
         <v>128</v>
       </c>
-      <c r="B130" s="8" t="e">
+      <c r="B130" s="9" t="e">
         <f>VLOOKUP(A130,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D130">
         <v>128</v>
       </c>
-      <c r="E130" s="37" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
-      <c r="A131" s="6">
+      <c r="E130" t="s">
+        <v>223</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="7">
         <v>129</v>
       </c>
-      <c r="B131" s="8" t="e">
+      <c r="B131" s="9" t="e">
         <f>VLOOKUP(A131,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D131">
         <v>129</v>
       </c>
-      <c r="E131" s="37" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
-      <c r="A132" s="6">
+      <c r="E131" t="s">
+        <v>223</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="7">
         <v>130</v>
       </c>
-      <c r="B132" s="8" t="e">
+      <c r="B132" s="9" t="e">
         <f>VLOOKUP(A132,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D132">
         <v>130</v>
       </c>
-      <c r="E132" s="37" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
-      <c r="A133" s="6">
+      <c r="E132" t="s">
+        <v>223</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="7">
         <v>131</v>
       </c>
-      <c r="B133" s="8" t="e">
+      <c r="B133" s="9" t="e">
         <f>VLOOKUP(A133,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D133">
         <v>131</v>
       </c>
-      <c r="E133" s="37" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
+      <c r="E133" t="s">
+        <v>223</v>
+      </c>
+      <c r="F133" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
       <c r="A134">
         <v>10000</v>
       </c>
       <c r="D134">
         <v>10000</v>
       </c>
-      <c r="E134" s="37" t="s">
-        <v>121</v>
+      <c r="E134" t="s">
+        <v>223</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F134">
+  <autoFilter ref="A1:G134">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/jyx2/excel/头像模型映射.xlsx
+++ b/jyx2/excel/头像模型映射.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27825" windowHeight="14940"/>
+    <workbookView windowWidth="21000" windowHeight="11340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -781,8 +781,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -818,35 +818,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -860,8 +831,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -875,24 +869,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -907,6 +900,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -915,26 +923,17 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -954,8 +953,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1005,7 +1005,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1017,37 +1143,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1065,37 +1161,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1107,79 +1173,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1208,6 +1208,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1232,54 +1256,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1297,11 +1273,35 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1313,10 +1313,10 @@
     <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1325,19 +1325,19 @@
     <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1346,121 +1346,121 @@
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -6110,7 +6110,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="494949"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -6436,8 +6436,8 @@
   <sheetPr/>
   <dimension ref="A1:G134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="E120" sqref="E120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -8669,7 +8669,7 @@
         <v>114</v>
       </c>
       <c r="E116" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="F116" s="5" t="s">
         <v>224</v>

--- a/jyx2/excel/头像模型映射.xlsx
+++ b/jyx2/excel/头像模型映射.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCA2DB5-A07B-4E02-BFCE-590C4BA414EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11340"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -15,17 +21,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$134</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>CGGG</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -37,7 +43,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -55,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="241">
   <si>
     <t>代号</t>
   </si>
@@ -772,19 +778,52 @@
   </si>
   <si>
     <t>软体娃娃</t>
+  </si>
+  <si>
+    <t>店小二</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Assets/BuildSource/ModelCharacters/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>StoryNpc/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>店小二</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.prefab</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -802,7 +841,7 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -814,159 +853,35 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -975,7 +890,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799951170384838"/>
+        <fgColor theme="9" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -987,13 +902,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399853511154515"/>
+        <fgColor theme="6" tint="0.39982299264503923"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.35"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1003,188 +918,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1207,267 +942,28 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1477,7 +973,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="34">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
@@ -1495,10 +991,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="14" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="14" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
@@ -1511,94 +1007,58 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="34" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="34" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="34" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="34" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="34" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="34" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="34" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="34" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="4" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="34" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="普通" xfId="11"/>
-    <cellStyle name="百分比" xfId="12" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
-    <cellStyle name="普通 2" xfId="14"/>
-    <cellStyle name="注释" xfId="15" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
-    <cellStyle name="标题" xfId="19" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
-    <cellStyle name="普通 4" xfId="21"/>
-    <cellStyle name="标题 1" xfId="22" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
-    <cellStyle name="输出" xfId="27" builtinId="21"/>
-    <cellStyle name="计算" xfId="28" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
-    <cellStyle name="汇总" xfId="33" builtinId="25"/>
-    <cellStyle name="好" xfId="34" builtinId="26"/>
-    <cellStyle name="适中" xfId="35" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="42" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="43" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="44" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="45" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="48" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="49" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="50" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="51" builtinId="52"/>
-    <cellStyle name="普通 3" xfId="52"/>
+    <cellStyle name="好" xfId="4" builtinId="26"/>
+    <cellStyle name="普通" xfId="1" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="普通 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="普通 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="普通 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -6428,29 +5888,29 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="E120" sqref="E120"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="F108" sqref="F108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="24.875" customWidth="1"/>
-    <col min="4" max="4" width="6.375" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
-    <col min="6" max="6" width="74.75" style="5" customWidth="1"/>
-    <col min="7" max="7" width="78.25" style="6" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="74.77734375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="78.21875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -6473,7 +5933,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>0</v>
       </c>
@@ -6488,7 +5948,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="27" spans="1:7">
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -6509,7 +5969,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -6528,7 +5988,7 @@
       </c>
       <c r="G4" s="12"/>
     </row>
-    <row r="5" ht="27" spans="1:7">
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -6549,7 +6009,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -6567,7 +6027,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -6585,7 +6045,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" ht="27" spans="1:7">
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -6606,7 +6066,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" ht="27" spans="1:7">
+    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -6627,7 +6087,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -6645,7 +6105,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -6663,7 +6123,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:7">
+    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>10</v>
       </c>
@@ -6682,7 +6142,7 @@
       </c>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" ht="27" spans="1:7">
+    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -6703,7 +6163,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>12</v>
       </c>
@@ -6721,7 +6181,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:7">
+    <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>13</v>
       </c>
@@ -6740,7 +6200,7 @@
       </c>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>14</v>
       </c>
@@ -6758,7 +6218,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -6778,7 +6238,7 @@
       </c>
       <c r="G17" s="12"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>16</v>
       </c>
@@ -6796,7 +6256,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" s="2" customFormat="1" spans="1:7">
+    <row r="19" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>17</v>
       </c>
@@ -6815,7 +6275,7 @@
       </c>
       <c r="G19" s="12"/>
     </row>
-    <row r="20" s="1" customFormat="1" spans="1:7">
+    <row r="20" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>18</v>
       </c>
@@ -6834,7 +6294,7 @@
       </c>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" ht="27" spans="1:7">
+    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>19</v>
       </c>
@@ -6855,7 +6315,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="27" spans="1:7">
+    <row r="22" spans="1:7" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>20</v>
       </c>
@@ -6876,7 +6336,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" s="2" customFormat="1" spans="1:7">
+    <row r="23" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>21</v>
       </c>
@@ -6895,7 +6355,7 @@
       </c>
       <c r="G23" s="12"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>22</v>
       </c>
@@ -6913,7 +6373,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" ht="27" spans="1:7">
+    <row r="25" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>23</v>
       </c>
@@ -6934,7 +6394,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>24</v>
       </c>
@@ -6952,7 +6412,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>25</v>
       </c>
@@ -6971,7 +6431,7 @@
       </c>
       <c r="G27" s="12"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>26</v>
       </c>
@@ -6989,7 +6449,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>27</v>
       </c>
@@ -7007,7 +6467,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>28</v>
       </c>
@@ -7026,7 +6486,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" ht="27" spans="1:7">
+    <row r="31" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>29</v>
       </c>
@@ -7047,7 +6507,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>30</v>
       </c>
@@ -7066,7 +6526,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>31</v>
       </c>
@@ -7084,7 +6544,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>32</v>
       </c>
@@ -7102,7 +6562,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>33</v>
       </c>
@@ -7120,7 +6580,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>34</v>
       </c>
@@ -7138,7 +6598,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" ht="27" spans="1:7">
+    <row r="37" spans="1:7" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
         <v>35</v>
       </c>
@@ -7159,7 +6619,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="38" ht="27" spans="1:7">
+    <row r="38" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>36</v>
       </c>
@@ -7180,7 +6640,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="39" ht="27" spans="1:7">
+    <row r="39" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>37</v>
       </c>
@@ -7201,7 +6661,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>38</v>
       </c>
@@ -7219,7 +6679,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="16">
         <v>39</v>
       </c>
@@ -7238,7 +6698,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="16">
         <v>40</v>
       </c>
@@ -7257,7 +6717,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>41</v>
       </c>
@@ -7276,7 +6736,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>42</v>
       </c>
@@ -7295,7 +6755,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="45" ht="27" spans="1:7">
+    <row r="45" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>43</v>
       </c>
@@ -7316,7 +6776,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>44</v>
       </c>
@@ -7334,7 +6794,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>45</v>
       </c>
@@ -7352,7 +6812,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>46</v>
       </c>
@@ -7370,7 +6830,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>47</v>
       </c>
@@ -7389,7 +6849,7 @@
       </c>
       <c r="G49" s="12"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>48</v>
       </c>
@@ -7407,7 +6867,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="51" s="1" customFormat="1" spans="1:7">
+    <row r="51" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
         <v>49</v>
       </c>
@@ -7426,7 +6886,7 @@
       </c>
       <c r="G51" s="6"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>50</v>
       </c>
@@ -7444,7 +6904,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="53" ht="27" spans="1:7">
+    <row r="53" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>51</v>
       </c>
@@ -7465,7 +6925,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>52</v>
       </c>
@@ -7483,7 +6943,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>53</v>
       </c>
@@ -7501,7 +6961,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="56" s="1" customFormat="1" ht="27" spans="1:7">
+    <row r="56" spans="1:7" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A56" s="14">
         <v>54</v>
       </c>
@@ -7522,7 +6982,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>55</v>
       </c>
@@ -7540,7 +7000,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="58" s="3" customFormat="1" ht="27" spans="1:7">
+    <row r="58" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A58" s="19">
         <v>56</v>
       </c>
@@ -7562,7 +7022,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="59" s="3" customFormat="1" ht="27" spans="1:7">
+    <row r="59" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A59" s="19">
         <v>57</v>
       </c>
@@ -7584,7 +7044,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="60" ht="27" spans="1:7">
+    <row r="60" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
         <v>58</v>
       </c>
@@ -7605,7 +7065,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
         <v>59</v>
       </c>
@@ -7624,7 +7084,7 @@
       </c>
       <c r="G61" s="12"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="7">
         <v>60</v>
       </c>
@@ -7643,7 +7103,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
         <v>61</v>
       </c>
@@ -7661,7 +7121,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="7">
         <v>62</v>
       </c>
@@ -7679,7 +7139,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="65" s="3" customFormat="1" spans="1:7">
+    <row r="65" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="19">
         <v>63</v>
       </c>
@@ -7699,7 +7159,7 @@
       </c>
       <c r="G65" s="22"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="7">
         <v>64</v>
       </c>
@@ -7718,7 +7178,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="7">
         <v>65</v>
       </c>
@@ -7736,7 +7196,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="7">
         <v>66</v>
       </c>
@@ -7755,7 +7215,7 @@
       </c>
       <c r="G68" s="12"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="7">
         <v>67</v>
       </c>
@@ -7773,7 +7233,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="7">
         <v>68</v>
       </c>
@@ -7791,7 +7251,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="71" s="3" customFormat="1" spans="1:7">
+    <row r="71" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="19">
         <v>69</v>
       </c>
@@ -7811,7 +7271,7 @@
       </c>
       <c r="G71" s="23"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="7">
         <v>70</v>
       </c>
@@ -7829,7 +7289,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="7">
         <v>71</v>
       </c>
@@ -7847,7 +7307,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="16">
         <v>72</v>
       </c>
@@ -7866,7 +7326,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="7">
         <v>73</v>
       </c>
@@ -7884,7 +7344,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="7">
         <v>74</v>
       </c>
@@ -7902,7 +7362,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="7">
         <v>75</v>
       </c>
@@ -7921,7 +7381,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="7">
         <v>76</v>
       </c>
@@ -7940,7 +7400,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="7">
         <v>77</v>
       </c>
@@ -7959,7 +7419,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="7">
         <v>78</v>
       </c>
@@ -7977,7 +7437,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="7">
         <v>79</v>
       </c>
@@ -7998,7 +7458,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="7">
         <v>80</v>
       </c>
@@ -8019,7 +7479,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="83" s="3" customFormat="1" spans="1:7">
+    <row r="83" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="19">
         <v>81</v>
       </c>
@@ -8039,7 +7499,7 @@
       </c>
       <c r="G83" s="23"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="7">
         <v>82</v>
       </c>
@@ -8057,7 +7517,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="7">
         <v>83</v>
       </c>
@@ -8076,7 +7536,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="7">
         <v>84</v>
       </c>
@@ -8095,7 +7555,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="7">
         <v>85</v>
       </c>
@@ -8114,7 +7574,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="7">
         <v>86</v>
       </c>
@@ -8132,7 +7592,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="7">
         <v>87</v>
       </c>
@@ -8151,7 +7611,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="7">
         <v>88</v>
       </c>
@@ -8170,7 +7630,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="7">
         <v>89</v>
       </c>
@@ -8191,7 +7651,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="7">
         <v>90</v>
       </c>
@@ -8209,7 +7669,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="7">
         <v>91</v>
       </c>
@@ -8227,7 +7687,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="7">
         <v>92</v>
       </c>
@@ -8245,7 +7705,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="7">
         <v>93</v>
       </c>
@@ -8263,7 +7723,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="7">
         <v>94</v>
       </c>
@@ -8282,7 +7742,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="7">
         <v>95</v>
       </c>
@@ -8301,7 +7761,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="7">
         <v>96</v>
       </c>
@@ -8319,7 +7779,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="7">
         <v>97</v>
       </c>
@@ -8337,7 +7797,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="100" s="4" customFormat="1" spans="1:7">
+    <row r="100" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="24">
         <v>98</v>
       </c>
@@ -8356,7 +7816,7 @@
       </c>
       <c r="G100" s="6"/>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="7">
         <v>99</v>
       </c>
@@ -8374,7 +7834,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="102" s="4" customFormat="1" spans="1:7">
+    <row r="102" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="24">
         <v>100</v>
       </c>
@@ -8393,7 +7853,7 @@
       </c>
       <c r="G102" s="6"/>
     </row>
-    <row r="103" s="3" customFormat="1" spans="1:7">
+    <row r="103" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="26">
         <v>101</v>
       </c>
@@ -8412,7 +7872,7 @@
       </c>
       <c r="G103" s="23"/>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="7">
         <v>102</v>
       </c>
@@ -8431,7 +7891,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="7">
         <v>103</v>
       </c>
@@ -8452,7 +7912,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="7">
         <v>104</v>
       </c>
@@ -8473,7 +7933,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="7">
         <v>105</v>
       </c>
@@ -8494,13 +7954,12 @@
         <v>224</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="7">
         <v>106</v>
       </c>
-      <c r="B108" s="9" t="e">
-        <f>VLOOKUP(A108,[1]Sheet1!$B:$E,4,FALSE)</f>
-        <v>#N/A</v>
+      <c r="B108" s="30" t="s">
+        <v>239</v>
       </c>
       <c r="C108" t="s">
         <v>227</v>
@@ -8508,14 +7967,14 @@
       <c r="D108">
         <v>106</v>
       </c>
-      <c r="E108" t="s">
-        <v>223</v>
-      </c>
-      <c r="F108" s="5" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
+      <c r="E108" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="F108" s="31" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="7">
         <v>107</v>
       </c>
@@ -8533,7 +7992,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="7">
         <v>108</v>
       </c>
@@ -8551,7 +8010,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="7">
         <v>109</v>
       </c>
@@ -8570,7 +8029,7 @@
       </c>
       <c r="G111" s="12"/>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="7">
         <v>110</v>
       </c>
@@ -8591,7 +8050,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="7">
         <v>111</v>
       </c>
@@ -8612,7 +8071,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="7">
         <v>112</v>
       </c>
@@ -8633,7 +8092,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="7">
         <v>113</v>
       </c>
@@ -8654,7 +8113,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="7">
         <v>114</v>
       </c>
@@ -8675,7 +8134,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="7">
         <v>115</v>
       </c>
@@ -8693,7 +8152,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="7">
         <v>116</v>
       </c>
@@ -8711,7 +8170,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="7">
         <v>117</v>
       </c>
@@ -8729,7 +8188,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="7">
         <v>118</v>
       </c>
@@ -8747,7 +8206,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="7">
         <v>119</v>
       </c>
@@ -8765,7 +8224,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="7">
         <v>120</v>
       </c>
@@ -8783,7 +8242,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="7">
         <v>121</v>
       </c>
@@ -8801,7 +8260,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="7">
         <v>122</v>
       </c>
@@ -8819,7 +8278,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="7">
         <v>123</v>
       </c>
@@ -8837,7 +8296,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="7">
         <v>124</v>
       </c>
@@ -8855,7 +8314,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="7">
         <v>125</v>
       </c>
@@ -8873,7 +8332,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="7">
         <v>126</v>
       </c>
@@ -8891,7 +8350,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="7">
         <v>127</v>
       </c>
@@ -8909,7 +8368,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="7">
         <v>128</v>
       </c>
@@ -8927,7 +8386,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="7">
         <v>129</v>
       </c>
@@ -8945,7 +8404,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="7">
         <v>130</v>
       </c>
@@ -8963,7 +8422,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="7">
         <v>131</v>
       </c>
@@ -8981,7 +8440,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>10000</v>
       </c>
@@ -8996,12 +8455,10 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G134">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:G134" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/jyx2/excel/头像模型映射.xlsx
+++ b/jyx2/excel/头像模型映射.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCA2DB5-A07B-4E02-BFCE-590C4BA414EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24CC96FD-A4C5-45CE-A8B8-9D8AB46831C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="243">
   <si>
     <t>代号</t>
   </si>
@@ -816,6 +816,13 @@
       </rPr>
       <t>.prefab</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/StoryNpc/掌柜.prefab</t>
+  </si>
+  <si>
+    <t>掌柜</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -5896,8 +5903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="F108" sqref="F108"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="E110" sqref="E110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -7947,11 +7954,11 @@
       <c r="D107">
         <v>105</v>
       </c>
-      <c r="E107" t="s">
-        <v>223</v>
+      <c r="E107" s="32" t="s">
+        <v>242</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">

--- a/jyx2/excel/头像模型映射.xlsx
+++ b/jyx2/excel/头像模型映射.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24CC96FD-A4C5-45CE-A8B8-9D8AB46831C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA281E8-9CC8-4931-A671-F75D3B868B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="245">
   <si>
     <t>代号</t>
   </si>
@@ -736,9 +736,6 @@
   </si>
   <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/华山派弟子.prefab</t>
-  </si>
-  <si>
-    <t>神雕（无战斗）</t>
   </si>
   <si>
     <t>掌柜（无战斗）</t>
@@ -823,6 +820,18 @@
   </si>
   <si>
     <t>掌柜</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>神雕（无战斗）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>神雕</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/雕.prefab</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -5904,7 +5913,7 @@
   <dimension ref="A1:G134"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="E110" sqref="E110"/>
+      <selection activeCell="F107" sqref="F107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -7928,16 +7937,16 @@
         <v>#N/A</v>
       </c>
       <c r="C106" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="D106">
         <v>104</v>
       </c>
       <c r="E106" t="s">
-        <v>223</v>
-      </c>
-      <c r="F106" s="5" t="s">
-        <v>224</v>
+        <v>243</v>
+      </c>
+      <c r="F106" s="31" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -7949,16 +7958,16 @@
         <v>#N/A</v>
       </c>
       <c r="C107" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D107">
         <v>105</v>
       </c>
       <c r="E107" s="32" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -7966,19 +7975,19 @@
         <v>106</v>
       </c>
       <c r="B108" s="30" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C108" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D108">
         <v>106</v>
       </c>
       <c r="E108" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="F108" s="31" t="s">
         <v>239</v>
-      </c>
-      <c r="F108" s="31" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -8029,10 +8038,10 @@
         <v>109</v>
       </c>
       <c r="E111" t="s">
+        <v>227</v>
+      </c>
+      <c r="F111" s="11" t="s">
         <v>228</v>
-      </c>
-      <c r="F111" s="11" t="s">
-        <v>229</v>
       </c>
       <c r="G111" s="12"/>
     </row>
@@ -8045,16 +8054,16 @@
         <v>#N/A</v>
       </c>
       <c r="C112" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D112">
         <v>110</v>
       </c>
       <c r="E112" t="s">
+        <v>229</v>
+      </c>
+      <c r="F112" s="5" t="s">
         <v>230</v>
-      </c>
-      <c r="F112" s="5" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -8066,16 +8075,16 @@
         <v>#N/A</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D113" s="2">
         <v>111</v>
       </c>
       <c r="E113" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F113" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="F113" s="5" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -8087,16 +8096,16 @@
         <v>#N/A</v>
       </c>
       <c r="C114" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D114">
         <v>112</v>
       </c>
       <c r="E114" t="s">
+        <v>233</v>
+      </c>
+      <c r="F114" s="5" t="s">
         <v>234</v>
-      </c>
-      <c r="F114" s="5" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -8108,16 +8117,16 @@
         <v>#N/A</v>
       </c>
       <c r="C115" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D115">
         <v>113</v>
       </c>
       <c r="E115" t="s">
+        <v>235</v>
+      </c>
+      <c r="F115" s="5" t="s">
         <v>236</v>
-      </c>
-      <c r="F115" s="5" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -8129,13 +8138,13 @@
         <v>#N/A</v>
       </c>
       <c r="C116" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D116">
         <v>114</v>
       </c>
       <c r="E116" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F116" s="5" t="s">
         <v>224</v>

--- a/jyx2/excel/头像模型映射.xlsx
+++ b/jyx2/excel/头像模型映射.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA281E8-9CC8-4931-A671-F75D3B868B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFC7F6F-7E9B-4908-8010-B7A158490C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="244">
   <si>
     <t>代号</t>
   </si>
@@ -579,16 +579,10 @@
     <t>崆峒派弟子，原版数据有误</t>
   </si>
   <si>
-    <t>崆峒弟子</t>
-  </si>
-  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/崆峒弟子.prefab</t>
   </si>
   <si>
     <t>明教弟子，原版数据有误</t>
-  </si>
-  <si>
-    <t>明教弟子</t>
   </si>
   <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/明教弟子.prefab</t>
@@ -832,6 +826,10 @@
   </si>
   <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/雕.prefab</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨师</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -5912,8 +5910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="F107" sqref="F107"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="F109" sqref="F109:F110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -7467,11 +7465,11 @@
       <c r="D81" s="2">
         <v>79</v>
       </c>
-      <c r="E81" s="9" t="s">
+      <c r="E81" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="F81" s="5" t="s">
         <v>172</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -7483,16 +7481,16 @@
         <v>厨师</v>
       </c>
       <c r="C82" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D82">
         <v>80</v>
       </c>
-      <c r="E82" s="9" t="s">
-        <v>175</v>
+      <c r="E82" s="30" t="s">
+        <v>243</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="83" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7508,10 +7506,10 @@
         <v>81</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G83" s="23"/>
     </row>
@@ -7527,10 +7525,10 @@
         <v>82</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -7546,10 +7544,10 @@
         <v>83</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -7565,10 +7563,10 @@
         <v>84</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -7584,10 +7582,10 @@
         <v>85</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -7602,10 +7600,10 @@
         <v>86</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -7621,10 +7619,10 @@
         <v>87</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -7640,10 +7638,10 @@
         <v>88</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -7655,16 +7653,16 @@
         <v>#N/A</v>
       </c>
       <c r="C91" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D91">
         <v>89</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -7679,10 +7677,10 @@
         <v>90</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -7697,10 +7695,10 @@
         <v>91</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -7715,10 +7713,10 @@
         <v>92</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -7733,10 +7731,10 @@
         <v>93</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -7752,10 +7750,10 @@
         <v>94</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -7771,10 +7769,10 @@
         <v>95</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -7789,10 +7787,10 @@
         <v>96</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -7807,10 +7805,10 @@
         <v>97</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="100" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -7825,10 +7823,10 @@
         <v>98</v>
       </c>
       <c r="E100" s="25" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G100" s="6"/>
     </row>
@@ -7844,10 +7842,10 @@
         <v>99</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="102" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -7862,10 +7860,10 @@
         <v>100</v>
       </c>
       <c r="E102" s="25" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G102" s="6"/>
     </row>
@@ -7881,10 +7879,10 @@
         <v>101</v>
       </c>
       <c r="E103" s="27" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F103" s="28" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G103" s="23"/>
     </row>
@@ -7901,10 +7899,10 @@
         <v>102</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F104" s="29" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -7916,16 +7914,16 @@
         <v>#N/A</v>
       </c>
       <c r="C105" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D105">
         <v>103</v>
       </c>
       <c r="E105" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -7937,16 +7935,16 @@
         <v>#N/A</v>
       </c>
       <c r="C106" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D106">
         <v>104</v>
       </c>
       <c r="E106" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F106" s="31" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -7958,16 +7956,16 @@
         <v>#N/A</v>
       </c>
       <c r="C107" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D107">
         <v>105</v>
       </c>
       <c r="E107" s="32" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -7975,19 +7973,19 @@
         <v>106</v>
       </c>
       <c r="B108" s="30" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C108" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D108">
         <v>106</v>
       </c>
       <c r="E108" s="32" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F108" s="31" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -8002,10 +8000,10 @@
         <v>107</v>
       </c>
       <c r="E109" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -8020,10 +8018,10 @@
         <v>108</v>
       </c>
       <c r="E110" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -8038,10 +8036,10 @@
         <v>109</v>
       </c>
       <c r="E111" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F111" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G111" s="12"/>
     </row>
@@ -8054,16 +8052,16 @@
         <v>#N/A</v>
       </c>
       <c r="C112" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D112">
         <v>110</v>
       </c>
       <c r="E112" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -8075,16 +8073,16 @@
         <v>#N/A</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D113" s="2">
         <v>111</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -8096,16 +8094,16 @@
         <v>#N/A</v>
       </c>
       <c r="C114" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D114">
         <v>112</v>
       </c>
       <c r="E114" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -8117,16 +8115,16 @@
         <v>#N/A</v>
       </c>
       <c r="C115" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D115">
         <v>113</v>
       </c>
       <c r="E115" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -8138,16 +8136,16 @@
         <v>#N/A</v>
       </c>
       <c r="C116" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D116">
         <v>114</v>
       </c>
       <c r="E116" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -8162,10 +8160,10 @@
         <v>115</v>
       </c>
       <c r="E117" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -8180,10 +8178,10 @@
         <v>116</v>
       </c>
       <c r="E118" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -8198,10 +8196,10 @@
         <v>117</v>
       </c>
       <c r="E119" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -8216,10 +8214,10 @@
         <v>118</v>
       </c>
       <c r="E120" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -8234,10 +8232,10 @@
         <v>119</v>
       </c>
       <c r="E121" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -8252,10 +8250,10 @@
         <v>120</v>
       </c>
       <c r="E122" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -8270,10 +8268,10 @@
         <v>121</v>
       </c>
       <c r="E123" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -8288,10 +8286,10 @@
         <v>122</v>
       </c>
       <c r="E124" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -8306,10 +8304,10 @@
         <v>123</v>
       </c>
       <c r="E125" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -8324,10 +8322,10 @@
         <v>124</v>
       </c>
       <c r="E126" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -8342,10 +8340,10 @@
         <v>125</v>
       </c>
       <c r="E127" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -8360,10 +8358,10 @@
         <v>126</v>
       </c>
       <c r="E128" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -8378,10 +8376,10 @@
         <v>127</v>
       </c>
       <c r="E129" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -8396,10 +8394,10 @@
         <v>128</v>
       </c>
       <c r="E130" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -8414,10 +8412,10 @@
         <v>129</v>
       </c>
       <c r="E131" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -8432,10 +8430,10 @@
         <v>130</v>
       </c>
       <c r="E132" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -8450,10 +8448,10 @@
         <v>131</v>
       </c>
       <c r="E133" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -8464,10 +8462,10 @@
         <v>10000</v>
       </c>
       <c r="E134" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/jyx2/excel/头像模型映射.xlsx
+++ b/jyx2/excel/头像模型映射.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFC7F6F-7E9B-4908-8010-B7A158490C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1A49B9-931F-49C3-ABC4-A39963F7FD31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="246">
   <si>
     <t>代号</t>
   </si>
@@ -739,9 +739,6 @@
   </si>
   <si>
     <t>王语嫣</t>
-  </si>
-  <si>
-    <t>Assets/BuildSource/ModelCharacters/BattleNpc/王语嫣.prefab</t>
   </si>
   <si>
     <t>扫地僧</t>
@@ -830,6 +827,18 @@
   </si>
   <si>
     <t>厨师</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>大夫</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/王语嫣.prefab</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/带锁链的医生.prefab</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -977,7 +986,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1048,6 +1057,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -5910,8 +5922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="F109" sqref="F109:F110"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="F111" sqref="F111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -7466,7 +7478,7 @@
         <v>79</v>
       </c>
       <c r="E81" s="30" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>172</v>
@@ -7487,7 +7499,7 @@
         <v>80</v>
       </c>
       <c r="E82" s="30" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F82" s="5" t="s">
         <v>174</v>
@@ -7935,16 +7947,16 @@
         <v>#N/A</v>
       </c>
       <c r="C106" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D106">
         <v>104</v>
       </c>
       <c r="E106" t="s">
+        <v>240</v>
+      </c>
+      <c r="F106" s="31" t="s">
         <v>241</v>
-      </c>
-      <c r="F106" s="31" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -7962,10 +7974,10 @@
         <v>105</v>
       </c>
       <c r="E107" s="32" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -7973,7 +7985,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="30" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C108" t="s">
         <v>224</v>
@@ -7982,10 +7994,10 @@
         <v>106</v>
       </c>
       <c r="E108" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="F108" s="31" t="s">
         <v>236</v>
-      </c>
-      <c r="F108" s="31" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -8010,18 +8022,17 @@
       <c r="A110" s="7">
         <v>108</v>
       </c>
-      <c r="B110" s="9" t="e">
-        <f>VLOOKUP(A110,[1]Sheet1!$B:$E,4,FALSE)</f>
-        <v>#N/A</v>
+      <c r="B110" s="30" t="s">
+        <v>243</v>
       </c>
       <c r="D110">
         <v>108</v>
       </c>
-      <c r="E110" t="s">
-        <v>221</v>
-      </c>
-      <c r="F110" s="5" t="s">
-        <v>222</v>
+      <c r="E110" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="F110" s="31" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -8038,8 +8049,8 @@
       <c r="E111" t="s">
         <v>225</v>
       </c>
-      <c r="F111" s="11" t="s">
-        <v>226</v>
+      <c r="F111" s="33" t="s">
+        <v>244</v>
       </c>
       <c r="G111" s="12"/>
     </row>
@@ -8052,16 +8063,16 @@
         <v>#N/A</v>
       </c>
       <c r="C112" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D112">
         <v>110</v>
       </c>
       <c r="E112" t="s">
+        <v>226</v>
+      </c>
+      <c r="F112" s="5" t="s">
         <v>227</v>
-      </c>
-      <c r="F112" s="5" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -8073,16 +8084,16 @@
         <v>#N/A</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D113" s="2">
         <v>111</v>
       </c>
       <c r="E113" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F113" s="5" t="s">
         <v>229</v>
-      </c>
-      <c r="F113" s="5" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -8094,16 +8105,16 @@
         <v>#N/A</v>
       </c>
       <c r="C114" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D114">
         <v>112</v>
       </c>
       <c r="E114" t="s">
+        <v>230</v>
+      </c>
+      <c r="F114" s="5" t="s">
         <v>231</v>
-      </c>
-      <c r="F114" s="5" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -8115,16 +8126,16 @@
         <v>#N/A</v>
       </c>
       <c r="C115" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D115">
         <v>113</v>
       </c>
       <c r="E115" t="s">
+        <v>232</v>
+      </c>
+      <c r="F115" s="5" t="s">
         <v>233</v>
-      </c>
-      <c r="F115" s="5" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -8136,13 +8147,13 @@
         <v>#N/A</v>
       </c>
       <c r="C116" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D116">
         <v>114</v>
       </c>
       <c r="E116" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F116" s="5" t="s">
         <v>222</v>

--- a/jyx2/excel/头像模型映射.xlsx
+++ b/jyx2/excel/头像模型映射.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1A49B9-931F-49C3-ABC4-A39963F7FD31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B85649C-D644-4C7E-BF59-4C3F157CBA79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="245">
   <si>
     <t>代号</t>
   </si>
@@ -583,9 +583,6 @@
   </si>
   <si>
     <t>明教弟子，原版数据有误</t>
-  </si>
-  <si>
-    <t>Assets/BuildSource/ModelCharacters/BattleNpc/明教弟子.prefab</t>
   </si>
   <si>
     <t>华山弟子</t>
@@ -826,10 +823,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>厨师</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>大夫</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -839,6 +832,10 @@
   </si>
   <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/带锁链的医生.prefab</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/明教弟子.prefab</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2213,7 +2210,7 @@
         </row>
         <row r="81">
           <cell r="B81">
-            <v>79</v>
+            <v>75</v>
           </cell>
           <cell r="C81">
             <v>1</v>
@@ -2227,7 +2224,7 @@
         </row>
         <row r="82">
           <cell r="B82">
-            <v>80</v>
+            <v>75</v>
           </cell>
           <cell r="C82">
             <v>1</v>
@@ -5922,8 +5919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="F111" sqref="F111"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -7469,7 +7466,7 @@
       </c>
       <c r="B81" s="9" t="str">
         <f>VLOOKUP(A81,[1]Sheet1!$B:$E,4,FALSE)</f>
-        <v>厨师</v>
+        <v>崆峒弟子</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>171</v>
@@ -7477,8 +7474,9 @@
       <c r="D81" s="2">
         <v>79</v>
       </c>
-      <c r="E81" s="30" t="s">
-        <v>242</v>
+      <c r="E81" s="9" t="str">
+        <f>VLOOKUP(D81,[1]Sheet1!$B:$E,4,FALSE)</f>
+        <v>崆峒弟子</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>172</v>
@@ -7490,7 +7488,7 @@
       </c>
       <c r="B82" s="9" t="str">
         <f>VLOOKUP(A82,[1]Sheet1!$B:$E,4,FALSE)</f>
-        <v>厨师</v>
+        <v>明教弟子</v>
       </c>
       <c r="C82" t="s">
         <v>173</v>
@@ -7498,11 +7496,12 @@
       <c r="D82">
         <v>80</v>
       </c>
-      <c r="E82" s="30" t="s">
-        <v>242</v>
+      <c r="E82" s="9" t="str">
+        <f>VLOOKUP(D82,[1]Sheet1!$B:$E,4,FALSE)</f>
+        <v>明教弟子</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>174</v>
+        <v>244</v>
       </c>
     </row>
     <row r="83" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7518,10 +7517,10 @@
         <v>81</v>
       </c>
       <c r="E83" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="F83" s="5" t="s">
         <v>175</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>176</v>
       </c>
       <c r="G83" s="23"/>
     </row>
@@ -7537,10 +7536,10 @@
         <v>82</v>
       </c>
       <c r="E84" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="F84" s="5" t="s">
         <v>177</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -7556,10 +7555,10 @@
         <v>83</v>
       </c>
       <c r="E85" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="F85" s="5" t="s">
         <v>179</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -7575,10 +7574,10 @@
         <v>84</v>
       </c>
       <c r="E86" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="F86" s="5" t="s">
         <v>181</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -7594,10 +7593,10 @@
         <v>85</v>
       </c>
       <c r="E87" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="F87" s="5" t="s">
         <v>183</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -7612,10 +7611,10 @@
         <v>86</v>
       </c>
       <c r="E88" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F88" s="5" t="s">
         <v>185</v>
-      </c>
-      <c r="F88" s="5" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -7631,10 +7630,10 @@
         <v>87</v>
       </c>
       <c r="E89" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="F89" s="5" t="s">
         <v>187</v>
-      </c>
-      <c r="F89" s="5" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -7650,10 +7649,10 @@
         <v>88</v>
       </c>
       <c r="E90" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="F90" s="5" t="s">
         <v>189</v>
-      </c>
-      <c r="F90" s="5" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -7665,16 +7664,16 @@
         <v>#N/A</v>
       </c>
       <c r="C91" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D91">
         <v>89</v>
       </c>
       <c r="E91" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="F91" s="5" t="s">
         <v>192</v>
-      </c>
-      <c r="F91" s="5" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -7689,10 +7688,10 @@
         <v>90</v>
       </c>
       <c r="E92" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="F92" s="5" t="s">
         <v>194</v>
-      </c>
-      <c r="F92" s="5" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -7707,10 +7706,10 @@
         <v>91</v>
       </c>
       <c r="E93" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="F93" s="5" t="s">
         <v>196</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -7725,10 +7724,10 @@
         <v>92</v>
       </c>
       <c r="E94" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="F94" s="5" t="s">
         <v>198</v>
-      </c>
-      <c r="F94" s="5" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -7743,10 +7742,10 @@
         <v>93</v>
       </c>
       <c r="E95" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="F95" s="5" t="s">
         <v>200</v>
-      </c>
-      <c r="F95" s="5" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -7762,10 +7761,10 @@
         <v>94</v>
       </c>
       <c r="E96" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="F96" s="5" t="s">
         <v>202</v>
-      </c>
-      <c r="F96" s="5" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -7781,10 +7780,10 @@
         <v>95</v>
       </c>
       <c r="E97" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="F97" s="5" t="s">
         <v>204</v>
-      </c>
-      <c r="F97" s="5" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -7799,10 +7798,10 @@
         <v>96</v>
       </c>
       <c r="E98" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F98" s="5" t="s">
         <v>206</v>
-      </c>
-      <c r="F98" s="5" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -7817,10 +7816,10 @@
         <v>97</v>
       </c>
       <c r="E99" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="F99" s="5" t="s">
         <v>208</v>
-      </c>
-      <c r="F99" s="5" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="100" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -7835,10 +7834,10 @@
         <v>98</v>
       </c>
       <c r="E100" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="F100" s="5" t="s">
         <v>210</v>
-      </c>
-      <c r="F100" s="5" t="s">
-        <v>211</v>
       </c>
       <c r="G100" s="6"/>
     </row>
@@ -7854,10 +7853,10 @@
         <v>99</v>
       </c>
       <c r="E101" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="F101" s="5" t="s">
         <v>212</v>
-      </c>
-      <c r="F101" s="5" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="102" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -7872,10 +7871,10 @@
         <v>100</v>
       </c>
       <c r="E102" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="F102" s="5" t="s">
         <v>214</v>
-      </c>
-      <c r="F102" s="5" t="s">
-        <v>215</v>
       </c>
       <c r="G102" s="6"/>
     </row>
@@ -7891,10 +7890,10 @@
         <v>101</v>
       </c>
       <c r="E103" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="F103" s="28" t="s">
         <v>216</v>
-      </c>
-      <c r="F103" s="28" t="s">
-        <v>217</v>
       </c>
       <c r="G103" s="23"/>
     </row>
@@ -7911,10 +7910,10 @@
         <v>102</v>
       </c>
       <c r="E104" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="F104" s="29" t="s">
         <v>218</v>
-      </c>
-      <c r="F104" s="29" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -7926,16 +7925,16 @@
         <v>#N/A</v>
       </c>
       <c r="C105" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D105">
         <v>103</v>
       </c>
       <c r="E105" t="s">
+        <v>220</v>
+      </c>
+      <c r="F105" s="5" t="s">
         <v>221</v>
-      </c>
-      <c r="F105" s="5" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -7947,16 +7946,16 @@
         <v>#N/A</v>
       </c>
       <c r="C106" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D106">
         <v>104</v>
       </c>
       <c r="E106" t="s">
+        <v>239</v>
+      </c>
+      <c r="F106" s="31" t="s">
         <v>240</v>
-      </c>
-      <c r="F106" s="31" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -7968,16 +7967,16 @@
         <v>#N/A</v>
       </c>
       <c r="C107" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D107">
         <v>105</v>
       </c>
       <c r="E107" s="32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -7985,19 +7984,19 @@
         <v>106</v>
       </c>
       <c r="B108" s="30" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C108" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D108">
         <v>106</v>
       </c>
       <c r="E108" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="F108" s="31" t="s">
         <v>235</v>
-      </c>
-      <c r="F108" s="31" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -8012,10 +8011,10 @@
         <v>107</v>
       </c>
       <c r="E109" t="s">
+        <v>220</v>
+      </c>
+      <c r="F109" s="5" t="s">
         <v>221</v>
-      </c>
-      <c r="F109" s="5" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -8023,16 +8022,16 @@
         <v>108</v>
       </c>
       <c r="B110" s="30" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D110">
         <v>108</v>
       </c>
       <c r="E110" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="F110" s="31" t="s">
         <v>243</v>
-      </c>
-      <c r="F110" s="31" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -8047,10 +8046,10 @@
         <v>109</v>
       </c>
       <c r="E111" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F111" s="33" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G111" s="12"/>
     </row>
@@ -8063,16 +8062,16 @@
         <v>#N/A</v>
       </c>
       <c r="C112" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D112">
         <v>110</v>
       </c>
       <c r="E112" t="s">
+        <v>225</v>
+      </c>
+      <c r="F112" s="5" t="s">
         <v>226</v>
-      </c>
-      <c r="F112" s="5" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -8084,16 +8083,16 @@
         <v>#N/A</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D113" s="2">
         <v>111</v>
       </c>
       <c r="E113" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F113" s="5" t="s">
         <v>228</v>
-      </c>
-      <c r="F113" s="5" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -8105,16 +8104,16 @@
         <v>#N/A</v>
       </c>
       <c r="C114" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D114">
         <v>112</v>
       </c>
       <c r="E114" t="s">
+        <v>229</v>
+      </c>
+      <c r="F114" s="5" t="s">
         <v>230</v>
-      </c>
-      <c r="F114" s="5" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -8126,16 +8125,16 @@
         <v>#N/A</v>
       </c>
       <c r="C115" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D115">
         <v>113</v>
       </c>
       <c r="E115" t="s">
+        <v>231</v>
+      </c>
+      <c r="F115" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="F115" s="5" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -8147,16 +8146,16 @@
         <v>#N/A</v>
       </c>
       <c r="C116" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D116">
         <v>114</v>
       </c>
       <c r="E116" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -8171,10 +8170,10 @@
         <v>115</v>
       </c>
       <c r="E117" t="s">
+        <v>220</v>
+      </c>
+      <c r="F117" s="5" t="s">
         <v>221</v>
-      </c>
-      <c r="F117" s="5" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -8189,10 +8188,10 @@
         <v>116</v>
       </c>
       <c r="E118" t="s">
+        <v>220</v>
+      </c>
+      <c r="F118" s="5" t="s">
         <v>221</v>
-      </c>
-      <c r="F118" s="5" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -8207,10 +8206,10 @@
         <v>117</v>
       </c>
       <c r="E119" t="s">
+        <v>220</v>
+      </c>
+      <c r="F119" s="5" t="s">
         <v>221</v>
-      </c>
-      <c r="F119" s="5" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -8225,10 +8224,10 @@
         <v>118</v>
       </c>
       <c r="E120" t="s">
+        <v>220</v>
+      </c>
+      <c r="F120" s="5" t="s">
         <v>221</v>
-      </c>
-      <c r="F120" s="5" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -8243,10 +8242,10 @@
         <v>119</v>
       </c>
       <c r="E121" t="s">
+        <v>220</v>
+      </c>
+      <c r="F121" s="5" t="s">
         <v>221</v>
-      </c>
-      <c r="F121" s="5" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -8261,10 +8260,10 @@
         <v>120</v>
       </c>
       <c r="E122" t="s">
+        <v>220</v>
+      </c>
+      <c r="F122" s="5" t="s">
         <v>221</v>
-      </c>
-      <c r="F122" s="5" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -8279,10 +8278,10 @@
         <v>121</v>
       </c>
       <c r="E123" t="s">
+        <v>220</v>
+      </c>
+      <c r="F123" s="5" t="s">
         <v>221</v>
-      </c>
-      <c r="F123" s="5" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -8297,10 +8296,10 @@
         <v>122</v>
       </c>
       <c r="E124" t="s">
+        <v>220</v>
+      </c>
+      <c r="F124" s="5" t="s">
         <v>221</v>
-      </c>
-      <c r="F124" s="5" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -8315,10 +8314,10 @@
         <v>123</v>
       </c>
       <c r="E125" t="s">
+        <v>220</v>
+      </c>
+      <c r="F125" s="5" t="s">
         <v>221</v>
-      </c>
-      <c r="F125" s="5" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -8333,10 +8332,10 @@
         <v>124</v>
       </c>
       <c r="E126" t="s">
+        <v>220</v>
+      </c>
+      <c r="F126" s="5" t="s">
         <v>221</v>
-      </c>
-      <c r="F126" s="5" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -8351,10 +8350,10 @@
         <v>125</v>
       </c>
       <c r="E127" t="s">
+        <v>220</v>
+      </c>
+      <c r="F127" s="5" t="s">
         <v>221</v>
-      </c>
-      <c r="F127" s="5" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -8369,10 +8368,10 @@
         <v>126</v>
       </c>
       <c r="E128" t="s">
+        <v>220</v>
+      </c>
+      <c r="F128" s="5" t="s">
         <v>221</v>
-      </c>
-      <c r="F128" s="5" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -8387,10 +8386,10 @@
         <v>127</v>
       </c>
       <c r="E129" t="s">
+        <v>220</v>
+      </c>
+      <c r="F129" s="5" t="s">
         <v>221</v>
-      </c>
-      <c r="F129" s="5" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -8405,10 +8404,10 @@
         <v>128</v>
       </c>
       <c r="E130" t="s">
+        <v>220</v>
+      </c>
+      <c r="F130" s="5" t="s">
         <v>221</v>
-      </c>
-      <c r="F130" s="5" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -8423,10 +8422,10 @@
         <v>129</v>
       </c>
       <c r="E131" t="s">
+        <v>220</v>
+      </c>
+      <c r="F131" s="5" t="s">
         <v>221</v>
-      </c>
-      <c r="F131" s="5" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -8441,10 +8440,10 @@
         <v>130</v>
       </c>
       <c r="E132" t="s">
+        <v>220</v>
+      </c>
+      <c r="F132" s="5" t="s">
         <v>221</v>
-      </c>
-      <c r="F132" s="5" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -8459,10 +8458,10 @@
         <v>131</v>
       </c>
       <c r="E133" t="s">
+        <v>220</v>
+      </c>
+      <c r="F133" s="5" t="s">
         <v>221</v>
-      </c>
-      <c r="F133" s="5" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -8473,10 +8472,10 @@
         <v>10000</v>
       </c>
       <c r="E134" t="s">
+        <v>220</v>
+      </c>
+      <c r="F134" s="5" t="s">
         <v>221</v>
-      </c>
-      <c r="F134" s="5" t="s">
-        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/jyx2/excel/头像模型映射.xlsx
+++ b/jyx2/excel/头像模型映射.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B85649C-D644-4C7E-BF59-4C3F157CBA79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B0E4FB-D58A-4EA6-8A7D-3DABBC67334E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,6 +37,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>已经废弃，模型配置确认没问题就删除</t>
@@ -49,6 +50,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">已经废弃，模型配置确认没问题就删除
@@ -61,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="246">
   <si>
     <t>代号</t>
   </si>
@@ -787,6 +789,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>店小二</t>
@@ -836,6 +839,10 @@
   </si>
   <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/明教弟子.prefab</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/成昆.prefab</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -854,6 +861,7 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -867,6 +875,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -878,12 +887,14 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -983,7 +994,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1057,6 +1068,9 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -5919,8 +5933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -6312,8 +6326,8 @@
       <c r="E20" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="13" t="s">
-        <v>47</v>
+      <c r="F20" s="34" t="s">
+        <v>245</v>
       </c>
       <c r="G20" s="6"/>
     </row>

--- a/jyx2/excel/头像模型映射.xlsx
+++ b/jyx2/excel/头像模型映射.xlsx
@@ -1,19 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B0E4FB-D58A-4EA6-8A7D-3DABBC67334E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28680" windowHeight="13660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
@@ -21,36 +15,36 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$134</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>CGGG</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>已经废弃，模型配置确认没问题就删除</t>
+          <t xml:space="preserve">已经废弃，模型配置确认没问题就删除</t>
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">已经废弃，模型配置确认没问题就删除
@@ -63,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247">
   <si>
     <t>代号</t>
   </si>
@@ -206,312 +200,315 @@
     <t>成昆</t>
   </si>
   <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/成昆.prefab</t>
+  </si>
+  <si>
+    <t>岳不群</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/岳不群.prefab</t>
+  </si>
+  <si>
+    <t>莫大</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/莫大.prefab</t>
+  </si>
+  <si>
+    <t>定闲</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/定闲.prefab</t>
+  </si>
+  <si>
+    <t>左冷禅</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/左冷禅.prefab</t>
+  </si>
+  <si>
+    <t>天门</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/天门道人.prefab</t>
+  </si>
+  <si>
+    <t>余沧海</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/余沧海.prefab</t>
+  </si>
+  <si>
+    <t>蓝凤凰</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/蓝凤凰.prefab</t>
+  </si>
+  <si>
+    <t>任我行</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/任我行.prefab</t>
+  </si>
+  <si>
+    <t>东方不败</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/东方不败.prefab</t>
+  </si>
+  <si>
+    <t>平一指</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/平一指.prefab</t>
+  </si>
+  <si>
+    <t>田伯光</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/田伯光.prefab</t>
+  </si>
+  <si>
+    <t>2|Assets/BuildSource/ModelWeapons/W_Right_SinKnif.prefab|QuickRigCharacter_RightHand|100|7.4,0.3,-0.1|44.2,20.7,33.5</t>
+  </si>
+  <si>
+    <t>风清扬</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/风清扬.prefab</t>
+  </si>
+  <si>
+    <t>丹青生</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/丹青生.prefab</t>
+  </si>
+  <si>
+    <t>秃笔翁</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/秃笔翁.prefab</t>
+  </si>
+  <si>
+    <t>黑白子</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/黑白子.prefab</t>
+  </si>
+  <si>
+    <t>黄钟公</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/黄钟公.prefab</t>
+  </si>
+  <si>
+    <t>令狐冲</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/令狐冲.prefab</t>
+  </si>
+  <si>
+    <t>1|Assets/BuildSource/ModelWeapons/W_Right_SinSword.prefab|QuickRigCharacter_RightHand|100|3,-0.9,-3.2|-50.219,-126.166,-31.194</t>
+  </si>
+  <si>
+    <t>林平之</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/林平之.prefab</t>
+  </si>
+  <si>
+    <t>1|Assets/BuildSource/ModelWeapons/W_Right_SinSword.prefab|QuickRigCharacter_RightHand|100|2.5,3.6,-5.7|-32.17,-107.225,-45.17</t>
+  </si>
+  <si>
+    <t>狄云</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/狄云.prefab</t>
+  </si>
+  <si>
+    <t>2|Assets/BuildSource/ModelWeapons/W_Right_SinKnif.prefab|QuickRigCharacter_RightHand|100|5.29,3.82,-7.77|40.23,38.875,12.039</t>
+  </si>
+  <si>
+    <t>石破天</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/石破天.prefab</t>
+  </si>
+  <si>
+    <t>龙岛主</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/南贤.prefab</t>
+  </si>
+  <si>
+    <t>木岛主</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/洪教主.prefab</t>
+  </si>
+  <si>
+    <t>张三</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/侠客弟子.prefab</t>
+  </si>
+  <si>
+    <t>李四</t>
+  </si>
+  <si>
+    <t>白万剑</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/白万剑.prefab</t>
+  </si>
+  <si>
+    <t>岳老三</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/岳老三.prefab</t>
+  </si>
+  <si>
+    <t>薛慕华</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/薛慕华.prefab</t>
+  </si>
+  <si>
+    <t>丁春秋</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/丁春秋.prefab</t>
+  </si>
+  <si>
+    <t>阿紫</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/阿紫.prefab</t>
+  </si>
+  <si>
+    <t>游坦之</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/游坦之.prefab</t>
+  </si>
+  <si>
+    <t>虚竹</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/虚竹.prefab</t>
+  </si>
+  <si>
+    <t>乔峰</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/乔峰.prefab</t>
+  </si>
+  <si>
+    <t>慕容复</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/慕容复.prefab</t>
+  </si>
+  <si>
+    <t>1|Assets/BuildSource/ModelWeapons/W_Right_SinSword.prefab|QuickRigCharacter_RightHand|1|0.047,0.011,-0.049|-51.997,-141.795,-23.783</t>
+  </si>
+  <si>
+    <t>苏星河</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/苏星河.prefab</t>
+  </si>
+  <si>
+    <t>段誉</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/段誉.prefab</t>
+  </si>
+  <si>
+    <t>袁承志</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/袁承志.prefab</t>
+  </si>
+  <si>
+    <t>1|Assets/BuildSource/ModelWeapons/W_Right_SinSword.prefab|QuickRigCharacter_RightHand|1|0.048,0.06,-0.022|-51.997,-141.795,-23.783</t>
+  </si>
+  <si>
+    <t>郭靖</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/郭靖.prefab</t>
+  </si>
+  <si>
+    <t>黄蓉</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/黄蓉.prefab</t>
+  </si>
+  <si>
+    <t>1|Assets/BuildSource/ModelWeapons/W_Right_Gudgel.prefab|QuickRigCharacter_RightHand|100|0.9,4.3,0.8|-32.17,-107.225,-45.17</t>
+  </si>
+  <si>
+    <t>黄药师</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/黄药师.prefab</t>
+  </si>
+  <si>
+    <t>1|Assets/BuildSource/ModelWeapons/W_Right_Gun.prefab|QuickRigCharacter_RightHand|100|0.9,4.3,0.8|-32.17,-107.225,-45.17</t>
+  </si>
+  <si>
+    <t>杨过</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/杨过.prefab</t>
+  </si>
+  <si>
+    <t>1|Assets/BuildSource/ModelWeapons/W_Right_BigSword.prefab|QuickRigCharacter_LeftHand|2|-0.079,0.037,0.066|-65.335,151.561,-110.351</t>
+  </si>
+  <si>
+    <t>小龙女</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/小龙女.prefab</t>
+  </si>
+  <si>
+    <t>欧阳锋</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/欧阳锋.prefab</t>
+  </si>
+  <si>
+    <t>欧阳克</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/欧阳克.prefab</t>
+  </si>
+  <si>
+    <t>金轮法王</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/金轮法王.prefab</t>
+  </si>
+  <si>
+    <t>程英</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/程英.prefab</t>
+  </si>
+  <si>
+    <t>周伯通</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/周伯通.prefab</t>
+  </si>
+  <si>
+    <t>一灯</t>
+  </si>
+  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/方丈.prefab</t>
   </si>
   <si>
-    <t>岳不群</t>
-  </si>
-  <si>
-    <t>Assets/BuildSource/ModelCharacters/BattleNpc/岳不群.prefab</t>
-  </si>
-  <si>
-    <t>莫大</t>
-  </si>
-  <si>
-    <t>Assets/BuildSource/ModelCharacters/BattleNpc/莫大.prefab</t>
-  </si>
-  <si>
-    <t>定闲</t>
-  </si>
-  <si>
-    <t>Assets/BuildSource/ModelCharacters/BattleNpc/定闲.prefab</t>
-  </si>
-  <si>
-    <t>左冷禅</t>
-  </si>
-  <si>
-    <t>Assets/BuildSource/ModelCharacters/BattleNpc/左冷禅.prefab</t>
-  </si>
-  <si>
-    <t>天门</t>
-  </si>
-  <si>
-    <t>Assets/BuildSource/ModelCharacters/BattleNpc/天门道人.prefab</t>
-  </si>
-  <si>
-    <t>余沧海</t>
-  </si>
-  <si>
-    <t>Assets/BuildSource/ModelCharacters/BattleNpc/余沧海.prefab</t>
-  </si>
-  <si>
-    <t>蓝凤凰</t>
-  </si>
-  <si>
-    <t>Assets/BuildSource/ModelCharacters/BattleNpc/蓝凤凰.prefab</t>
-  </si>
-  <si>
-    <t>任我行</t>
-  </si>
-  <si>
-    <t>Assets/BuildSource/ModelCharacters/BattleNpc/任我行.prefab</t>
-  </si>
-  <si>
-    <t>东方不败</t>
-  </si>
-  <si>
-    <t>Assets/BuildSource/ModelCharacters/BattleNpc/东方不败.prefab</t>
-  </si>
-  <si>
-    <t>平一指</t>
-  </si>
-  <si>
-    <t>Assets/BuildSource/ModelCharacters/BattleNpc/平一指.prefab</t>
-  </si>
-  <si>
-    <t>田伯光</t>
-  </si>
-  <si>
-    <t>Assets/BuildSource/ModelCharacters/BattleNpc/田伯光.prefab</t>
-  </si>
-  <si>
-    <t>2|Assets/BuildSource/ModelWeapons/W_Right_SinKnif.prefab|QuickRigCharacter_RightHand|100|7.4,0.3,-0.1|44.2,20.7,33.5</t>
-  </si>
-  <si>
-    <t>风清扬</t>
-  </si>
-  <si>
-    <t>Assets/BuildSource/ModelCharacters/BattleNpc/风清扬.prefab</t>
-  </si>
-  <si>
-    <t>丹青生</t>
-  </si>
-  <si>
-    <t>Assets/BuildSource/ModelCharacters/BattleNpc/丹青生.prefab</t>
-  </si>
-  <si>
-    <t>秃笔翁</t>
-  </si>
-  <si>
-    <t>Assets/BuildSource/ModelCharacters/BattleNpc/秃笔翁.prefab</t>
-  </si>
-  <si>
-    <t>黑白子</t>
-  </si>
-  <si>
-    <t>Assets/BuildSource/ModelCharacters/BattleNpc/黑白子.prefab</t>
-  </si>
-  <si>
-    <t>黄钟公</t>
-  </si>
-  <si>
-    <t>Assets/BuildSource/ModelCharacters/BattleNpc/黄钟公.prefab</t>
-  </si>
-  <si>
-    <t>令狐冲</t>
-  </si>
-  <si>
-    <t>Assets/BuildSource/ModelCharacters/BattleNpc/令狐冲.prefab</t>
-  </si>
-  <si>
-    <t>1|Assets/BuildSource/ModelWeapons/W_Right_SinSword.prefab|QuickRigCharacter_RightHand|100|3,-0.9,-3.2|-50.219,-126.166,-31.194</t>
-  </si>
-  <si>
-    <t>林平之</t>
-  </si>
-  <si>
-    <t>Assets/BuildSource/ModelCharacters/BattleNpc/林平之.prefab</t>
-  </si>
-  <si>
-    <t>1|Assets/BuildSource/ModelWeapons/W_Right_SinSword.prefab|QuickRigCharacter_RightHand|100|2.5,3.6,-5.7|-32.17,-107.225,-45.17</t>
-  </si>
-  <si>
-    <t>狄云</t>
-  </si>
-  <si>
-    <t>Assets/BuildSource/ModelCharacters/BattleNpc/狄云.prefab</t>
-  </si>
-  <si>
-    <t>2|Assets/BuildSource/ModelWeapons/W_Right_SinKnif.prefab|QuickRigCharacter_RightHand|100|5.29,3.82,-7.77|40.23,38.875,12.039</t>
-  </si>
-  <si>
-    <t>石破天</t>
-  </si>
-  <si>
-    <t>Assets/BuildSource/ModelCharacters/BattleNpc/石破天.prefab</t>
-  </si>
-  <si>
-    <t>龙岛主</t>
-  </si>
-  <si>
-    <t>Assets/BuildSource/ModelCharacters/BattleNpc/南贤.prefab</t>
-  </si>
-  <si>
-    <t>木岛主</t>
-  </si>
-  <si>
-    <t>Assets/BuildSource/ModelCharacters/BattleNpc/洪教主.prefab</t>
-  </si>
-  <si>
-    <t>张三</t>
-  </si>
-  <si>
-    <t>Assets/BuildSource/ModelCharacters/BattleNpc/侠客弟子.prefab</t>
-  </si>
-  <si>
-    <t>李四</t>
-  </si>
-  <si>
-    <t>白万剑</t>
-  </si>
-  <si>
-    <t>Assets/BuildSource/ModelCharacters/BattleNpc/白万剑.prefab</t>
-  </si>
-  <si>
-    <t>岳老三</t>
-  </si>
-  <si>
-    <t>Assets/BuildSource/ModelCharacters/BattleNpc/岳老三.prefab</t>
-  </si>
-  <si>
-    <t>薛慕华</t>
-  </si>
-  <si>
-    <t>Assets/BuildSource/ModelCharacters/BattleNpc/薛慕华.prefab</t>
-  </si>
-  <si>
-    <t>丁春秋</t>
-  </si>
-  <si>
-    <t>Assets/BuildSource/ModelCharacters/BattleNpc/丁春秋.prefab</t>
-  </si>
-  <si>
-    <t>阿紫</t>
-  </si>
-  <si>
-    <t>Assets/BuildSource/ModelCharacters/BattleNpc/阿紫.prefab</t>
-  </si>
-  <si>
-    <t>游坦之</t>
-  </si>
-  <si>
-    <t>Assets/BuildSource/ModelCharacters/BattleNpc/游坦之.prefab</t>
-  </si>
-  <si>
-    <t>虚竹</t>
-  </si>
-  <si>
-    <t>Assets/BuildSource/ModelCharacters/BattleNpc/虚竹.prefab</t>
-  </si>
-  <si>
-    <t>乔峰</t>
-  </si>
-  <si>
-    <t>Assets/BuildSource/ModelCharacters/BattleNpc/乔峰.prefab</t>
-  </si>
-  <si>
-    <t>慕容复</t>
-  </si>
-  <si>
-    <t>Assets/BuildSource/ModelCharacters/BattleNpc/慕容复.prefab</t>
-  </si>
-  <si>
-    <t>1|Assets/BuildSource/ModelWeapons/W_Right_SinSword.prefab|QuickRigCharacter_RightHand|1|0.047,0.011,-0.049|-51.997,-141.795,-23.783</t>
-  </si>
-  <si>
-    <t>苏星河</t>
-  </si>
-  <si>
-    <t>Assets/BuildSource/ModelCharacters/BattleNpc/苏星河.prefab</t>
-  </si>
-  <si>
-    <t>段誉</t>
-  </si>
-  <si>
-    <t>Assets/BuildSource/ModelCharacters/BattleNpc/段誉.prefab</t>
-  </si>
-  <si>
-    <t>袁承志</t>
-  </si>
-  <si>
-    <t>Assets/BuildSource/ModelCharacters/BattleNpc/袁承志.prefab</t>
-  </si>
-  <si>
-    <t>1|Assets/BuildSource/ModelWeapons/W_Right_SinSword.prefab|QuickRigCharacter_RightHand|1|0.048,0.06,-0.022|-51.997,-141.795,-23.783</t>
-  </si>
-  <si>
-    <t>郭靖</t>
-  </si>
-  <si>
-    <t>Assets/BuildSource/ModelCharacters/BattleNpc/郭靖.prefab</t>
-  </si>
-  <si>
-    <t>黄蓉</t>
-  </si>
-  <si>
-    <t>Assets/BuildSource/ModelCharacters/BattleNpc/黄蓉.prefab</t>
-  </si>
-  <si>
-    <t>1|Assets/BuildSource/ModelWeapons/W_Right_Gudgel.prefab|QuickRigCharacter_RightHand|100|0.9,4.3,0.8|-32.17,-107.225,-45.17</t>
-  </si>
-  <si>
-    <t>黄药师</t>
-  </si>
-  <si>
-    <t>Assets/BuildSource/ModelCharacters/BattleNpc/黄药师.prefab</t>
-  </si>
-  <si>
-    <t>1|Assets/BuildSource/ModelWeapons/W_Right_Gun.prefab|QuickRigCharacter_RightHand|100|0.9,4.3,0.8|-32.17,-107.225,-45.17</t>
-  </si>
-  <si>
-    <t>杨过</t>
-  </si>
-  <si>
-    <t>Assets/BuildSource/ModelCharacters/BattleNpc/杨过.prefab</t>
-  </si>
-  <si>
-    <t>1|Assets/BuildSource/ModelWeapons/W_Right_BigSword.prefab|QuickRigCharacter_LeftHand|2|-0.079,0.037,0.066|-65.335,151.561,-110.351</t>
-  </si>
-  <si>
-    <t>小龙女</t>
-  </si>
-  <si>
-    <t>Assets/BuildSource/ModelCharacters/BattleNpc/小龙女.prefab</t>
-  </si>
-  <si>
-    <t>欧阳锋</t>
-  </si>
-  <si>
-    <t>Assets/BuildSource/ModelCharacters/BattleNpc/欧阳锋.prefab</t>
-  </si>
-  <si>
-    <t>欧阳克</t>
-  </si>
-  <si>
-    <t>Assets/BuildSource/ModelCharacters/BattleNpc/欧阳克.prefab</t>
-  </si>
-  <si>
-    <t>金轮法王</t>
-  </si>
-  <si>
-    <t>Assets/BuildSource/ModelCharacters/BattleNpc/金轮法王.prefab</t>
-  </si>
-  <si>
-    <t>程英</t>
-  </si>
-  <si>
-    <t>Assets/BuildSource/ModelCharacters/BattleNpc/程英.prefab</t>
-  </si>
-  <si>
-    <t>周伯通</t>
-  </si>
-  <si>
-    <t>Assets/BuildSource/ModelCharacters/BattleNpc/周伯通.prefab</t>
-  </si>
-  <si>
-    <t>一灯</t>
-  </si>
-  <si>
     <t>瑛姑</t>
   </si>
   <si>
@@ -587,6 +584,9 @@
     <t>明教弟子，原版数据有误</t>
   </si>
   <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/明教弟子.prefab</t>
+  </si>
+  <si>
     <t>华山弟子</t>
   </si>
   <si>
@@ -731,47 +731,38 @@
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/华山派弟子.prefab</t>
   </si>
   <si>
+    <t>神雕（无战斗）</t>
+  </si>
+  <si>
+    <t>神雕</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/雕.prefab</t>
+  </si>
+  <si>
     <t>掌柜（无战斗）</t>
   </si>
   <si>
+    <t>掌柜</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/StoryNpc/掌柜.prefab</t>
+  </si>
+  <si>
+    <t>店小二</t>
+  </si>
+  <si>
     <t>店小二（无战斗）</t>
   </si>
   <si>
-    <t>王语嫣</t>
-  </si>
-  <si>
-    <t>扫地僧</t>
-  </si>
-  <si>
-    <t>Assets/BuildSource/ModelCharacters/BattleNpc/扫地僧.prefab</t>
-  </si>
-  <si>
-    <t>韦小宝</t>
-  </si>
-  <si>
-    <t>Assets/BuildSource/ModelCharacters/BattleNpc/韦小宝.prefab</t>
-  </si>
-  <si>
-    <t>霍青桐</t>
-  </si>
-  <si>
-    <t>Assets/BuildSource/ModelCharacters/BattleNpc/霍青桐.prefab</t>
-  </si>
-  <si>
-    <t>霍青桐随从</t>
-  </si>
-  <si>
-    <t>Assets/BuildSource/ModelCharacters/BattleNpc/霍青桐随从.prefab</t>
-  </si>
-  <si>
-    <t>软体娃娃</t>
-  </si>
-  <si>
-    <t>店小二</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
       <t>Assets/BuildSource/ModelCharacters/</t>
     </r>
     <r>
@@ -804,53 +795,61 @@
       </rPr>
       <t>.prefab</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/BuildSource/ModelCharacters/StoryNpc/掌柜.prefab</t>
-  </si>
-  <si>
-    <t>掌柜</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>神雕（无战斗）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>神雕</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/BuildSource/ModelCharacters/BattleNpc/雕.prefab</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>遗书</t>
   </si>
   <si>
     <t>大夫</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/带锁链的医生.prefab</t>
+  </si>
+  <si>
+    <t>王语嫣</t>
   </si>
   <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/王语嫣.prefab</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/BuildSource/ModelCharacters/BattleNpc/带锁链的医生.prefab</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/BuildSource/ModelCharacters/BattleNpc/明教弟子.prefab</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/BuildSource/ModelCharacters/BattleNpc/成昆.prefab</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫地僧</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/扫地僧.prefab</t>
+  </si>
+  <si>
+    <t>韦小宝</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/韦小宝.prefab</t>
+  </si>
+  <si>
+    <t>霍青桐</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/霍青桐.prefab</t>
+  </si>
+  <si>
+    <t>霍青桐随从</t>
+  </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/霍青桐随从.prefab</t>
+  </si>
+  <si>
+    <t>软体娃娃</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -858,36 +857,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -898,21 +869,28 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <color indexed="17"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -921,36 +899,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79992065187536243"/>
+        <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39982299264503923"/>
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -960,41 +932,63 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="2" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="2" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="2" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="2" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1004,98 +998,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="8" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="4" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="4" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="11">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="4" builtinId="26"/>
-    <cellStyle name="普通" xfId="1" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="普通 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="普通 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="普通 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="好" xfId="1"/>
+    <cellStyle name="千位分隔" xfId="2" builtinId="3"/>
+    <cellStyle name="货币" xfId="3" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="百分比" xfId="5" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="6" builtinId="7"/>
+    <cellStyle name="普通" xfId="7"/>
+    <cellStyle name="普通 2" xfId="8"/>
+    <cellStyle name="普通 3" xfId="9"/>
+    <cellStyle name="普通 4" xfId="10"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -5648,71 +5636,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5897,7 +5885,6 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -5915,7 +5902,9 @@
         </a:gradFill>
         <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:srgbClr val="739CC3"/>
+            <a:srgbClr val="739CC3">
+              <a:alpha val="100000"/>
+            </a:srgbClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="200000"/>
@@ -5930,24 +5919,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:G134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="E109" sqref="E109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="24.88671875" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1"/>
-    <col min="6" max="6" width="74.77734375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="78.21875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="13.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="24.8833333333333" customWidth="1"/>
+    <col min="4" max="4" width="6.33333333333333" customWidth="1"/>
+    <col min="5" max="5" width="13.8833333333333" customWidth="1"/>
+    <col min="6" max="6" width="74.775" style="5" customWidth="1"/>
+    <col min="7" max="7" width="78.2166666666667" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -5970,7 +5960,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="7">
         <v>0</v>
       </c>
@@ -5985,7 +5975,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="3" ht="27" spans="1:7">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -6006,7 +5996,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -6025,7 +6015,7 @@
       </c>
       <c r="G4" s="12"/>
     </row>
-    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="5" ht="27" spans="1:7">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -6046,7 +6036,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -6064,7 +6054,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -6082,7 +6072,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="8" ht="27" spans="1:7">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -6103,7 +6093,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="9" ht="27" spans="1:7">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -6124,7 +6114,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -6142,7 +6132,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -6160,7 +6150,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" s="1" customFormat="1" spans="1:7">
       <c r="A12" s="14">
         <v>10</v>
       </c>
@@ -6179,7 +6169,7 @@
       </c>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="13" ht="27" spans="1:7">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -6200,7 +6190,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="7">
         <v>12</v>
       </c>
@@ -6218,7 +6208,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" s="1" customFormat="1" spans="1:7">
       <c r="A15" s="14">
         <v>13</v>
       </c>
@@ -6237,7 +6227,7 @@
       </c>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="7">
         <v>14</v>
       </c>
@@ -6255,7 +6245,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -6275,7 +6265,7 @@
       </c>
       <c r="G17" s="12"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="7">
         <v>16</v>
       </c>
@@ -6293,7 +6283,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" s="2" customFormat="1" spans="1:7">
       <c r="A19" s="7">
         <v>17</v>
       </c>
@@ -6312,7 +6302,7 @@
       </c>
       <c r="G19" s="12"/>
     </row>
-    <row r="20" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" s="1" customFormat="1" spans="1:7">
       <c r="A20" s="14">
         <v>18</v>
       </c>
@@ -6326,12 +6316,12 @@
       <c r="E20" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="34" t="s">
-        <v>245</v>
+      <c r="F20" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="21" ht="27" spans="1:7">
       <c r="A21" s="7">
         <v>19</v>
       </c>
@@ -6352,7 +6342,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="22" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A22" s="14">
         <v>20</v>
       </c>
@@ -6373,7 +6363,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" s="2" customFormat="1" spans="1:7">
       <c r="A23" s="7">
         <v>21</v>
       </c>
@@ -6392,7 +6382,7 @@
       </c>
       <c r="G23" s="12"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="7">
         <v>22</v>
       </c>
@@ -6410,7 +6400,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="25" ht="27" spans="1:7">
       <c r="A25" s="7">
         <v>23</v>
       </c>
@@ -6431,7 +6421,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="7">
         <v>24</v>
       </c>
@@ -6449,7 +6439,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="7">
         <v>25</v>
       </c>
@@ -6468,7 +6458,7 @@
       </c>
       <c r="G27" s="12"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="7">
         <v>26</v>
       </c>
@@ -6486,7 +6476,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="7">
         <v>27</v>
       </c>
@@ -6504,7 +6494,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="7">
         <v>28</v>
       </c>
@@ -6523,7 +6513,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="31" ht="27" spans="1:7">
       <c r="A31" s="7">
         <v>29</v>
       </c>
@@ -6544,7 +6534,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="7">
         <v>30</v>
       </c>
@@ -6563,7 +6553,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="7">
         <v>31</v>
       </c>
@@ -6581,7 +6571,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="7">
         <v>32</v>
       </c>
@@ -6599,7 +6589,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="7">
         <v>33</v>
       </c>
@@ -6617,7 +6607,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="7">
         <v>34</v>
       </c>
@@ -6635,7 +6625,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="37" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A37" s="14">
         <v>35</v>
       </c>
@@ -6656,7 +6646,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="38" ht="27" spans="1:7">
       <c r="A38" s="7">
         <v>36</v>
       </c>
@@ -6677,7 +6667,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="39" ht="27" spans="1:7">
       <c r="A39" s="7">
         <v>37</v>
       </c>
@@ -6698,7 +6688,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" s="7">
         <v>38</v>
       </c>
@@ -6716,45 +6706,45 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="16">
+    <row r="41" spans="1:6">
+      <c r="A41" s="17">
         <v>39</v>
       </c>
-      <c r="B41" s="17" t="str">
+      <c r="B41" s="18" t="str">
         <f>VLOOKUP(A41,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>龙岛主</v>
       </c>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18">
+      <c r="C41" s="19"/>
+      <c r="D41" s="19">
         <v>39</v>
       </c>
-      <c r="E41" s="17" t="s">
+      <c r="E41" s="18" t="s">
         <v>92</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="16">
+    <row r="42" spans="1:6">
+      <c r="A42" s="17">
         <v>40</v>
       </c>
-      <c r="B42" s="17" t="str">
+      <c r="B42" s="18" t="str">
         <f>VLOOKUP(A42,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>木岛主</v>
       </c>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18">
+      <c r="C42" s="19"/>
+      <c r="D42" s="19">
         <v>40</v>
       </c>
-      <c r="E42" s="17" t="s">
+      <c r="E42" s="18" t="s">
         <v>94</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43" s="7">
         <v>41</v>
       </c>
@@ -6773,7 +6763,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44" s="7">
         <v>42</v>
       </c>
@@ -6792,7 +6782,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="45" ht="27" spans="1:7">
       <c r="A45" s="7">
         <v>43</v>
       </c>
@@ -6813,7 +6803,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="A46" s="7">
         <v>44</v>
       </c>
@@ -6831,7 +6821,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="A47" s="7">
         <v>45</v>
       </c>
@@ -6849,7 +6839,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48" s="7">
         <v>46</v>
       </c>
@@ -6867,7 +6857,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="7">
         <v>47</v>
       </c>
@@ -6886,7 +6876,7 @@
       </c>
       <c r="G49" s="12"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="A50" s="7">
         <v>48</v>
       </c>
@@ -6904,7 +6894,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" s="1" customFormat="1" spans="1:7">
       <c r="A51" s="14">
         <v>49</v>
       </c>
@@ -6923,7 +6913,7 @@
       </c>
       <c r="G51" s="6"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="A52" s="7">
         <v>50</v>
       </c>
@@ -6941,7 +6931,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="53" ht="27" spans="1:7">
       <c r="A53" s="7">
         <v>51</v>
       </c>
@@ -6962,7 +6952,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6">
       <c r="A54" s="7">
         <v>52</v>
       </c>
@@ -6980,7 +6970,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6">
       <c r="A55" s="7">
         <v>53</v>
       </c>
@@ -6998,7 +6988,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="56" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A56" s="14">
         <v>54</v>
       </c>
@@ -7019,7 +7009,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6">
       <c r="A57" s="7">
         <v>55</v>
       </c>
@@ -7037,19 +7027,19 @@
         <v>126</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A58" s="19">
+    <row r="58" s="3" customFormat="1" ht="27" spans="1:7">
+      <c r="A58" s="20">
         <v>56</v>
       </c>
-      <c r="B58" s="20" t="str">
+      <c r="B58" s="21" t="str">
         <f>VLOOKUP(A58,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>黄蓉</v>
       </c>
-      <c r="C58" s="21"/>
+      <c r="C58" s="22"/>
       <c r="D58" s="2">
         <v>56</v>
       </c>
-      <c r="E58" s="20" t="s">
+      <c r="E58" s="21" t="s">
         <v>127</v>
       </c>
       <c r="F58" s="11" t="s">
@@ -7059,19 +7049,19 @@
         <v>129</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A59" s="19">
+    <row r="59" s="3" customFormat="1" ht="27" spans="1:7">
+      <c r="A59" s="20">
         <v>57</v>
       </c>
-      <c r="B59" s="20" t="str">
+      <c r="B59" s="21" t="str">
         <f>VLOOKUP(A59,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>黄药师</v>
       </c>
-      <c r="C59" s="21"/>
+      <c r="C59" s="22"/>
       <c r="D59" s="2">
         <v>57</v>
       </c>
-      <c r="E59" s="20" t="s">
+      <c r="E59" s="21" t="s">
         <v>130</v>
       </c>
       <c r="F59" s="5" t="s">
@@ -7081,7 +7071,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="60" ht="27" spans="1:7">
       <c r="A60" s="7">
         <v>58</v>
       </c>
@@ -7102,7 +7092,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" s="7">
         <v>59</v>
       </c>
@@ -7121,7 +7111,7 @@
       </c>
       <c r="G61" s="12"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6">
       <c r="A62" s="7">
         <v>60</v>
       </c>
@@ -7140,7 +7130,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6">
       <c r="A63" s="7">
         <v>61</v>
       </c>
@@ -7158,7 +7148,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6">
       <c r="A64" s="7">
         <v>62</v>
       </c>
@@ -7176,27 +7166,27 @@
         <v>143</v>
       </c>
     </row>
-    <row r="65" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="19">
+    <row r="65" s="3" customFormat="1" spans="1:7">
+      <c r="A65" s="20">
         <v>63</v>
       </c>
-      <c r="B65" s="20" t="str">
+      <c r="B65" s="21" t="str">
         <f>VLOOKUP(A65,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>程英</v>
       </c>
-      <c r="C65" s="21"/>
+      <c r="C65" s="22"/>
       <c r="D65" s="2">
         <v>63</v>
       </c>
-      <c r="E65" s="20" t="s">
+      <c r="E65" s="21" t="s">
         <v>144</v>
       </c>
       <c r="F65" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="G65" s="22"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G65" s="23"/>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="7">
         <v>64</v>
       </c>
@@ -7215,7 +7205,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6">
       <c r="A67" s="7">
         <v>65</v>
       </c>
@@ -7230,10 +7220,10 @@
         <v>148</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="7">
         <v>66</v>
       </c>
@@ -7245,14 +7235,14 @@
         <v>66</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G68" s="12"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6">
       <c r="A69" s="7">
         <v>67</v>
       </c>
@@ -7264,13 +7254,13 @@
         <v>67</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="7">
         <v>68</v>
       </c>
@@ -7282,33 +7272,33 @@
         <v>68</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="19">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="71" s="3" customFormat="1" spans="1:7">
+      <c r="A71" s="20">
         <v>69</v>
       </c>
-      <c r="B71" s="20" t="str">
+      <c r="B71" s="21" t="str">
         <f>VLOOKUP(A71,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>洪七公</v>
       </c>
-      <c r="C71" s="21"/>
+      <c r="C71" s="22"/>
       <c r="D71" s="2">
         <v>69</v>
       </c>
-      <c r="E71" s="20" t="s">
-        <v>155</v>
+      <c r="E71" s="21" t="s">
+        <v>156</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="G71" s="23"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="G71" s="24"/>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="7">
         <v>70</v>
       </c>
@@ -7320,13 +7310,13 @@
         <v>70</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="7">
         <v>71</v>
       </c>
@@ -7338,32 +7328,32 @@
         <v>71</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="16">
+    <row r="74" spans="1:6">
+      <c r="A74" s="17">
         <v>72</v>
       </c>
-      <c r="B74" s="17" t="str">
+      <c r="B74" s="18" t="str">
         <f>VLOOKUP(A74,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>孔八拉</v>
       </c>
-      <c r="C74" s="18"/>
-      <c r="D74" s="18">
+      <c r="C74" s="19"/>
+      <c r="D74" s="19">
         <v>72</v>
       </c>
-      <c r="E74" s="17" t="s">
-        <v>159</v>
+      <c r="E74" s="18" t="s">
+        <v>160</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6">
       <c r="A75" s="7">
         <v>73</v>
       </c>
@@ -7375,13 +7365,13 @@
         <v>73</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6">
       <c r="A76" s="7">
         <v>74</v>
       </c>
@@ -7393,13 +7383,13 @@
         <v>74</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="7">
         <v>75</v>
       </c>
@@ -7412,13 +7402,13 @@
         <v>75</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="7">
         <v>76</v>
       </c>
@@ -7431,13 +7421,13 @@
         <v>76</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="7">
         <v>77</v>
       </c>
@@ -7450,13 +7440,13 @@
         <v>77</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="7">
         <v>78</v>
       </c>
@@ -7468,13 +7458,13 @@
         <v>78</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="7">
         <v>79</v>
       </c>
@@ -7483,7 +7473,7 @@
         <v>崆峒弟子</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D81" s="2">
         <v>79</v>
@@ -7493,10 +7483,10 @@
         <v>崆峒弟子</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="7">
         <v>80</v>
       </c>
@@ -7505,7 +7495,7 @@
         <v>明教弟子</v>
       </c>
       <c r="C82" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D82">
         <v>80</v>
@@ -7515,30 +7505,30 @@
         <v>明教弟子</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="19">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="83" s="3" customFormat="1" spans="1:7">
+      <c r="A83" s="20">
         <v>81</v>
       </c>
-      <c r="B83" s="20" t="str">
+      <c r="B83" s="21" t="str">
         <f>VLOOKUP(A83,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>华山弟子</v>
       </c>
-      <c r="C83" s="21"/>
-      <c r="D83" s="21">
+      <c r="C83" s="22"/>
+      <c r="D83" s="22">
         <v>81</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="G83" s="23"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="G83" s="24"/>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="7">
         <v>82</v>
       </c>
@@ -7550,13 +7540,13 @@
         <v>82</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="7">
         <v>83</v>
       </c>
@@ -7569,13 +7559,13 @@
         <v>83</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="7">
         <v>84</v>
       </c>
@@ -7588,13 +7578,13 @@
         <v>84</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="7">
         <v>85</v>
       </c>
@@ -7607,13 +7597,13 @@
         <v>85</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="7">
         <v>86</v>
       </c>
@@ -7625,13 +7615,13 @@
         <v>86</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="7">
         <v>87</v>
       </c>
@@ -7644,13 +7634,13 @@
         <v>87</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="7">
         <v>88</v>
       </c>
@@ -7663,13 +7653,13 @@
         <v>88</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="7">
         <v>89</v>
       </c>
@@ -7678,19 +7668,19 @@
         <v>#N/A</v>
       </c>
       <c r="C91" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D91">
         <v>89</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="7">
         <v>90</v>
       </c>
@@ -7702,13 +7692,13 @@
         <v>90</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="7">
         <v>91</v>
       </c>
@@ -7720,13 +7710,13 @@
         <v>91</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="7">
         <v>92</v>
       </c>
@@ -7738,13 +7728,13 @@
         <v>92</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="7">
         <v>93</v>
       </c>
@@ -7756,13 +7746,13 @@
         <v>93</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="7">
         <v>94</v>
       </c>
@@ -7775,13 +7765,13 @@
         <v>94</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="7">
         <v>95</v>
       </c>
@@ -7794,13 +7784,13 @@
         <v>95</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="7">
         <v>96</v>
       </c>
@@ -7812,13 +7802,13 @@
         <v>96</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="7">
         <v>97</v>
       </c>
@@ -7830,32 +7820,32 @@
         <v>97</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="24">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="100" s="4" customFormat="1" spans="1:7">
+      <c r="A100" s="25">
         <v>98</v>
       </c>
-      <c r="B100" s="25" t="str">
+      <c r="B100" s="26" t="str">
         <f>VLOOKUP(A100,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>巨蟒</v>
       </c>
       <c r="D100">
         <v>98</v>
       </c>
-      <c r="E100" s="25" t="s">
-        <v>209</v>
+      <c r="E100" s="26" t="s">
+        <v>211</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G100" s="6"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6">
       <c r="A101" s="7">
         <v>99</v>
       </c>
@@ -7867,51 +7857,51 @@
         <v>99</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="24">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="102" s="4" customFormat="1" spans="1:7">
+      <c r="A102" s="25">
         <v>100</v>
       </c>
-      <c r="B102" s="25" t="str">
+      <c r="B102" s="26" t="str">
         <f>VLOOKUP(A102,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>大鳄鱼</v>
       </c>
       <c r="D102">
         <v>100</v>
       </c>
-      <c r="E102" s="25" t="s">
-        <v>213</v>
+      <c r="E102" s="26" t="s">
+        <v>215</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G102" s="6"/>
     </row>
-    <row r="103" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="26">
+    <row r="103" s="3" customFormat="1" spans="1:7">
+      <c r="A103" s="27">
         <v>101</v>
       </c>
-      <c r="B103" s="27" t="str">
+      <c r="B103" s="28" t="str">
         <f>VLOOKUP(A103,[1]Sheet1!$B:$E,4,FALSE)</f>
         <v>大蜘蛛</v>
       </c>
       <c r="D103">
         <v>101</v>
       </c>
-      <c r="E103" s="27" t="s">
-        <v>215</v>
-      </c>
-      <c r="F103" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="G103" s="23"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E103" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="F103" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="G103" s="24"/>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="7">
         <v>102</v>
       </c>
@@ -7924,13 +7914,13 @@
         <v>102</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="F104" s="29" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+      <c r="F104" s="30" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105" s="7">
         <v>103</v>
       </c>
@@ -7939,19 +7929,19 @@
         <v>#N/A</v>
       </c>
       <c r="C105" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D105">
         <v>103</v>
       </c>
       <c r="E105" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106" s="7">
         <v>104</v>
       </c>
@@ -7960,19 +7950,19 @@
         <v>#N/A</v>
       </c>
       <c r="C106" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="D106">
         <v>104</v>
       </c>
       <c r="E106" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="F106" s="31" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107" s="7">
         <v>105</v>
       </c>
@@ -7981,39 +7971,39 @@
         <v>#N/A</v>
       </c>
       <c r="C107" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="D107">
         <v>105</v>
       </c>
       <c r="E107" s="32" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108" s="7">
         <v>106</v>
       </c>
-      <c r="B108" s="30" t="s">
-        <v>234</v>
+      <c r="B108" s="8" t="s">
+        <v>230</v>
       </c>
       <c r="C108" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="D108">
         <v>106</v>
       </c>
       <c r="E108" s="32" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F108" s="31" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109" s="7">
         <v>107</v>
       </c>
@@ -8025,30 +8015,30 @@
         <v>107</v>
       </c>
       <c r="E109" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110" s="7">
         <v>108</v>
       </c>
-      <c r="B110" s="30" t="s">
-        <v>241</v>
+      <c r="B110" s="8" t="s">
+        <v>234</v>
       </c>
       <c r="D110">
         <v>108</v>
       </c>
       <c r="E110" s="32" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="F110" s="31" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111" s="7">
         <v>109</v>
       </c>
@@ -8060,14 +8050,14 @@
         <v>109</v>
       </c>
       <c r="E111" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="F111" s="33" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G111" s="12"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6">
       <c r="A112" s="7">
         <v>110</v>
       </c>
@@ -8076,19 +8066,19 @@
         <v>#N/A</v>
       </c>
       <c r="C112" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="D112">
         <v>110</v>
       </c>
       <c r="E112" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113" s="7">
         <v>111</v>
       </c>
@@ -8097,19 +8087,19 @@
         <v>#N/A</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="D113" s="2">
         <v>111</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114" s="7">
         <v>112</v>
       </c>
@@ -8118,19 +8108,19 @@
         <v>#N/A</v>
       </c>
       <c r="C114" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="D114">
         <v>112</v>
       </c>
       <c r="E114" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115" s="7">
         <v>113</v>
       </c>
@@ -8139,19 +8129,19 @@
         <v>#N/A</v>
       </c>
       <c r="C115" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="D115">
         <v>113</v>
       </c>
       <c r="E115" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
       <c r="A116" s="7">
         <v>114</v>
       </c>
@@ -8160,19 +8150,19 @@
         <v>#N/A</v>
       </c>
       <c r="C116" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="D116">
         <v>114</v>
       </c>
       <c r="E116" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117" s="7">
         <v>115</v>
       </c>
@@ -8184,13 +8174,13 @@
         <v>115</v>
       </c>
       <c r="E117" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118" s="7">
         <v>116</v>
       </c>
@@ -8202,13 +8192,13 @@
         <v>116</v>
       </c>
       <c r="E118" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
       <c r="A119" s="7">
         <v>117</v>
       </c>
@@ -8220,13 +8210,13 @@
         <v>117</v>
       </c>
       <c r="E119" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120" s="7">
         <v>118</v>
       </c>
@@ -8238,13 +8228,13 @@
         <v>118</v>
       </c>
       <c r="E120" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121" s="7">
         <v>119</v>
       </c>
@@ -8256,13 +8246,13 @@
         <v>119</v>
       </c>
       <c r="E121" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
       <c r="A122" s="7">
         <v>120</v>
       </c>
@@ -8274,13 +8264,13 @@
         <v>120</v>
       </c>
       <c r="E122" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123" s="7">
         <v>121</v>
       </c>
@@ -8292,13 +8282,13 @@
         <v>121</v>
       </c>
       <c r="E123" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124" s="7">
         <v>122</v>
       </c>
@@ -8310,13 +8300,13 @@
         <v>122</v>
       </c>
       <c r="E124" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
       <c r="A125" s="7">
         <v>123</v>
       </c>
@@ -8328,13 +8318,13 @@
         <v>123</v>
       </c>
       <c r="E125" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126" s="7">
         <v>124</v>
       </c>
@@ -8346,13 +8336,13 @@
         <v>124</v>
       </c>
       <c r="E126" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127" s="7">
         <v>125</v>
       </c>
@@ -8364,13 +8354,13 @@
         <v>125</v>
       </c>
       <c r="E127" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128" s="7">
         <v>126</v>
       </c>
@@ -8382,13 +8372,13 @@
         <v>126</v>
       </c>
       <c r="E128" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129" s="7">
         <v>127</v>
       </c>
@@ -8400,13 +8390,13 @@
         <v>127</v>
       </c>
       <c r="E129" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130" s="7">
         <v>128</v>
       </c>
@@ -8418,13 +8408,13 @@
         <v>128</v>
       </c>
       <c r="E130" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131" s="7">
         <v>129</v>
       </c>
@@ -8436,13 +8426,13 @@
         <v>129</v>
       </c>
       <c r="E131" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132" s="7">
         <v>130</v>
       </c>
@@ -8454,13 +8444,13 @@
         <v>130</v>
       </c>
       <c r="E132" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
       <c r="A133" s="7">
         <v>131</v>
       </c>
@@ -8472,13 +8462,13 @@
         <v>131</v>
       </c>
       <c r="E133" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
       <c r="A134">
         <v>10000</v>
       </c>
@@ -8486,17 +8476,17 @@
         <v>10000</v>
       </c>
       <c r="E134" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G134" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <autoFilter ref="A1:G134"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/jyx2/excel/头像模型映射.xlsx
+++ b/jyx2/excel/头像模型映射.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28680" windowHeight="13660"/>
+    <workbookView windowHeight="17860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,11 +30,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">已经废弃，模型配置确认没问题就删除</t>
+          <t>已经废弃，模型配置确认没问题就删除</t>
         </r>
       </text>
     </comment>
@@ -43,7 +42,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -57,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="247">
   <si>
     <t>代号</t>
   </si>
@@ -716,7 +714,7 @@
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/火蜘蛛.prefab</t>
   </si>
   <si>
-    <t>蟒牯朱蛤</t>
+    <t>莽牯朱蛤</t>
   </si>
   <si>
     <t>Assets/BuildSource/ModelCharacters/Animals/frog_prefab.prefab</t>
@@ -760,7 +758,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Assets/BuildSource/ModelCharacters/</t>
@@ -770,7 +767,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>StoryNpc/</t>
@@ -780,7 +776,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>店小二</t>
@@ -790,7 +785,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.prefab</t>
@@ -845,16 +839,59 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -863,34 +900,148 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="17"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -921,8 +1072,188 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -932,16 +1263,31 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -949,46 +1295,248 @@
       <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="2" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="2" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="2" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="2" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -998,7 +1546,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="34">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
@@ -1010,75 +1558,125 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="14" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="8" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="14" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="34" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="34" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="34" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="34" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="34" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="34" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="34" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="34" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="34" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="53">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1"/>
-    <cellStyle name="千位分隔" xfId="2" builtinId="3"/>
-    <cellStyle name="货币" xfId="3" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="百分比" xfId="5" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="6" builtinId="7"/>
-    <cellStyle name="普通" xfId="7"/>
-    <cellStyle name="普通 2" xfId="8"/>
-    <cellStyle name="普通 3" xfId="9"/>
-    <cellStyle name="普通 4" xfId="10"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="普通" xfId="11"/>
+    <cellStyle name="百分比" xfId="12" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
+    <cellStyle name="普通 2" xfId="14"/>
+    <cellStyle name="注释" xfId="15" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
+    <cellStyle name="标题" xfId="19" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
+    <cellStyle name="普通 4" xfId="21"/>
+    <cellStyle name="标题 1" xfId="22" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
+    <cellStyle name="输出" xfId="27" builtinId="21"/>
+    <cellStyle name="计算" xfId="28" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
+    <cellStyle name="汇总" xfId="33" builtinId="25"/>
+    <cellStyle name="好" xfId="34" builtinId="26"/>
+    <cellStyle name="适中" xfId="35" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="42" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="43" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="44" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="45" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="48" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="49" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="50" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="51" builtinId="52"/>
+    <cellStyle name="普通 3" xfId="52"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2207,7 +2805,7 @@
             <v>0</v>
           </cell>
           <cell r="E80" t="str">
-            <v>蟒牯朱蛤</v>
+            <v>莽牯朱蛤</v>
           </cell>
         </row>
         <row r="81">
@@ -5636,71 +6234,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5914,27 +6512,26 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="E109" sqref="E109"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="13.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="24.8833333333333" customWidth="1"/>
-    <col min="4" max="4" width="6.33333333333333" customWidth="1"/>
-    <col min="5" max="5" width="13.8833333333333" customWidth="1"/>
-    <col min="6" max="6" width="74.775" style="5" customWidth="1"/>
-    <col min="7" max="7" width="78.2166666666667" style="6" customWidth="1"/>
+    <col min="2" max="2" width="13.3363636363636" customWidth="1"/>
+    <col min="3" max="3" width="24.8818181818182" customWidth="1"/>
+    <col min="4" max="4" width="6.33636363636364" customWidth="1"/>
+    <col min="5" max="5" width="13.8818181818182" customWidth="1"/>
+    <col min="6" max="6" width="74.7727272727273" style="5" customWidth="1"/>
+    <col min="7" max="7" width="78.2181818181818" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -5975,7 +6572,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="27" spans="1:7">
+    <row r="3" ht="28" spans="1:7">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -6015,7 +6612,7 @@
       </c>
       <c r="G4" s="12"/>
     </row>
-    <row r="5" ht="27" spans="1:7">
+    <row r="5" ht="28" spans="1:7">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -6072,7 +6669,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" ht="27" spans="1:7">
+    <row r="8" ht="28" spans="1:7">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -6093,7 +6690,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" ht="27" spans="1:7">
+    <row r="9" ht="28" spans="1:7">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -6169,7 +6766,7 @@
       </c>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" ht="27" spans="1:7">
+    <row r="13" ht="28" spans="1:7">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -6321,7 +6918,7 @@
       </c>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" ht="27" spans="1:7">
+    <row r="21" ht="28" spans="1:7">
       <c r="A21" s="7">
         <v>19</v>
       </c>
@@ -6342,7 +6939,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="27" spans="1:7">
+    <row r="22" s="1" customFormat="1" ht="28" spans="1:7">
       <c r="A22" s="14">
         <v>20</v>
       </c>
@@ -6400,7 +6997,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" ht="27" spans="1:7">
+    <row r="25" ht="28" spans="1:7">
       <c r="A25" s="7">
         <v>23</v>
       </c>
@@ -6513,7 +7110,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" ht="27" spans="1:7">
+    <row r="31" ht="28" spans="1:7">
       <c r="A31" s="7">
         <v>29</v>
       </c>
@@ -6625,7 +7222,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" ht="27" spans="1:7">
+    <row r="37" s="1" customFormat="1" ht="28" spans="1:7">
       <c r="A37" s="14">
         <v>35</v>
       </c>
@@ -6646,7 +7243,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="38" ht="27" spans="1:7">
+    <row r="38" ht="28" spans="1:7">
       <c r="A38" s="7">
         <v>36</v>
       </c>
@@ -6667,7 +7264,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="39" ht="27" spans="1:7">
+    <row r="39" ht="28" spans="1:7">
       <c r="A39" s="7">
         <v>37</v>
       </c>
@@ -6782,7 +7379,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="45" ht="27" spans="1:7">
+    <row r="45" ht="28" spans="1:7">
       <c r="A45" s="7">
         <v>43</v>
       </c>
@@ -6931,7 +7528,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="53" ht="27" spans="1:7">
+    <row r="53" ht="28" spans="1:7">
       <c r="A53" s="7">
         <v>51</v>
       </c>
@@ -6988,7 +7585,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="56" s="1" customFormat="1" ht="27" spans="1:7">
+    <row r="56" s="1" customFormat="1" ht="28" spans="1:7">
       <c r="A56" s="14">
         <v>54</v>
       </c>
@@ -7027,7 +7624,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="58" s="3" customFormat="1" ht="27" spans="1:7">
+    <row r="58" s="3" customFormat="1" ht="28" spans="1:7">
       <c r="A58" s="20">
         <v>56</v>
       </c>
@@ -7049,7 +7646,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="59" s="3" customFormat="1" ht="27" spans="1:7">
+    <row r="59" s="3" customFormat="1" ht="28" spans="1:7">
       <c r="A59" s="20">
         <v>57</v>
       </c>
@@ -7071,7 +7668,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="60" ht="27" spans="1:7">
+    <row r="60" ht="28" spans="1:7">
       <c r="A60" s="7">
         <v>58</v>
       </c>
@@ -7905,18 +8502,18 @@
       <c r="A104" s="7">
         <v>102</v>
       </c>
-      <c r="B104" s="9" t="str">
+      <c r="B104" s="30" t="str">
         <f>VLOOKUP(A104,[1]Sheet1!$B:$E,4,FALSE)</f>
-        <v>蟒牯朱蛤</v>
+        <v>莽牯朱蛤</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2">
         <v>102</v>
       </c>
-      <c r="E104" s="9" t="s">
+      <c r="E104" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="F104" s="30" t="s">
+      <c r="F104" s="32" t="s">
         <v>220</v>
       </c>
     </row>
@@ -7958,7 +8555,7 @@
       <c r="E106" t="s">
         <v>225</v>
       </c>
-      <c r="F106" s="31" t="s">
+      <c r="F106" s="33" t="s">
         <v>226</v>
       </c>
     </row>
@@ -7976,7 +8573,7 @@
       <c r="D107">
         <v>105</v>
       </c>
-      <c r="E107" s="32" t="s">
+      <c r="E107" s="34" t="s">
         <v>228</v>
       </c>
       <c r="F107" s="5" t="s">
@@ -7996,10 +8593,10 @@
       <c r="D108">
         <v>106</v>
       </c>
-      <c r="E108" s="32" t="s">
+      <c r="E108" s="34" t="s">
         <v>230</v>
       </c>
-      <c r="F108" s="31" t="s">
+      <c r="F108" s="33" t="s">
         <v>232</v>
       </c>
     </row>
@@ -8031,10 +8628,10 @@
       <c r="D110">
         <v>108</v>
       </c>
-      <c r="E110" s="32" t="s">
+      <c r="E110" s="34" t="s">
         <v>234</v>
       </c>
-      <c r="F110" s="31" t="s">
+      <c r="F110" s="33" t="s">
         <v>235</v>
       </c>
     </row>
@@ -8052,7 +8649,7 @@
       <c r="E111" t="s">
         <v>236</v>
       </c>
-      <c r="F111" s="33" t="s">
+      <c r="F111" s="35" t="s">
         <v>237</v>
       </c>
       <c r="G111" s="12"/>
@@ -8483,7 +9080,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G134"/>
+  <autoFilter ref="A1:G134">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>

--- a/jyx2/excel/头像模型映射.xlsx
+++ b/jyx2/excel/头像模型映射.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4381ED65-8F2C-4B27-837C-51B2CD078016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="17860"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,17 +21,26 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$134</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>CGGG</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -37,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -55,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="248">
   <si>
     <t>代号</t>
   </si>
@@ -636,9 +651,6 @@
     <t>白驼山女弟子</t>
   </si>
   <si>
-    <t>欧阳克婢女</t>
-  </si>
-  <si>
     <t>Assets/BuildSource/ModelCharacters/BattleNpc/欧阳克婢女.prefab</t>
   </si>
   <si>
@@ -667,9 +679,6 @@
   </si>
   <si>
     <t>铁掌弟子</t>
-  </si>
-  <si>
-    <t>Assets/BuildSource/ModelCharacters/BattleNpc/铁掌弟子.prefab</t>
   </si>
   <si>
     <t>全真弟子</t>
@@ -832,18 +841,24 @@
   <si>
     <t>软体娃娃</t>
   </si>
+  <si>
+    <t>Assets/BuildSource/ModelCharacters/BattleNpc/铁掌弟子.prefab</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>千年冰蚕</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧阳克婢女</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -860,7 +875,7 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -878,7 +893,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -887,161 +902,19 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1072,188 +945,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1276,267 +969,28 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1546,7 +1000,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="34">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
@@ -1564,10 +1018,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="14" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="14" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
@@ -1583,27 +1037,27 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="34" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="34" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="34" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="34" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="34" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="34" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="34" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="34" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="4" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="4" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="34" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1612,76 +1066,34 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="普通" xfId="11"/>
-    <cellStyle name="百分比" xfId="12" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
-    <cellStyle name="普通 2" xfId="14"/>
-    <cellStyle name="注释" xfId="15" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
-    <cellStyle name="标题" xfId="19" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
-    <cellStyle name="普通 4" xfId="21"/>
-    <cellStyle name="标题 1" xfId="22" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
-    <cellStyle name="输出" xfId="27" builtinId="21"/>
-    <cellStyle name="计算" xfId="28" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
-    <cellStyle name="汇总" xfId="33" builtinId="25"/>
-    <cellStyle name="好" xfId="34" builtinId="26"/>
-    <cellStyle name="适中" xfId="35" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="42" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="43" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="44" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="45" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="48" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="49" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="50" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="51" builtinId="52"/>
-    <cellStyle name="普通 3" xfId="52"/>
+    <cellStyle name="好" xfId="4" builtinId="26"/>
+    <cellStyle name="普通" xfId="1" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="普通 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="普通 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="普通 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -6483,6 +5895,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -6512,29 +5925,29 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F104" sqref="F104"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.3363636363636" customWidth="1"/>
-    <col min="3" max="3" width="24.8818181818182" customWidth="1"/>
-    <col min="4" max="4" width="6.33636363636364" customWidth="1"/>
-    <col min="5" max="5" width="13.8818181818182" customWidth="1"/>
-    <col min="6" max="6" width="74.7727272727273" style="5" customWidth="1"/>
-    <col min="7" max="7" width="78.2181818181818" style="6" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="74.77734375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="78.21875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -6557,7 +5970,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>0</v>
       </c>
@@ -6572,7 +5985,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="28" spans="1:7">
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -6593,7 +6006,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -6612,7 +6025,7 @@
       </c>
       <c r="G4" s="12"/>
     </row>
-    <row r="5" ht="28" spans="1:7">
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -6633,7 +6046,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -6651,7 +6064,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -6669,7 +6082,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" ht="28" spans="1:7">
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -6690,7 +6103,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" ht="28" spans="1:7">
+    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -6711,7 +6124,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -6729,7 +6142,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -6747,7 +6160,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:7">
+    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>10</v>
       </c>
@@ -6766,7 +6179,7 @@
       </c>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" ht="28" spans="1:7">
+    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -6787,7 +6200,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>12</v>
       </c>
@@ -6805,7 +6218,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:7">
+    <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>13</v>
       </c>
@@ -6824,7 +6237,7 @@
       </c>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>14</v>
       </c>
@@ -6842,7 +6255,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -6862,7 +6275,7 @@
       </c>
       <c r="G17" s="12"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>16</v>
       </c>
@@ -6880,7 +6293,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" s="2" customFormat="1" spans="1:7">
+    <row r="19" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>17</v>
       </c>
@@ -6899,7 +6312,7 @@
       </c>
       <c r="G19" s="12"/>
     </row>
-    <row r="20" s="1" customFormat="1" spans="1:7">
+    <row r="20" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>18</v>
       </c>
@@ -6918,7 +6331,7 @@
       </c>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" ht="28" spans="1:7">
+    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>19</v>
       </c>
@@ -6939,7 +6352,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="28" spans="1:7">
+    <row r="22" spans="1:7" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>20</v>
       </c>
@@ -6960,7 +6373,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" s="2" customFormat="1" spans="1:7">
+    <row r="23" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>21</v>
       </c>
@@ -6979,7 +6392,7 @@
       </c>
       <c r="G23" s="12"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>22</v>
       </c>
@@ -6997,7 +6410,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" ht="28" spans="1:7">
+    <row r="25" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>23</v>
       </c>
@@ -7018,7 +6431,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>24</v>
       </c>
@@ -7036,7 +6449,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>25</v>
       </c>
@@ -7055,7 +6468,7 @@
       </c>
       <c r="G27" s="12"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>26</v>
       </c>
@@ -7073,7 +6486,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>27</v>
       </c>
@@ -7091,7 +6504,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>28</v>
       </c>
@@ -7110,7 +6523,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" ht="28" spans="1:7">
+    <row r="31" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>29</v>
       </c>
@@ -7131,7 +6544,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>30</v>
       </c>
@@ -7150,7 +6563,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>31</v>
       </c>
@@ -7168,7 +6581,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>32</v>
       </c>
@@ -7186,7 +6599,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>33</v>
       </c>
@@ -7204,7 +6617,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>34</v>
       </c>
@@ -7222,7 +6635,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" ht="28" spans="1:7">
+    <row r="37" spans="1:7" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
         <v>35</v>
       </c>
@@ -7243,7 +6656,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="38" ht="28" spans="1:7">
+    <row r="38" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>36</v>
       </c>
@@ -7264,7 +6677,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="39" ht="28" spans="1:7">
+    <row r="39" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>37</v>
       </c>
@@ -7285,7 +6698,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>38</v>
       </c>
@@ -7303,7 +6716,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="17">
         <v>39</v>
       </c>
@@ -7322,7 +6735,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="17">
         <v>40</v>
       </c>
@@ -7341,7 +6754,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>41</v>
       </c>
@@ -7360,7 +6773,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>42</v>
       </c>
@@ -7379,7 +6792,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="45" ht="28" spans="1:7">
+    <row r="45" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>43</v>
       </c>
@@ -7400,7 +6813,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>44</v>
       </c>
@@ -7418,7 +6831,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>45</v>
       </c>
@@ -7436,7 +6849,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>46</v>
       </c>
@@ -7454,7 +6867,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>47</v>
       </c>
@@ -7473,7 +6886,7 @@
       </c>
       <c r="G49" s="12"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>48</v>
       </c>
@@ -7491,7 +6904,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="51" s="1" customFormat="1" spans="1:7">
+    <row r="51" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
         <v>49</v>
       </c>
@@ -7510,7 +6923,7 @@
       </c>
       <c r="G51" s="6"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>50</v>
       </c>
@@ -7528,7 +6941,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="53" ht="28" spans="1:7">
+    <row r="53" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>51</v>
       </c>
@@ -7549,7 +6962,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>52</v>
       </c>
@@ -7567,7 +6980,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>53</v>
       </c>
@@ -7585,7 +6998,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="56" s="1" customFormat="1" ht="28" spans="1:7">
+    <row r="56" spans="1:7" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A56" s="14">
         <v>54</v>
       </c>
@@ -7606,7 +7019,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>55</v>
       </c>
@@ -7624,7 +7037,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="58" s="3" customFormat="1" ht="28" spans="1:7">
+    <row r="58" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A58" s="20">
         <v>56</v>
       </c>
@@ -7646,7 +7059,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="59" s="3" customFormat="1" ht="28" spans="1:7">
+    <row r="59" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A59" s="20">
         <v>57</v>
       </c>
@@ -7668,7 +7081,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="60" ht="28" spans="1:7">
+    <row r="60" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
         <v>58</v>
       </c>
@@ -7689,7 +7102,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
         <v>59</v>
       </c>
@@ -7708,7 +7121,7 @@
       </c>
       <c r="G61" s="12"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="7">
         <v>60</v>
       </c>
@@ -7727,7 +7140,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
         <v>61</v>
       </c>
@@ -7745,7 +7158,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="7">
         <v>62</v>
       </c>
@@ -7763,7 +7176,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="65" s="3" customFormat="1" spans="1:7">
+    <row r="65" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="20">
         <v>63</v>
       </c>
@@ -7783,7 +7196,7 @@
       </c>
       <c r="G65" s="23"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="7">
         <v>64</v>
       </c>
@@ -7802,7 +7215,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="7">
         <v>65</v>
       </c>
@@ -7820,7 +7233,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="7">
         <v>66</v>
       </c>
@@ -7839,7 +7252,7 @@
       </c>
       <c r="G68" s="12"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="7">
         <v>67</v>
       </c>
@@ -7857,7 +7270,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="7">
         <v>68</v>
       </c>
@@ -7875,7 +7288,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="71" s="3" customFormat="1" spans="1:7">
+    <row r="71" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="20">
         <v>69</v>
       </c>
@@ -7895,7 +7308,7 @@
       </c>
       <c r="G71" s="24"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="7">
         <v>70</v>
       </c>
@@ -7913,7 +7326,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="7">
         <v>71</v>
       </c>
@@ -7931,7 +7344,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="17">
         <v>72</v>
       </c>
@@ -7950,7 +7363,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="7">
         <v>73</v>
       </c>
@@ -7968,7 +7381,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="7">
         <v>74</v>
       </c>
@@ -7986,7 +7399,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="7">
         <v>75</v>
       </c>
@@ -8005,7 +7418,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="7">
         <v>76</v>
       </c>
@@ -8024,7 +7437,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="7">
         <v>77</v>
       </c>
@@ -8043,7 +7456,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="7">
         <v>78</v>
       </c>
@@ -8061,7 +7474,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="7">
         <v>79</v>
       </c>
@@ -8083,7 +7496,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="7">
         <v>80</v>
       </c>
@@ -8105,7 +7518,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="83" s="3" customFormat="1" spans="1:7">
+    <row r="83" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="20">
         <v>81</v>
       </c>
@@ -8125,7 +7538,7 @@
       </c>
       <c r="G83" s="24"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="7">
         <v>82</v>
       </c>
@@ -8143,7 +7556,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="7">
         <v>83</v>
       </c>
@@ -8162,7 +7575,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="7">
         <v>84</v>
       </c>
@@ -8181,7 +7594,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="7">
         <v>85</v>
       </c>
@@ -8200,7 +7613,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="7">
         <v>86</v>
       </c>
@@ -8218,7 +7631,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="7">
         <v>87</v>
       </c>
@@ -8237,7 +7650,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="7">
         <v>88</v>
       </c>
@@ -8256,7 +7669,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="7">
         <v>89</v>
       </c>
@@ -8270,14 +7683,14 @@
       <c r="D91">
         <v>89</v>
       </c>
-      <c r="E91" s="9" t="s">
+      <c r="E91" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="F91" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="F91" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="7">
         <v>90</v>
       </c>
@@ -8289,13 +7702,13 @@
         <v>90</v>
       </c>
       <c r="E92" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="F92" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="F92" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="7">
         <v>91</v>
       </c>
@@ -8307,13 +7720,13 @@
         <v>91</v>
       </c>
       <c r="E93" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="F93" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="F93" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="7">
         <v>92</v>
       </c>
@@ -8325,13 +7738,13 @@
         <v>92</v>
       </c>
       <c r="E94" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="F94" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="F94" s="5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="7">
         <v>93</v>
       </c>
@@ -8343,13 +7756,13 @@
         <v>93</v>
       </c>
       <c r="E95" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="F95" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="F95" s="5" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="7">
         <v>94</v>
       </c>
@@ -8362,13 +7775,13 @@
         <v>94</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="7">
         <v>95</v>
       </c>
@@ -8381,13 +7794,13 @@
         <v>95</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="7">
         <v>96</v>
       </c>
@@ -8399,13 +7812,13 @@
         <v>96</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="7">
         <v>97</v>
       </c>
@@ -8417,13 +7830,13 @@
         <v>97</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="100" s="4" customFormat="1" spans="1:7">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="25">
         <v>98</v>
       </c>
@@ -8435,14 +7848,14 @@
         <v>98</v>
       </c>
       <c r="E100" s="26" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G100" s="6"/>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="7">
         <v>99</v>
       </c>
@@ -8454,13 +7867,13 @@
         <v>99</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="102" s="4" customFormat="1" spans="1:7">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="25">
         <v>100</v>
       </c>
@@ -8472,14 +7885,14 @@
         <v>100</v>
       </c>
       <c r="E102" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G102" s="6"/>
     </row>
-    <row r="103" s="3" customFormat="1" spans="1:7">
+    <row r="103" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="27">
         <v>101</v>
       </c>
@@ -8491,14 +7904,14 @@
         <v>101</v>
       </c>
       <c r="E103" s="28" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F103" s="29" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G103" s="24"/>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="7">
         <v>102</v>
       </c>
@@ -8511,13 +7924,13 @@
         <v>102</v>
       </c>
       <c r="E104" s="31" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F104" s="32" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="7">
         <v>103</v>
       </c>
@@ -8526,19 +7939,19 @@
         <v>#N/A</v>
       </c>
       <c r="C105" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D105">
         <v>103</v>
       </c>
       <c r="E105" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="7">
         <v>104</v>
       </c>
@@ -8547,19 +7960,19 @@
         <v>#N/A</v>
       </c>
       <c r="C106" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D106">
         <v>104</v>
       </c>
       <c r="E106" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F106" s="33" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="7">
         <v>105</v>
       </c>
@@ -8568,39 +7981,39 @@
         <v>#N/A</v>
       </c>
       <c r="C107" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D107">
         <v>105</v>
       </c>
       <c r="E107" s="34" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="7">
         <v>106</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C108" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D108">
         <v>106</v>
       </c>
       <c r="E108" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="F108" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="F108" s="33" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="7">
         <v>107</v>
       </c>
@@ -8612,30 +8025,30 @@
         <v>107</v>
       </c>
       <c r="E109" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="7">
         <v>108</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D110">
         <v>108</v>
       </c>
       <c r="E110" s="34" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F110" s="33" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="7">
         <v>109</v>
       </c>
@@ -8647,14 +8060,14 @@
         <v>109</v>
       </c>
       <c r="E111" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F111" s="35" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G111" s="12"/>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="7">
         <v>110</v>
       </c>
@@ -8663,19 +8076,19 @@
         <v>#N/A</v>
       </c>
       <c r="C112" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D112">
         <v>110</v>
       </c>
       <c r="E112" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="7">
         <v>111</v>
       </c>
@@ -8684,19 +8097,19 @@
         <v>#N/A</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D113" s="2">
         <v>111</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="7">
         <v>112</v>
       </c>
@@ -8705,19 +8118,19 @@
         <v>#N/A</v>
       </c>
       <c r="C114" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D114">
         <v>112</v>
       </c>
       <c r="E114" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="7">
         <v>113</v>
       </c>
@@ -8726,19 +8139,19 @@
         <v>#N/A</v>
       </c>
       <c r="C115" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D115">
         <v>113</v>
       </c>
       <c r="E115" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="7">
         <v>114</v>
       </c>
@@ -8747,19 +8160,19 @@
         <v>#N/A</v>
       </c>
       <c r="C116" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D116">
         <v>114</v>
       </c>
       <c r="E116" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="7">
         <v>115</v>
       </c>
@@ -8771,13 +8184,13 @@
         <v>115</v>
       </c>
       <c r="E117" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="7">
         <v>116</v>
       </c>
@@ -8789,13 +8202,13 @@
         <v>116</v>
       </c>
       <c r="E118" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="7">
         <v>117</v>
       </c>
@@ -8807,13 +8220,13 @@
         <v>117</v>
       </c>
       <c r="E119" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="7">
         <v>118</v>
       </c>
@@ -8825,13 +8238,13 @@
         <v>118</v>
       </c>
       <c r="E120" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="7">
         <v>119</v>
       </c>
@@ -8843,13 +8256,13 @@
         <v>119</v>
       </c>
       <c r="E121" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="7">
         <v>120</v>
       </c>
@@ -8861,13 +8274,13 @@
         <v>120</v>
       </c>
       <c r="E122" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="7">
         <v>121</v>
       </c>
@@ -8879,13 +8292,13 @@
         <v>121</v>
       </c>
       <c r="E123" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="7">
         <v>122</v>
       </c>
@@ -8897,13 +8310,13 @@
         <v>122</v>
       </c>
       <c r="E124" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="7">
         <v>123</v>
       </c>
@@ -8915,13 +8328,13 @@
         <v>123</v>
       </c>
       <c r="E125" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="7">
         <v>124</v>
       </c>
@@ -8933,13 +8346,13 @@
         <v>124</v>
       </c>
       <c r="E126" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="7">
         <v>125</v>
       </c>
@@ -8951,13 +8364,13 @@
         <v>125</v>
       </c>
       <c r="E127" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="7">
         <v>126</v>
       </c>
@@ -8969,13 +8382,13 @@
         <v>126</v>
       </c>
       <c r="E128" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="7">
         <v>127</v>
       </c>
@@ -8987,13 +8400,13 @@
         <v>127</v>
       </c>
       <c r="E129" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="7">
         <v>128</v>
       </c>
@@ -9005,13 +8418,13 @@
         <v>128</v>
       </c>
       <c r="E130" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="7">
         <v>129</v>
       </c>
@@ -9023,13 +8436,13 @@
         <v>129</v>
       </c>
       <c r="E131" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="7">
         <v>130</v>
       </c>
@@ -9041,13 +8454,13 @@
         <v>130</v>
       </c>
       <c r="E132" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="7">
         <v>131</v>
       </c>
@@ -9059,13 +8472,13 @@
         <v>131</v>
       </c>
       <c r="E133" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>10000</v>
       </c>
@@ -9073,18 +8486,17 @@
         <v>10000</v>
       </c>
       <c r="E134" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G134">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:G134" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
